--- a/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9406070252754795</v>
+        <v>0.9406070252754798</v>
       </c>
       <c r="D2">
         <v>1.023299886822878</v>
       </c>
       <c r="E2">
-        <v>0.9579192935138093</v>
+        <v>0.9579192935138098</v>
       </c>
       <c r="F2">
-        <v>0.9816697259484405</v>
+        <v>0.9816697259484412</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.04671813134872</v>
       </c>
       <c r="J2">
-        <v>0.9647218810619423</v>
+        <v>0.9647218810619429</v>
       </c>
       <c r="K2">
         <v>1.034443887067279</v>
       </c>
       <c r="L2">
-        <v>0.9699977694966558</v>
+        <v>0.9699977694966564</v>
       </c>
       <c r="M2">
-        <v>0.9933904786354266</v>
+        <v>0.9933904786354273</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9521338199801007</v>
+        <v>0.9521338199801009</v>
       </c>
       <c r="D3">
         <v>1.02742216755624</v>
       </c>
       <c r="E3">
-        <v>0.9675887421682819</v>
+        <v>0.9675887421682823</v>
       </c>
       <c r="F3">
-        <v>0.9908377346297851</v>
+        <v>0.9908377346297852</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,13 +477,13 @@
         <v>1.048703706470339</v>
       </c>
       <c r="J3">
-        <v>0.9740202358797003</v>
+        <v>0.9740202358797004</v>
       </c>
       <c r="K3">
         <v>1.037715799267762</v>
       </c>
       <c r="L3">
-        <v>0.9786538450166601</v>
+        <v>0.9786538450166603</v>
       </c>
       <c r="M3">
         <v>1.001589206427697</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9592562042559442</v>
+        <v>0.9592562042559445</v>
       </c>
       <c r="D4">
         <v>1.029983875770341</v>
       </c>
       <c r="E4">
-        <v>0.9735728555952688</v>
+        <v>0.9735728555952687</v>
       </c>
       <c r="F4">
         <v>0.9965116088205181</v>
@@ -515,7 +515,7 @@
         <v>1.049915670825817</v>
       </c>
       <c r="J4">
-        <v>0.9797628590862031</v>
+        <v>0.9797628590862033</v>
       </c>
       <c r="K4">
         <v>1.039733404337222</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9621769132459018</v>
+        <v>0.9621769132459019</v>
       </c>
       <c r="D5">
         <v>1.03103704872785</v>
       </c>
       <c r="E5">
-        <v>0.9760287422814583</v>
+        <v>0.9760287422814585</v>
       </c>
       <c r="F5">
-        <v>0.9988397620189389</v>
+        <v>0.9988397620189393</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.050408698261975</v>
       </c>
       <c r="J5">
-        <v>0.9821168997242972</v>
+        <v>0.9821168997242974</v>
       </c>
       <c r="K5">
         <v>1.04055919420148</v>
       </c>
       <c r="L5">
-        <v>0.9861932445682855</v>
+        <v>0.9861932445682859</v>
       </c>
       <c r="M5">
-        <v>1.008727257980866</v>
+        <v>1.008727257980867</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.962663184882832</v>
+        <v>0.9626631848828328</v>
       </c>
       <c r="D6">
         <v>1.031212528228555</v>
       </c>
       <c r="E6">
-        <v>0.9764377322557583</v>
+        <v>0.9764377322557589</v>
       </c>
       <c r="F6">
-        <v>0.9992274441135606</v>
+        <v>0.9992274441135608</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.050490538673581</v>
       </c>
       <c r="J6">
-        <v>0.9825087703383504</v>
+        <v>0.9825087703383512</v>
       </c>
       <c r="K6">
-        <v>1.040696571627763</v>
+        <v>1.040696571627764</v>
       </c>
       <c r="L6">
-        <v>0.9865581842348203</v>
+        <v>0.9865581842348211</v>
       </c>
       <c r="M6">
         <v>1.009072622286271</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9592955114110264</v>
+        <v>0.9592955114110256</v>
       </c>
       <c r="D7">
-        <v>1.02999803983312</v>
+        <v>1.029998039833119</v>
       </c>
       <c r="E7">
-        <v>0.9736058997407517</v>
+        <v>0.9736058997407505</v>
       </c>
       <c r="F7">
-        <v>0.9965429364695747</v>
+        <v>0.9965429364695738</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.049922322276016</v>
       </c>
       <c r="J7">
-        <v>0.9797945436300466</v>
+        <v>0.9797945436300459</v>
       </c>
       <c r="K7">
         <v>1.039744524901623</v>
       </c>
       <c r="L7">
-        <v>0.984030561565419</v>
+        <v>0.984030561565418</v>
       </c>
       <c r="M7">
-        <v>1.006680249498248</v>
+        <v>1.006680249498247</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,19 +646,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.944576687587359</v>
+        <v>0.9445766875873597</v>
       </c>
       <c r="D8">
         <v>1.024715900141386</v>
       </c>
       <c r="E8">
-        <v>0.9612471130282404</v>
+        <v>0.961247113028241</v>
       </c>
       <c r="F8">
-        <v>0.984824666875685</v>
+        <v>0.9848246668756855</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.047404863041193</v>
       </c>
       <c r="J8">
-        <v>0.9679245750797457</v>
+        <v>0.9679245750797462</v>
       </c>
       <c r="K8">
         <v>1.035571171298912</v>
       </c>
       <c r="L8">
-        <v>0.9729789272571333</v>
+        <v>0.9729789272571339</v>
       </c>
       <c r="M8">
-        <v>0.9962141985789223</v>
+        <v>0.9962141985789229</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9156882321122989</v>
+        <v>0.9156882321122979</v>
       </c>
       <c r="D9">
         <v>1.014517228116929</v>
       </c>
       <c r="E9">
-        <v>0.9370870940377779</v>
+        <v>0.9370870940377772</v>
       </c>
       <c r="F9">
-        <v>0.9619422261119497</v>
+        <v>0.9619422261119492</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.042359939287264</v>
       </c>
       <c r="J9">
-        <v>0.9446148526339926</v>
+        <v>0.9446148526339916</v>
       </c>
       <c r="K9">
         <v>1.027379083865014</v>
       </c>
       <c r="L9">
-        <v>0.9512906175535565</v>
+        <v>0.9512906175535556</v>
       </c>
       <c r="M9">
-        <v>0.9756844961695468</v>
+        <v>0.9756844961695464</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8937780021442289</v>
+        <v>0.8937780021442282</v>
       </c>
       <c r="D10">
-        <v>1.006978609783371</v>
+        <v>1.00697860978337</v>
       </c>
       <c r="E10">
-        <v>0.918861570800809</v>
+        <v>0.9188615708008083</v>
       </c>
       <c r="F10">
-        <v>0.9447418717923256</v>
+        <v>0.9447418717923255</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038498867704491</v>
+        <v>1.03849886770449</v>
       </c>
       <c r="J10">
-        <v>0.9269468918637843</v>
+        <v>0.9269468918637838</v>
       </c>
       <c r="K10">
-        <v>1.021222996171781</v>
+        <v>1.02122299617178</v>
       </c>
       <c r="L10">
-        <v>0.9348685123532536</v>
+        <v>0.9348685123532529</v>
       </c>
       <c r="M10">
-        <v>0.9601860404024584</v>
+        <v>0.9601860404024579</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8834544288468107</v>
+        <v>0.8834544288468105</v>
       </c>
       <c r="D11">
         <v>1.003496581590206</v>
       </c>
       <c r="E11">
-        <v>0.9103073405178753</v>
+        <v>0.9103073405178752</v>
       </c>
       <c r="F11">
-        <v>0.9366966068743254</v>
+        <v>0.9366966068743255</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.036682117098658</v>
       </c>
       <c r="J11">
-        <v>0.9186309734077241</v>
+        <v>0.9186309734077238</v>
       </c>
       <c r="K11">
         <v>1.018352857388686</v>
       </c>
       <c r="L11">
-        <v>0.9271451366047389</v>
+        <v>0.9271451366047386</v>
       </c>
       <c r="M11">
-        <v>0.95291994180002</v>
+        <v>0.9529199418000199</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8794700962369196</v>
+        <v>0.8794700962369201</v>
       </c>
       <c r="D12">
-        <v>1.002165706520336</v>
+        <v>1.002165706520337</v>
       </c>
       <c r="E12">
-        <v>0.9070119580299273</v>
+        <v>0.907011958029928</v>
       </c>
       <c r="F12">
-        <v>0.9336029304660995</v>
+        <v>0.9336029304661</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.035982488692524</v>
       </c>
       <c r="J12">
-        <v>0.915423504318379</v>
+        <v>0.9154235043183796</v>
       </c>
       <c r="K12">
-        <v>1.017251532298917</v>
+        <v>1.017251532298918</v>
       </c>
       <c r="L12">
-        <v>0.924167375055464</v>
+        <v>0.9241673750554645</v>
       </c>
       <c r="M12">
-        <v>0.950123221662623</v>
+        <v>0.9501232216626235</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8803319872311526</v>
+        <v>0.880331987231152</v>
       </c>
       <c r="D13">
         <v>1.00245297131496</v>
       </c>
       <c r="E13">
-        <v>0.9077245211853929</v>
+        <v>0.9077245211853926</v>
       </c>
       <c r="F13">
-        <v>0.9342715977474939</v>
+        <v>0.9342715977474936</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.036133741815842</v>
       </c>
       <c r="J13">
-        <v>0.9161172401872139</v>
+        <v>0.9161172401872137</v>
       </c>
       <c r="K13">
-        <v>1.017489450160908</v>
+        <v>1.017489450160907</v>
       </c>
       <c r="L13">
-        <v>0.9248113712245153</v>
+        <v>0.924811371224515</v>
       </c>
       <c r="M13">
-        <v>0.9507278269688032</v>
+        <v>0.9507278269688029</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.883128300862403</v>
+        <v>0.8831283008624022</v>
       </c>
       <c r="D14">
-        <v>1.003387368154856</v>
+        <v>1.003387368154857</v>
       </c>
       <c r="E14">
-        <v>0.9100374751609663</v>
+        <v>0.9100374751609658</v>
       </c>
       <c r="F14">
-        <v>0.9364431364397678</v>
+        <v>0.936443136439768</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.036624812179984</v>
       </c>
       <c r="J14">
-        <v>0.9183683884205274</v>
+        <v>0.9183683884205269</v>
       </c>
       <c r="K14">
         <v>1.018262570567418</v>
       </c>
       <c r="L14">
-        <v>0.9269013320146734</v>
+        <v>0.926901332014673</v>
       </c>
       <c r="M14">
-        <v>0.9526908560186043</v>
+        <v>0.9526908560186044</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8848305269299969</v>
+        <v>0.8848305269299955</v>
       </c>
       <c r="D15">
-        <v>1.003957947861649</v>
+        <v>1.003957947861648</v>
       </c>
       <c r="E15">
-        <v>0.9114462905196309</v>
+        <v>0.9114462905196296</v>
       </c>
       <c r="F15">
-        <v>0.9377665999498546</v>
+        <v>0.9377665999498535</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.036923984869069</v>
       </c>
       <c r="J15">
-        <v>0.9197390375638215</v>
+        <v>0.9197390375638201</v>
       </c>
       <c r="K15">
-        <v>1.018734092222664</v>
+        <v>1.018734092222663</v>
       </c>
       <c r="L15">
-        <v>0.9281739991013999</v>
+        <v>0.9281739991013986</v>
       </c>
       <c r="M15">
-        <v>0.9538868899759291</v>
+        <v>0.9538868899759279</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8944436221460537</v>
+        <v>0.8944436221460553</v>
       </c>
       <c r="D16">
         <v>1.007204732274927</v>
       </c>
       <c r="E16">
-        <v>0.919413870189131</v>
+        <v>0.9194138701891329</v>
       </c>
       <c r="F16">
-        <v>0.9452619891513493</v>
+        <v>0.9452619891513505</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.038616145319465</v>
       </c>
       <c r="J16">
-        <v>0.9274832993435078</v>
+        <v>0.9274832993435095</v>
       </c>
       <c r="K16">
         <v>1.021408811014908</v>
       </c>
       <c r="L16">
-        <v>0.9353668420680934</v>
+        <v>0.935366842068095</v>
       </c>
       <c r="M16">
-        <v>0.9606554319316996</v>
+        <v>0.9606554319317006</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9002347881239098</v>
+        <v>0.9002347881239101</v>
       </c>
       <c r="D17">
         <v>1.009180046885148</v>
       </c>
       <c r="E17">
-        <v>0.9242228613977518</v>
+        <v>0.9242228613977519</v>
       </c>
       <c r="F17">
-        <v>0.949793972007437</v>
+        <v>0.9497939720074374</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>1.023029008668778</v>
       </c>
       <c r="L17">
-        <v>0.9397041743384211</v>
+        <v>0.9397041743384212</v>
       </c>
       <c r="M17">
-        <v>0.9647435415925514</v>
+        <v>0.9647435415925518</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.903533911110552</v>
+        <v>0.9035339111105519</v>
       </c>
       <c r="D18">
         <v>1.010311582079413</v>
       </c>
       <c r="E18">
-        <v>0.9269654183650137</v>
+        <v>0.9269654183650134</v>
       </c>
       <c r="F18">
-        <v>0.9523809981470879</v>
+        <v>0.9523809981470875</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.040218542008976</v>
       </c>
       <c r="J18">
-        <v>0.9348113263451053</v>
+        <v>0.934811326345105</v>
       </c>
       <c r="K18">
         <v>1.023954666746859</v>
       </c>
       <c r="L18">
-        <v>0.9421763219158458</v>
+        <v>0.9421763219158457</v>
       </c>
       <c r="M18">
-        <v>0.9670756444540366</v>
+        <v>0.9670756444540363</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1073,10 +1073,10 @@
         <v>1.010694032686763</v>
       </c>
       <c r="E19">
-        <v>0.9278904480904103</v>
+        <v>0.9278904480904105</v>
       </c>
       <c r="F19">
-        <v>0.9532539474973758</v>
+        <v>0.953253947497376</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>0.9430099072956156</v>
       </c>
       <c r="M19">
-        <v>0.9678623152149997</v>
+        <v>0.9678623152149998</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.899621750516671</v>
+        <v>0.8996217505166711</v>
       </c>
       <c r="D20">
-        <v>1.00897027908955</v>
+        <v>1.008970279089549</v>
       </c>
       <c r="E20">
-        <v>0.9237134784544856</v>
+        <v>0.9237134784544857</v>
       </c>
       <c r="F20">
-        <v>0.949313666364246</v>
+        <v>0.9493136663642456</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.039528818150479</v>
       </c>
       <c r="J20">
-        <v>0.9316570720182112</v>
+        <v>0.9316570720182114</v>
       </c>
       <c r="K20">
-        <v>1.022857209761498</v>
+        <v>1.022857209761497</v>
       </c>
       <c r="L20">
-        <v>0.9392449001160192</v>
+        <v>0.9392449001160194</v>
       </c>
       <c r="M20">
-        <v>0.964310439960818</v>
+        <v>0.9643104399608177</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8823092171882418</v>
+        <v>0.8823092171882403</v>
       </c>
       <c r="D21">
         <v>1.003113291430878</v>
       </c>
       <c r="E21">
-        <v>0.9093597988383079</v>
+        <v>0.9093597988383066</v>
       </c>
       <c r="F21">
-        <v>0.9358067262321357</v>
+        <v>0.9358067262321352</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.036480917536946</v>
       </c>
       <c r="J21">
-        <v>0.9177089305490028</v>
+        <v>0.9177089305490016</v>
       </c>
       <c r="K21">
         <v>1.018035920632534</v>
       </c>
       <c r="L21">
-        <v>0.9262890588898717</v>
+        <v>0.9262890588898705</v>
       </c>
       <c r="M21">
-        <v>0.9521156273951152</v>
+        <v>0.9521156273951149</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8705403261191362</v>
+        <v>0.8705403261191359</v>
       </c>
       <c r="D22">
-        <v>0.999210423458157</v>
+        <v>0.9992104234581569</v>
       </c>
       <c r="E22">
-        <v>0.8996391046534501</v>
+        <v>0.8996391046534498</v>
       </c>
       <c r="F22">
-        <v>0.9266938266854335</v>
+        <v>0.9266938266854332</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.034418878068415</v>
       </c>
       <c r="J22">
-        <v>0.9082395782553224</v>
+        <v>0.908239578255322</v>
       </c>
       <c r="K22">
         <v>1.014797538258316</v>
       </c>
       <c r="L22">
-        <v>0.9175004291932066</v>
+        <v>0.9175004291932064</v>
       </c>
       <c r="M22">
-        <v>0.9438721852618448</v>
+        <v>0.9438721852618445</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8768730589416106</v>
+        <v>0.8768730589416101</v>
       </c>
       <c r="D23">
         <v>1.001302254262052</v>
       </c>
       <c r="E23">
-        <v>0.9048658665994253</v>
+        <v>0.9048658665994246</v>
       </c>
       <c r="F23">
-        <v>0.9315900048284375</v>
+        <v>0.9315900048284378</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.035527065398469</v>
       </c>
       <c r="J23">
-        <v>0.9133335106148206</v>
+        <v>0.9133335106148203</v>
       </c>
       <c r="K23">
         <v>1.016535742832684</v>
       </c>
       <c r="L23">
-        <v>0.9222274231136388</v>
+        <v>0.9222274231136383</v>
       </c>
       <c r="M23">
-        <v>0.9483027430827848</v>
+        <v>0.9483027430827853</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8998989974933231</v>
+        <v>0.8998989974933226</v>
       </c>
       <c r="D24">
-        <v>1.009065127540408</v>
+        <v>1.009065127540409</v>
       </c>
       <c r="E24">
-        <v>0.9239438383224203</v>
+        <v>0.9239438383224198</v>
       </c>
       <c r="F24">
-        <v>0.9495308689830547</v>
+        <v>0.9495308689830549</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.039577695393281</v>
       </c>
       <c r="J24">
-        <v>0.9318805835649571</v>
+        <v>0.9318805835649566</v>
       </c>
       <c r="K24">
         <v>1.022934897842849</v>
       </c>
       <c r="L24">
-        <v>0.9394526035900449</v>
+        <v>0.9394526035900443</v>
       </c>
       <c r="M24">
-        <v>0.9645063009047128</v>
+        <v>0.9645063009047129</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9235663039168528</v>
+        <v>0.9235663039168532</v>
       </c>
       <c r="D25">
-        <v>1.017272205008884</v>
+        <v>1.017272205008883</v>
       </c>
       <c r="E25">
-        <v>0.9436619467328617</v>
+        <v>0.9436619467328625</v>
       </c>
       <c r="F25">
         <v>0.968162695419164</v>
@@ -1310,16 +1310,16 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043744359281713</v>
+        <v>1.043744359281712</v>
       </c>
       <c r="J25">
-        <v>0.9509713206214581</v>
+        <v>0.9509713206214585</v>
       </c>
       <c r="K25">
-        <v>1.029608181215886</v>
+        <v>1.029608181215885</v>
       </c>
       <c r="L25">
-        <v>0.9572026934454835</v>
+        <v>0.9572026934454839</v>
       </c>
       <c r="M25">
         <v>0.9812762050846648</v>

--- a/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9406070252754798</v>
+        <v>0.9406070252754795</v>
       </c>
       <c r="D2">
         <v>1.023299886822878</v>
       </c>
       <c r="E2">
-        <v>0.9579192935138098</v>
+        <v>0.9579192935138093</v>
       </c>
       <c r="F2">
-        <v>0.9816697259484412</v>
+        <v>0.9816697259484405</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.04671813134872</v>
       </c>
       <c r="J2">
-        <v>0.9647218810619429</v>
+        <v>0.9647218810619423</v>
       </c>
       <c r="K2">
         <v>1.034443887067279</v>
       </c>
       <c r="L2">
-        <v>0.9699977694966564</v>
+        <v>0.9699977694966558</v>
       </c>
       <c r="M2">
-        <v>0.9933904786354273</v>
+        <v>0.9933904786354266</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9521338199801009</v>
+        <v>0.9521338199801007</v>
       </c>
       <c r="D3">
         <v>1.02742216755624</v>
       </c>
       <c r="E3">
-        <v>0.9675887421682823</v>
+        <v>0.9675887421682819</v>
       </c>
       <c r="F3">
-        <v>0.9908377346297852</v>
+        <v>0.9908377346297851</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,13 +477,13 @@
         <v>1.048703706470339</v>
       </c>
       <c r="J3">
-        <v>0.9740202358797004</v>
+        <v>0.9740202358797003</v>
       </c>
       <c r="K3">
         <v>1.037715799267762</v>
       </c>
       <c r="L3">
-        <v>0.9786538450166603</v>
+        <v>0.9786538450166601</v>
       </c>
       <c r="M3">
         <v>1.001589206427697</v>
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9592562042559445</v>
+        <v>0.9592562042559442</v>
       </c>
       <c r="D4">
         <v>1.029983875770341</v>
       </c>
       <c r="E4">
-        <v>0.9735728555952687</v>
+        <v>0.9735728555952688</v>
       </c>
       <c r="F4">
         <v>0.9965116088205181</v>
@@ -515,7 +515,7 @@
         <v>1.049915670825817</v>
       </c>
       <c r="J4">
-        <v>0.9797628590862033</v>
+        <v>0.9797628590862031</v>
       </c>
       <c r="K4">
         <v>1.039733404337222</v>
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9621769132459019</v>
+        <v>0.9621769132459018</v>
       </c>
       <c r="D5">
         <v>1.03103704872785</v>
       </c>
       <c r="E5">
-        <v>0.9760287422814585</v>
+        <v>0.9760287422814583</v>
       </c>
       <c r="F5">
-        <v>0.9988397620189393</v>
+        <v>0.9988397620189389</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.050408698261975</v>
       </c>
       <c r="J5">
-        <v>0.9821168997242974</v>
+        <v>0.9821168997242972</v>
       </c>
       <c r="K5">
         <v>1.04055919420148</v>
       </c>
       <c r="L5">
-        <v>0.9861932445682859</v>
+        <v>0.9861932445682855</v>
       </c>
       <c r="M5">
-        <v>1.008727257980867</v>
+        <v>1.008727257980866</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9626631848828328</v>
+        <v>0.962663184882832</v>
       </c>
       <c r="D6">
         <v>1.031212528228555</v>
       </c>
       <c r="E6">
-        <v>0.9764377322557589</v>
+        <v>0.9764377322557583</v>
       </c>
       <c r="F6">
-        <v>0.9992274441135608</v>
+        <v>0.9992274441135606</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.050490538673581</v>
       </c>
       <c r="J6">
-        <v>0.9825087703383512</v>
+        <v>0.9825087703383504</v>
       </c>
       <c r="K6">
-        <v>1.040696571627764</v>
+        <v>1.040696571627763</v>
       </c>
       <c r="L6">
-        <v>0.9865581842348211</v>
+        <v>0.9865581842348203</v>
       </c>
       <c r="M6">
         <v>1.009072622286271</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9592955114110256</v>
+        <v>0.9592955114110264</v>
       </c>
       <c r="D7">
-        <v>1.029998039833119</v>
+        <v>1.02999803983312</v>
       </c>
       <c r="E7">
-        <v>0.9736058997407505</v>
+        <v>0.9736058997407517</v>
       </c>
       <c r="F7">
-        <v>0.9965429364695738</v>
+        <v>0.9965429364695747</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.049922322276016</v>
       </c>
       <c r="J7">
-        <v>0.9797945436300459</v>
+        <v>0.9797945436300466</v>
       </c>
       <c r="K7">
         <v>1.039744524901623</v>
       </c>
       <c r="L7">
-        <v>0.984030561565418</v>
+        <v>0.984030561565419</v>
       </c>
       <c r="M7">
-        <v>1.006680249498247</v>
+        <v>1.006680249498248</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,19 +646,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>0.9445766875873597</v>
+        <v>0.944576687587359</v>
       </c>
       <c r="D8">
         <v>1.024715900141386</v>
       </c>
       <c r="E8">
-        <v>0.961247113028241</v>
+        <v>0.9612471130282404</v>
       </c>
       <c r="F8">
-        <v>0.9848246668756855</v>
+        <v>0.984824666875685</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.047404863041193</v>
       </c>
       <c r="J8">
-        <v>0.9679245750797462</v>
+        <v>0.9679245750797457</v>
       </c>
       <c r="K8">
         <v>1.035571171298912</v>
       </c>
       <c r="L8">
-        <v>0.9729789272571339</v>
+        <v>0.9729789272571333</v>
       </c>
       <c r="M8">
-        <v>0.9962141985789229</v>
+        <v>0.9962141985789223</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9156882321122979</v>
+        <v>0.9156882321122989</v>
       </c>
       <c r="D9">
         <v>1.014517228116929</v>
       </c>
       <c r="E9">
-        <v>0.9370870940377772</v>
+        <v>0.9370870940377779</v>
       </c>
       <c r="F9">
-        <v>0.9619422261119492</v>
+        <v>0.9619422261119497</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.042359939287264</v>
       </c>
       <c r="J9">
-        <v>0.9446148526339916</v>
+        <v>0.9446148526339926</v>
       </c>
       <c r="K9">
         <v>1.027379083865014</v>
       </c>
       <c r="L9">
-        <v>0.9512906175535556</v>
+        <v>0.9512906175535565</v>
       </c>
       <c r="M9">
-        <v>0.9756844961695464</v>
+        <v>0.9756844961695468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8937780021442282</v>
+        <v>0.8937780021442289</v>
       </c>
       <c r="D10">
-        <v>1.00697860978337</v>
+        <v>1.006978609783371</v>
       </c>
       <c r="E10">
-        <v>0.9188615708008083</v>
+        <v>0.918861570800809</v>
       </c>
       <c r="F10">
-        <v>0.9447418717923255</v>
+        <v>0.9447418717923256</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03849886770449</v>
+        <v>1.038498867704491</v>
       </c>
       <c r="J10">
-        <v>0.9269468918637838</v>
+        <v>0.9269468918637843</v>
       </c>
       <c r="K10">
-        <v>1.02122299617178</v>
+        <v>1.021222996171781</v>
       </c>
       <c r="L10">
-        <v>0.9348685123532529</v>
+        <v>0.9348685123532536</v>
       </c>
       <c r="M10">
-        <v>0.9601860404024579</v>
+        <v>0.9601860404024584</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8834544288468105</v>
+        <v>0.8834544288468107</v>
       </c>
       <c r="D11">
         <v>1.003496581590206</v>
       </c>
       <c r="E11">
-        <v>0.9103073405178752</v>
+        <v>0.9103073405178753</v>
       </c>
       <c r="F11">
-        <v>0.9366966068743255</v>
+        <v>0.9366966068743254</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.036682117098658</v>
       </c>
       <c r="J11">
-        <v>0.9186309734077238</v>
+        <v>0.9186309734077241</v>
       </c>
       <c r="K11">
         <v>1.018352857388686</v>
       </c>
       <c r="L11">
-        <v>0.9271451366047386</v>
+        <v>0.9271451366047389</v>
       </c>
       <c r="M11">
-        <v>0.9529199418000199</v>
+        <v>0.95291994180002</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8794700962369201</v>
+        <v>0.8794700962369196</v>
       </c>
       <c r="D12">
-        <v>1.002165706520337</v>
+        <v>1.002165706520336</v>
       </c>
       <c r="E12">
-        <v>0.907011958029928</v>
+        <v>0.9070119580299273</v>
       </c>
       <c r="F12">
-        <v>0.9336029304661</v>
+        <v>0.9336029304660995</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.035982488692524</v>
       </c>
       <c r="J12">
-        <v>0.9154235043183796</v>
+        <v>0.915423504318379</v>
       </c>
       <c r="K12">
-        <v>1.017251532298918</v>
+        <v>1.017251532298917</v>
       </c>
       <c r="L12">
-        <v>0.9241673750554645</v>
+        <v>0.924167375055464</v>
       </c>
       <c r="M12">
-        <v>0.9501232216626235</v>
+        <v>0.950123221662623</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.880331987231152</v>
+        <v>0.8803319872311526</v>
       </c>
       <c r="D13">
         <v>1.00245297131496</v>
       </c>
       <c r="E13">
-        <v>0.9077245211853926</v>
+        <v>0.9077245211853929</v>
       </c>
       <c r="F13">
-        <v>0.9342715977474936</v>
+        <v>0.9342715977474939</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.036133741815842</v>
       </c>
       <c r="J13">
-        <v>0.9161172401872137</v>
+        <v>0.9161172401872139</v>
       </c>
       <c r="K13">
-        <v>1.017489450160907</v>
+        <v>1.017489450160908</v>
       </c>
       <c r="L13">
-        <v>0.924811371224515</v>
+        <v>0.9248113712245153</v>
       </c>
       <c r="M13">
-        <v>0.9507278269688029</v>
+        <v>0.9507278269688032</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8831283008624022</v>
+        <v>0.883128300862403</v>
       </c>
       <c r="D14">
-        <v>1.003387368154857</v>
+        <v>1.003387368154856</v>
       </c>
       <c r="E14">
-        <v>0.9100374751609658</v>
+        <v>0.9100374751609663</v>
       </c>
       <c r="F14">
-        <v>0.936443136439768</v>
+        <v>0.9364431364397678</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.036624812179984</v>
       </c>
       <c r="J14">
-        <v>0.9183683884205269</v>
+        <v>0.9183683884205274</v>
       </c>
       <c r="K14">
         <v>1.018262570567418</v>
       </c>
       <c r="L14">
-        <v>0.926901332014673</v>
+        <v>0.9269013320146734</v>
       </c>
       <c r="M14">
-        <v>0.9526908560186044</v>
+        <v>0.9526908560186043</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8848305269299955</v>
+        <v>0.8848305269299969</v>
       </c>
       <c r="D15">
-        <v>1.003957947861648</v>
+        <v>1.003957947861649</v>
       </c>
       <c r="E15">
-        <v>0.9114462905196296</v>
+        <v>0.9114462905196309</v>
       </c>
       <c r="F15">
-        <v>0.9377665999498535</v>
+        <v>0.9377665999498546</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.036923984869069</v>
       </c>
       <c r="J15">
-        <v>0.9197390375638201</v>
+        <v>0.9197390375638215</v>
       </c>
       <c r="K15">
-        <v>1.018734092222663</v>
+        <v>1.018734092222664</v>
       </c>
       <c r="L15">
-        <v>0.9281739991013986</v>
+        <v>0.9281739991013999</v>
       </c>
       <c r="M15">
-        <v>0.9538868899759279</v>
+        <v>0.9538868899759291</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8944436221460553</v>
+        <v>0.8944436221460537</v>
       </c>
       <c r="D16">
         <v>1.007204732274927</v>
       </c>
       <c r="E16">
-        <v>0.9194138701891329</v>
+        <v>0.919413870189131</v>
       </c>
       <c r="F16">
-        <v>0.9452619891513505</v>
+        <v>0.9452619891513493</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.038616145319465</v>
       </c>
       <c r="J16">
-        <v>0.9274832993435095</v>
+        <v>0.9274832993435078</v>
       </c>
       <c r="K16">
         <v>1.021408811014908</v>
       </c>
       <c r="L16">
-        <v>0.935366842068095</v>
+        <v>0.9353668420680934</v>
       </c>
       <c r="M16">
-        <v>0.9606554319317006</v>
+        <v>0.9606554319316996</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9002347881239101</v>
+        <v>0.9002347881239098</v>
       </c>
       <c r="D17">
         <v>1.009180046885148</v>
       </c>
       <c r="E17">
-        <v>0.9242228613977519</v>
+        <v>0.9242228613977518</v>
       </c>
       <c r="F17">
-        <v>0.9497939720074374</v>
+        <v>0.949793972007437</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>1.023029008668778</v>
       </c>
       <c r="L17">
-        <v>0.9397041743384212</v>
+        <v>0.9397041743384211</v>
       </c>
       <c r="M17">
-        <v>0.9647435415925518</v>
+        <v>0.9647435415925514</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9035339111105519</v>
+        <v>0.903533911110552</v>
       </c>
       <c r="D18">
         <v>1.010311582079413</v>
       </c>
       <c r="E18">
-        <v>0.9269654183650134</v>
+        <v>0.9269654183650137</v>
       </c>
       <c r="F18">
-        <v>0.9523809981470875</v>
+        <v>0.9523809981470879</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.040218542008976</v>
       </c>
       <c r="J18">
-        <v>0.934811326345105</v>
+        <v>0.9348113263451053</v>
       </c>
       <c r="K18">
         <v>1.023954666746859</v>
       </c>
       <c r="L18">
-        <v>0.9421763219158457</v>
+        <v>0.9421763219158458</v>
       </c>
       <c r="M18">
-        <v>0.9670756444540363</v>
+        <v>0.9670756444540366</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1073,10 +1073,10 @@
         <v>1.010694032686763</v>
       </c>
       <c r="E19">
-        <v>0.9278904480904105</v>
+        <v>0.9278904480904103</v>
       </c>
       <c r="F19">
-        <v>0.953253947497376</v>
+        <v>0.9532539474973758</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>0.9430099072956156</v>
       </c>
       <c r="M19">
-        <v>0.9678623152149998</v>
+        <v>0.9678623152149997</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8996217505166711</v>
+        <v>0.899621750516671</v>
       </c>
       <c r="D20">
-        <v>1.008970279089549</v>
+        <v>1.00897027908955</v>
       </c>
       <c r="E20">
-        <v>0.9237134784544857</v>
+        <v>0.9237134784544856</v>
       </c>
       <c r="F20">
-        <v>0.9493136663642456</v>
+        <v>0.949313666364246</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.039528818150479</v>
       </c>
       <c r="J20">
-        <v>0.9316570720182114</v>
+        <v>0.9316570720182112</v>
       </c>
       <c r="K20">
-        <v>1.022857209761497</v>
+        <v>1.022857209761498</v>
       </c>
       <c r="L20">
-        <v>0.9392449001160194</v>
+        <v>0.9392449001160192</v>
       </c>
       <c r="M20">
-        <v>0.9643104399608177</v>
+        <v>0.964310439960818</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8823092171882403</v>
+        <v>0.8823092171882418</v>
       </c>
       <c r="D21">
         <v>1.003113291430878</v>
       </c>
       <c r="E21">
-        <v>0.9093597988383066</v>
+        <v>0.9093597988383079</v>
       </c>
       <c r="F21">
-        <v>0.9358067262321352</v>
+        <v>0.9358067262321357</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.036480917536946</v>
       </c>
       <c r="J21">
-        <v>0.9177089305490016</v>
+        <v>0.9177089305490028</v>
       </c>
       <c r="K21">
         <v>1.018035920632534</v>
       </c>
       <c r="L21">
-        <v>0.9262890588898705</v>
+        <v>0.9262890588898717</v>
       </c>
       <c r="M21">
-        <v>0.9521156273951149</v>
+        <v>0.9521156273951152</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8705403261191359</v>
+        <v>0.8705403261191362</v>
       </c>
       <c r="D22">
-        <v>0.9992104234581569</v>
+        <v>0.999210423458157</v>
       </c>
       <c r="E22">
-        <v>0.8996391046534498</v>
+        <v>0.8996391046534501</v>
       </c>
       <c r="F22">
-        <v>0.9266938266854332</v>
+        <v>0.9266938266854335</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.034418878068415</v>
       </c>
       <c r="J22">
-        <v>0.908239578255322</v>
+        <v>0.9082395782553224</v>
       </c>
       <c r="K22">
         <v>1.014797538258316</v>
       </c>
       <c r="L22">
-        <v>0.9175004291932064</v>
+        <v>0.9175004291932066</v>
       </c>
       <c r="M22">
-        <v>0.9438721852618445</v>
+        <v>0.9438721852618448</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8768730589416101</v>
+        <v>0.8768730589416106</v>
       </c>
       <c r="D23">
         <v>1.001302254262052</v>
       </c>
       <c r="E23">
-        <v>0.9048658665994246</v>
+        <v>0.9048658665994253</v>
       </c>
       <c r="F23">
-        <v>0.9315900048284378</v>
+        <v>0.9315900048284375</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.035527065398469</v>
       </c>
       <c r="J23">
-        <v>0.9133335106148203</v>
+        <v>0.9133335106148206</v>
       </c>
       <c r="K23">
         <v>1.016535742832684</v>
       </c>
       <c r="L23">
-        <v>0.9222274231136383</v>
+        <v>0.9222274231136388</v>
       </c>
       <c r="M23">
-        <v>0.9483027430827853</v>
+        <v>0.9483027430827848</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8998989974933226</v>
+        <v>0.8998989974933231</v>
       </c>
       <c r="D24">
-        <v>1.009065127540409</v>
+        <v>1.009065127540408</v>
       </c>
       <c r="E24">
-        <v>0.9239438383224198</v>
+        <v>0.9239438383224203</v>
       </c>
       <c r="F24">
-        <v>0.9495308689830549</v>
+        <v>0.9495308689830547</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.039577695393281</v>
       </c>
       <c r="J24">
-        <v>0.9318805835649566</v>
+        <v>0.9318805835649571</v>
       </c>
       <c r="K24">
         <v>1.022934897842849</v>
       </c>
       <c r="L24">
-        <v>0.9394526035900443</v>
+        <v>0.9394526035900449</v>
       </c>
       <c r="M24">
-        <v>0.9645063009047129</v>
+        <v>0.9645063009047128</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9235663039168532</v>
+        <v>0.9235663039168528</v>
       </c>
       <c r="D25">
-        <v>1.017272205008883</v>
+        <v>1.017272205008884</v>
       </c>
       <c r="E25">
-        <v>0.9436619467328625</v>
+        <v>0.9436619467328617</v>
       </c>
       <c r="F25">
         <v>0.968162695419164</v>
@@ -1310,16 +1310,16 @@
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043744359281712</v>
+        <v>1.043744359281713</v>
       </c>
       <c r="J25">
-        <v>0.9509713206214585</v>
+        <v>0.9509713206214581</v>
       </c>
       <c r="K25">
-        <v>1.029608181215885</v>
+        <v>1.029608181215886</v>
       </c>
       <c r="L25">
-        <v>0.9572026934454839</v>
+        <v>0.9572026934454835</v>
       </c>
       <c r="M25">
         <v>0.9812762050846648</v>

--- a/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9406070252754795</v>
+        <v>0.9406878851109726</v>
       </c>
       <c r="D2">
-        <v>1.023299886822878</v>
+        <v>1.023314989543464</v>
       </c>
       <c r="E2">
-        <v>0.9579192935138093</v>
+        <v>0.957989422006184</v>
       </c>
       <c r="F2">
-        <v>0.9816697259484405</v>
+        <v>0.9817233394135205</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04671813134872</v>
+        <v>1.046728394786178</v>
       </c>
       <c r="J2">
-        <v>0.9647218810619423</v>
+        <v>0.9647998747363183</v>
       </c>
       <c r="K2">
-        <v>1.034443887067279</v>
+        <v>1.034458791230979</v>
       </c>
       <c r="L2">
-        <v>0.9699977694966558</v>
+        <v>0.9700668083720482</v>
       </c>
       <c r="M2">
-        <v>0.9933904786354266</v>
+        <v>0.9934433094329818</v>
+      </c>
+      <c r="N2">
+        <v>0.9771385301397554</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9521338199801007</v>
+        <v>0.9522002289137906</v>
       </c>
       <c r="D3">
-        <v>1.02742216755624</v>
+        <v>1.027434610618921</v>
       </c>
       <c r="E3">
-        <v>0.9675887421682819</v>
+        <v>0.9676465170377659</v>
       </c>
       <c r="F3">
-        <v>0.9908377346297851</v>
+        <v>0.9908818944720373</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048703706470339</v>
+        <v>1.048712180573293</v>
       </c>
       <c r="J3">
-        <v>0.9740202358797003</v>
+        <v>0.9740845738889876</v>
       </c>
       <c r="K3">
-        <v>1.037715799267762</v>
+        <v>1.037728093492747</v>
       </c>
       <c r="L3">
-        <v>0.9786538450166601</v>
+        <v>0.9787108169375524</v>
       </c>
       <c r="M3">
-        <v>1.001589206427697</v>
+        <v>1.001632788101119</v>
+      </c>
+      <c r="N3">
+        <v>0.9836330407048328</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9592562042559442</v>
+        <v>0.95931401191095</v>
       </c>
       <c r="D4">
-        <v>1.029983875770341</v>
+        <v>1.02999474178836</v>
       </c>
       <c r="E4">
-        <v>0.9735728555952688</v>
+        <v>0.9736232578933697</v>
       </c>
       <c r="F4">
-        <v>0.9965116088205181</v>
+        <v>0.9965501485141686</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049915670825817</v>
+        <v>1.049923081567503</v>
       </c>
       <c r="J4">
-        <v>0.9797628590862031</v>
+        <v>0.9798190109197147</v>
       </c>
       <c r="K4">
-        <v>1.039733404337222</v>
+        <v>1.039744148452536</v>
       </c>
       <c r="L4">
-        <v>0.984001056356013</v>
+        <v>0.9840508083922078</v>
       </c>
       <c r="M4">
-        <v>1.00665231878751</v>
+        <v>1.006690389308069</v>
+      </c>
+      <c r="N4">
+        <v>0.9876399359741372</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9621769132459018</v>
+        <v>0.9622312607876362</v>
       </c>
       <c r="D5">
-        <v>1.03103704872785</v>
+        <v>1.031047281788958</v>
       </c>
       <c r="E5">
-        <v>0.9760287422814583</v>
+        <v>0.9760761749253274</v>
       </c>
       <c r="F5">
-        <v>0.9988397620189389</v>
+        <v>0.9988760427793005</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050408698261975</v>
+        <v>1.050415681692211</v>
       </c>
       <c r="J5">
-        <v>0.9821168997242972</v>
+        <v>0.9821697460885724</v>
       </c>
       <c r="K5">
-        <v>1.04055919420148</v>
+        <v>1.040569315600166</v>
       </c>
       <c r="L5">
-        <v>0.9861932445682855</v>
+        <v>0.986240084474123</v>
       </c>
       <c r="M5">
-        <v>1.008727257980866</v>
+        <v>1.008763110647596</v>
+      </c>
+      <c r="N5">
+        <v>0.9892814388801493</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.962663184882832</v>
+        <v>0.962716959994843</v>
       </c>
       <c r="D6">
-        <v>1.031212528228555</v>
+        <v>1.031222656661018</v>
       </c>
       <c r="E6">
-        <v>0.9764377322557583</v>
+        <v>0.9764846734073654</v>
       </c>
       <c r="F6">
-        <v>0.9992274441135606</v>
+        <v>0.9992633512851429</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050490538673581</v>
+        <v>1.050497451438972</v>
       </c>
       <c r="J6">
-        <v>0.9825087703383504</v>
+        <v>0.9825610691723854</v>
       </c>
       <c r="K6">
-        <v>1.040696571627763</v>
+        <v>1.040706590058058</v>
       </c>
       <c r="L6">
-        <v>0.9865581842348203</v>
+        <v>0.9866045419461582</v>
       </c>
       <c r="M6">
-        <v>1.009072622286271</v>
+        <v>1.009108108004933</v>
+      </c>
+      <c r="N6">
+        <v>0.9895546341602676</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9592955114110264</v>
+        <v>0.9593532722471573</v>
       </c>
       <c r="D7">
-        <v>1.02999803983312</v>
+        <v>1.030008897280767</v>
       </c>
       <c r="E7">
-        <v>0.9736058997407517</v>
+        <v>0.9736562618706126</v>
       </c>
       <c r="F7">
-        <v>0.9965429364695747</v>
+        <v>0.9965814455894482</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049922322276016</v>
+        <v>1.049929727233856</v>
       </c>
       <c r="J7">
-        <v>0.9797945436300466</v>
+        <v>0.9798506507845206</v>
       </c>
       <c r="K7">
-        <v>1.039744524901623</v>
+        <v>1.03975526058745</v>
       </c>
       <c r="L7">
-        <v>0.984030561565419</v>
+        <v>0.9840802742268099</v>
       </c>
       <c r="M7">
-        <v>1.006680249498248</v>
+        <v>1.006718290011582</v>
+      </c>
+      <c r="N7">
+        <v>0.9876620341181441</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.944576687587359</v>
+        <v>0.9446524927673586</v>
       </c>
       <c r="D8">
-        <v>1.024715900141386</v>
+        <v>1.024730071270079</v>
       </c>
       <c r="E8">
-        <v>0.9612471130282404</v>
+        <v>0.9613129253619658</v>
       </c>
       <c r="F8">
-        <v>0.984824666875685</v>
+        <v>0.9848749724124727</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047404863041193</v>
+        <v>1.047414500284052</v>
       </c>
       <c r="J8">
-        <v>0.9679245750797457</v>
+        <v>0.9679978061225764</v>
       </c>
       <c r="K8">
-        <v>1.035571171298912</v>
+        <v>1.035585161871113</v>
       </c>
       <c r="L8">
-        <v>0.9729789272571333</v>
+        <v>0.973043754446141</v>
       </c>
       <c r="M8">
-        <v>0.9962141985789223</v>
+        <v>0.9962637959553459</v>
+      </c>
+      <c r="N8">
+        <v>0.9793763225798346</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9156882321122989</v>
+        <v>0.9158029577896272</v>
       </c>
       <c r="D9">
-        <v>1.014517228116929</v>
+        <v>1.014538598333574</v>
       </c>
       <c r="E9">
-        <v>0.9370870940377779</v>
+        <v>0.9371859924313276</v>
       </c>
       <c r="F9">
-        <v>0.9619422261119497</v>
+        <v>0.962018011978331</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042359939287264</v>
+        <v>1.042374401639169</v>
       </c>
       <c r="J9">
-        <v>0.9446148526339926</v>
+        <v>0.9447243794561955</v>
       </c>
       <c r="K9">
-        <v>1.027379083865014</v>
+        <v>1.027400119947742</v>
       </c>
       <c r="L9">
-        <v>0.9512906175535565</v>
+        <v>0.9513876171457114</v>
       </c>
       <c r="M9">
-        <v>0.9756844961695468</v>
+        <v>0.9757589229720267</v>
+      </c>
+      <c r="N9">
+        <v>0.9630731555085864</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8937780021442289</v>
+        <v>0.8939261842956359</v>
       </c>
       <c r="D10">
-        <v>1.006978609783371</v>
+        <v>1.007006193585521</v>
       </c>
       <c r="E10">
-        <v>0.918861570800809</v>
+        <v>0.9189886192120839</v>
       </c>
       <c r="F10">
-        <v>0.9447418717923256</v>
+        <v>0.9448395274256933</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038498867704491</v>
+        <v>1.038517472365498</v>
       </c>
       <c r="J10">
-        <v>0.9269468918637843</v>
+        <v>0.9270869566440245</v>
       </c>
       <c r="K10">
-        <v>1.021222996171781</v>
+        <v>1.021250090872813</v>
       </c>
       <c r="L10">
-        <v>0.9348685123532536</v>
+        <v>0.9349926948069975</v>
       </c>
       <c r="M10">
-        <v>0.9601860404024584</v>
+        <v>0.9602816496806242</v>
+      </c>
+      <c r="N10">
+        <v>0.950698111831767</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8834544288468107</v>
+        <v>0.8836198526451391</v>
       </c>
       <c r="D11">
-        <v>1.003496581590206</v>
+        <v>1.003527367503433</v>
       </c>
       <c r="E11">
-        <v>0.9103073405178753</v>
+        <v>0.9104487860017182</v>
       </c>
       <c r="F11">
-        <v>0.9366966068743254</v>
+        <v>0.9368055016010189</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036682117098658</v>
+        <v>1.036702849893101</v>
       </c>
       <c r="J11">
-        <v>0.9186309734077241</v>
+        <v>0.9187865527744703</v>
       </c>
       <c r="K11">
-        <v>1.018352857388686</v>
+        <v>1.01838306801644</v>
       </c>
       <c r="L11">
-        <v>0.9271451366047389</v>
+        <v>0.9272831609515892</v>
       </c>
       <c r="M11">
-        <v>0.95291994180002</v>
+        <v>0.9530263964937105</v>
+      </c>
+      <c r="N11">
+        <v>0.9448706289060088</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8794700962369196</v>
+        <v>0.8796424656739397</v>
       </c>
       <c r="D12">
-        <v>1.002165706520336</v>
+        <v>1.002197781468664</v>
       </c>
       <c r="E12">
-        <v>0.9070119580299273</v>
+        <v>0.9071591820049221</v>
       </c>
       <c r="F12">
-        <v>0.9336029304660995</v>
+        <v>0.9337163449593354</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035982488692524</v>
+        <v>1.036004077082601</v>
       </c>
       <c r="J12">
-        <v>0.915423504318379</v>
+        <v>0.9155852929170964</v>
       </c>
       <c r="K12">
-        <v>1.017251532298917</v>
+        <v>1.017282996236681</v>
       </c>
       <c r="L12">
-        <v>0.924167375055464</v>
+        <v>0.9243109443739567</v>
       </c>
       <c r="M12">
-        <v>0.950123221662623</v>
+        <v>0.9502340307266756</v>
+      </c>
+      <c r="N12">
+        <v>0.9426227002836358</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8803319872311526</v>
+        <v>0.8805028396749885</v>
       </c>
       <c r="D13">
-        <v>1.00245297131496</v>
+        <v>1.002484764785162</v>
       </c>
       <c r="E13">
-        <v>0.9077245211853929</v>
+        <v>0.9078704841223111</v>
       </c>
       <c r="F13">
-        <v>0.9342715977474939</v>
+        <v>0.9343840254912712</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036133741815842</v>
+        <v>1.036155143426268</v>
       </c>
       <c r="J13">
-        <v>0.9161172401872139</v>
+        <v>0.9162776745816673</v>
       </c>
       <c r="K13">
-        <v>1.017489450160908</v>
+        <v>1.017520640468941</v>
       </c>
       <c r="L13">
-        <v>0.9248113712245153</v>
+        <v>0.9249537309724954</v>
       </c>
       <c r="M13">
-        <v>0.9507278269688032</v>
+        <v>0.9508376857266996</v>
+      </c>
+      <c r="N13">
+        <v>0.9431089076130585</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.883128300862403</v>
+        <v>0.8832942868187854</v>
       </c>
       <c r="D14">
-        <v>1.003387368154856</v>
+        <v>1.003418258423038</v>
       </c>
       <c r="E14">
-        <v>0.9100374751609663</v>
+        <v>0.9101793887906892</v>
       </c>
       <c r="F14">
-        <v>0.9364431364397678</v>
+        <v>0.9365523971584219</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036624812179984</v>
+        <v>1.036645614262464</v>
       </c>
       <c r="J14">
-        <v>0.9183683884205274</v>
+        <v>0.9185244711969929</v>
       </c>
       <c r="K14">
-        <v>1.018262570567418</v>
+        <v>1.018292882678894</v>
       </c>
       <c r="L14">
-        <v>0.9269013320146734</v>
+        <v>0.9270398058113295</v>
       </c>
       <c r="M14">
-        <v>0.9526908560186043</v>
+        <v>0.9527976634580404</v>
+      </c>
+      <c r="N14">
+        <v>0.9446866023350211</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8848305269299969</v>
+        <v>0.8849935909190391</v>
       </c>
       <c r="D15">
-        <v>1.003957947861649</v>
+        <v>1.003988295674807</v>
       </c>
       <c r="E15">
-        <v>0.9114462905196309</v>
+        <v>0.911585769964054</v>
       </c>
       <c r="F15">
-        <v>0.9377665999498546</v>
+        <v>0.9378739579975341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036923984869069</v>
+        <v>1.036944426736107</v>
       </c>
       <c r="J15">
-        <v>0.9197390375638215</v>
+        <v>0.9198925020771399</v>
       </c>
       <c r="K15">
-        <v>1.018734092222664</v>
+        <v>1.018763876762999</v>
       </c>
       <c r="L15">
-        <v>0.9281739991013999</v>
+        <v>0.9283101354916111</v>
       </c>
       <c r="M15">
-        <v>0.9538868899759291</v>
+        <v>0.9539918633203888</v>
+      </c>
+      <c r="N15">
+        <v>0.9456471807115912</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8944436221460537</v>
+        <v>0.8945907278260682</v>
       </c>
       <c r="D16">
-        <v>1.007204732274927</v>
+        <v>1.007232116091438</v>
       </c>
       <c r="E16">
-        <v>0.919413870189131</v>
+        <v>0.9195400172344417</v>
       </c>
       <c r="F16">
-        <v>0.9452619891513493</v>
+        <v>0.9453589422447705</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038616145319465</v>
+        <v>1.038634616932152</v>
       </c>
       <c r="J16">
-        <v>0.9274832993435078</v>
+        <v>0.9276223905913248</v>
       </c>
       <c r="K16">
-        <v>1.021408811014908</v>
+        <v>1.021435710982881</v>
       </c>
       <c r="L16">
-        <v>0.9353668420680934</v>
+        <v>0.9354901566074173</v>
       </c>
       <c r="M16">
-        <v>0.9606554319316996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9607503624106674</v>
+      </c>
+      <c r="N16">
+        <v>0.9510739614760454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9002347881239098</v>
+        <v>0.9003726964239992</v>
       </c>
       <c r="D17">
-        <v>1.009180046885148</v>
+        <v>1.009205721959293</v>
       </c>
       <c r="E17">
-        <v>0.9242228613977518</v>
+        <v>0.9243412952451654</v>
       </c>
       <c r="F17">
-        <v>0.949793972007437</v>
+        <v>0.9498849190716612</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039636894408334</v>
+        <v>1.039654228512145</v>
       </c>
       <c r="J17">
-        <v>0.93215129705998</v>
+        <v>0.9322820464233894</v>
       </c>
       <c r="K17">
-        <v>1.023029008668778</v>
+        <v>1.023054244101522</v>
       </c>
       <c r="L17">
-        <v>0.9397041743384211</v>
+        <v>0.9398200554087931</v>
       </c>
       <c r="M17">
-        <v>0.9647435415925514</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9648326646558782</v>
+      </c>
+      <c r="N17">
+        <v>0.9543444339642607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.903533911110552</v>
+        <v>0.9036667098524362</v>
       </c>
       <c r="D18">
-        <v>1.010311582079413</v>
+        <v>1.010336307934783</v>
       </c>
       <c r="E18">
-        <v>0.9269654183650137</v>
+        <v>0.9270795579915392</v>
       </c>
       <c r="F18">
-        <v>0.9523809981470879</v>
+        <v>0.9524686060948298</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040218542008976</v>
+        <v>1.040235243656745</v>
       </c>
       <c r="J18">
-        <v>0.9348113263451053</v>
+        <v>0.9349374225881651</v>
       </c>
       <c r="K18">
-        <v>1.023954666746859</v>
+        <v>1.023978976975169</v>
       </c>
       <c r="L18">
-        <v>0.9421763219158458</v>
+        <v>0.9422880593390344</v>
       </c>
       <c r="M18">
-        <v>0.9670756444540366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9671615353760198</v>
+      </c>
+      <c r="N18">
+        <v>0.9562078207265773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9046460920207232</v>
+        <v>0.9047771887054432</v>
       </c>
       <c r="D19">
-        <v>1.010694032686763</v>
+        <v>1.010718442375342</v>
       </c>
       <c r="E19">
-        <v>0.9278904480904103</v>
+        <v>0.9280031558071764</v>
       </c>
       <c r="F19">
-        <v>0.9532539474973758</v>
+        <v>0.9533404427876578</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040414618531616</v>
+        <v>1.04043110942789</v>
       </c>
       <c r="J19">
-        <v>0.9357081704769501</v>
+        <v>0.9358327136813064</v>
       </c>
       <c r="K19">
-        <v>1.024267124187092</v>
+        <v>1.024291126157345</v>
       </c>
       <c r="L19">
-        <v>0.9430099072956156</v>
+        <v>0.9431202621806383</v>
       </c>
       <c r="M19">
-        <v>0.9678623152149997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9679471285653009</v>
+      </c>
+      <c r="N19">
+        <v>0.9568360220741958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.899621750516671</v>
+        <v>0.899760618456343</v>
       </c>
       <c r="D20">
-        <v>1.00897027908955</v>
+        <v>1.008996132449063</v>
       </c>
       <c r="E20">
-        <v>0.9237134784544856</v>
+        <v>0.9238327180798948</v>
       </c>
       <c r="F20">
-        <v>0.949313666364246</v>
+        <v>0.949405240367786</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039528818150479</v>
+        <v>1.039546270998656</v>
       </c>
       <c r="J20">
-        <v>0.9316570720182112</v>
+        <v>0.9317886937857521</v>
       </c>
       <c r="K20">
-        <v>1.022857209761498</v>
+        <v>1.022882618924905</v>
       </c>
       <c r="L20">
-        <v>0.9392449001160192</v>
+        <v>0.9393615582947533</v>
       </c>
       <c r="M20">
-        <v>0.964310439960818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9644001696001971</v>
+      </c>
+      <c r="N20">
+        <v>0.9539981994565385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8823092171882418</v>
+        <v>0.8824766199705445</v>
       </c>
       <c r="D21">
-        <v>1.003113291430878</v>
+        <v>1.003144444690282</v>
       </c>
       <c r="E21">
-        <v>0.9093597988383079</v>
+        <v>0.9095028919976808</v>
       </c>
       <c r="F21">
-        <v>0.9358067262321357</v>
+        <v>0.9359169092368882</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036480917536946</v>
+        <v>1.036501894218566</v>
       </c>
       <c r="J21">
-        <v>0.9177089305490028</v>
+        <v>0.9178662814153944</v>
       </c>
       <c r="K21">
-        <v>1.018035920632534</v>
+        <v>1.018066488482684</v>
       </c>
       <c r="L21">
-        <v>0.9262890588898717</v>
+        <v>0.9264286649348238</v>
       </c>
       <c r="M21">
-        <v>0.9521156273951152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9522233236249784</v>
+      </c>
+      <c r="N21">
+        <v>0.9442244332378187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8705403261191362</v>
+        <v>0.8707289100862763</v>
       </c>
       <c r="D22">
-        <v>0.999210423458157</v>
+        <v>0.9992455044669399</v>
       </c>
       <c r="E22">
-        <v>0.8996391046534501</v>
+        <v>0.8997997712398719</v>
       </c>
       <c r="F22">
-        <v>0.9266938266854335</v>
+        <v>0.9268177729599515</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034418878068415</v>
+        <v>1.034442459492657</v>
       </c>
       <c r="J22">
-        <v>0.9082395782553224</v>
+        <v>0.9084157748482732</v>
       </c>
       <c r="K22">
-        <v>1.014797538258316</v>
+        <v>1.014831922893373</v>
       </c>
       <c r="L22">
-        <v>0.9175004291932066</v>
+        <v>0.9176568754426971</v>
       </c>
       <c r="M22">
-        <v>0.9438721852618448</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9439931259321745</v>
+      </c>
+      <c r="N22">
+        <v>0.9375876709256864</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8768730589416106</v>
+        <v>0.8770500491258325</v>
       </c>
       <c r="D23">
-        <v>1.001302254262052</v>
+        <v>1.001335186361643</v>
       </c>
       <c r="E23">
-        <v>0.9048658665994253</v>
+        <v>0.9050169281130536</v>
       </c>
       <c r="F23">
-        <v>0.9315900048284375</v>
+        <v>0.9317064234940464</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035527065398469</v>
+        <v>1.035549222394686</v>
       </c>
       <c r="J23">
-        <v>0.9133335106148206</v>
+        <v>0.9134994174656084</v>
       </c>
       <c r="K23">
-        <v>1.016535742832684</v>
+        <v>1.01656803986427</v>
       </c>
       <c r="L23">
-        <v>0.9222274231136388</v>
+        <v>0.9223746716335233</v>
       </c>
       <c r="M23">
-        <v>0.9483027430827848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9484164442386863</v>
+      </c>
+      <c r="N23">
+        <v>0.9411578993836047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,72 +1323,78 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8998989974933231</v>
+        <v>0.9000374310337578</v>
       </c>
       <c r="D24">
-        <v>1.009065127540408</v>
+        <v>1.009090900195375</v>
       </c>
       <c r="E24">
-        <v>0.9239438383224203</v>
+        <v>0.9240627132256652</v>
       </c>
       <c r="F24">
-        <v>0.9495308689830547</v>
+        <v>0.949622159198183</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039577695393281</v>
+        <v>1.039595094491137</v>
       </c>
       <c r="J24">
-        <v>0.9318805835649571</v>
+        <v>0.9320118104809576</v>
       </c>
       <c r="K24">
-        <v>1.022934897842849</v>
+        <v>1.022960228365198</v>
       </c>
       <c r="L24">
-        <v>0.9394526035900449</v>
+        <v>0.939568910039608</v>
       </c>
       <c r="M24">
-        <v>0.9645063009047128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.964595755984049</v>
+      </c>
+      <c r="N24">
+        <v>0.9541547836607146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9235663039168528</v>
+        <v>0.9236698934711917</v>
       </c>
       <c r="D25">
-        <v>1.017272205008884</v>
+        <v>1.017291510352116</v>
       </c>
       <c r="E25">
-        <v>0.9436619467328617</v>
+        <v>0.9437514142017073</v>
       </c>
       <c r="F25">
-        <v>0.968162695419164</v>
+        <v>0.9682311909561446</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043744359281713</v>
+        <v>1.043757440794696</v>
       </c>
       <c r="J25">
-        <v>0.9509713206214581</v>
+        <v>0.9510705495123972</v>
       </c>
       <c r="K25">
-        <v>1.029608181215886</v>
+        <v>1.029627199675909</v>
       </c>
       <c r="L25">
-        <v>0.9572026934454835</v>
+        <v>0.957290548354201</v>
       </c>
       <c r="M25">
-        <v>0.9812762050846648</v>
+        <v>0.9813435453137077</v>
+      </c>
+      <c r="N25">
+        <v>0.9675222655041387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9406878851109726</v>
+        <v>1.003748660294975</v>
       </c>
       <c r="D2">
-        <v>1.023314989543464</v>
+        <v>1.04121779591071</v>
       </c>
       <c r="E2">
-        <v>0.957989422006184</v>
+        <v>1.020835628316033</v>
       </c>
       <c r="F2">
-        <v>0.9817233394135205</v>
+        <v>1.035914231512649</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046728394786178</v>
+        <v>1.050622542996876</v>
       </c>
       <c r="J2">
-        <v>0.9647998747363183</v>
+        <v>1.025817824772709</v>
       </c>
       <c r="K2">
-        <v>1.034458791230979</v>
+        <v>1.052131282368787</v>
       </c>
       <c r="L2">
-        <v>0.9700668083720482</v>
+        <v>1.03201212510459</v>
       </c>
       <c r="M2">
-        <v>0.9934433094329818</v>
+        <v>1.046894910275567</v>
       </c>
       <c r="N2">
-        <v>0.9771385301397554</v>
+        <v>1.027274603746835</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9522002289137906</v>
+        <v>1.011449642961066</v>
       </c>
       <c r="D3">
-        <v>1.027434610618921</v>
+        <v>1.045706765643149</v>
       </c>
       <c r="E3">
-        <v>0.9676465170377659</v>
+        <v>1.027162816041477</v>
       </c>
       <c r="F3">
-        <v>0.9908818944720373</v>
+        <v>1.041956922074019</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048712180573293</v>
+        <v>1.052353691367746</v>
       </c>
       <c r="J3">
-        <v>0.9740845738889876</v>
+        <v>1.031632972093885</v>
       </c>
       <c r="K3">
-        <v>1.037728093492747</v>
+        <v>1.055786404992262</v>
       </c>
       <c r="L3">
-        <v>0.9787108169375524</v>
+        <v>1.037459551004347</v>
       </c>
       <c r="M3">
-        <v>1.001632788101119</v>
+        <v>1.05207969101982</v>
       </c>
       <c r="N3">
-        <v>0.9836330407048328</v>
+        <v>1.033098009244215</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.95931401191095</v>
+        <v>1.016287001302373</v>
       </c>
       <c r="D4">
-        <v>1.02999474178836</v>
+        <v>1.048531400612282</v>
       </c>
       <c r="E4">
-        <v>0.9736232578933697</v>
+        <v>1.031144005429616</v>
       </c>
       <c r="F4">
-        <v>0.9965501485141686</v>
+        <v>1.045760050084585</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049923081567503</v>
+        <v>1.053429856312689</v>
       </c>
       <c r="J4">
-        <v>0.9798190109197147</v>
+        <v>1.035283064436424</v>
       </c>
       <c r="K4">
-        <v>1.039744148452536</v>
+        <v>1.058077359780928</v>
       </c>
       <c r="L4">
-        <v>0.9840508083922078</v>
+        <v>1.040880536695163</v>
       </c>
       <c r="M4">
-        <v>1.006690389308069</v>
+        <v>1.055335863589548</v>
       </c>
       <c r="N4">
-        <v>0.9876399359741372</v>
+        <v>1.036753285136551</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9622312607876362</v>
+        <v>1.018287718970272</v>
       </c>
       <c r="D5">
-        <v>1.031047281788958</v>
+        <v>1.049700614402595</v>
       </c>
       <c r="E5">
-        <v>0.9760761749253274</v>
+        <v>1.032792114254787</v>
       </c>
       <c r="F5">
-        <v>0.9988760427793005</v>
+        <v>1.047334616349799</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050415681692211</v>
+        <v>1.053872159801587</v>
       </c>
       <c r="J5">
-        <v>0.9821697460885724</v>
+        <v>1.036792008865626</v>
       </c>
       <c r="K5">
-        <v>1.040569315600166</v>
+        <v>1.059023527676843</v>
       </c>
       <c r="L5">
-        <v>0.986240084474123</v>
+        <v>1.042295148280011</v>
       </c>
       <c r="M5">
-        <v>1.008763110647596</v>
+        <v>1.05668230599004</v>
       </c>
       <c r="N5">
-        <v>0.9892814388801493</v>
+        <v>1.038264372439921</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.962716959994843</v>
+        <v>1.01862177280812</v>
       </c>
       <c r="D6">
-        <v>1.031222656661018</v>
+        <v>1.049895884365571</v>
       </c>
       <c r="E6">
-        <v>0.9764846734073654</v>
+        <v>1.033067378781429</v>
       </c>
       <c r="F6">
-        <v>0.9992633512851429</v>
+        <v>1.047597606319538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050497451438972</v>
+        <v>1.05394584282123</v>
       </c>
       <c r="J6">
-        <v>0.9825610691723854</v>
+        <v>1.037043908030721</v>
       </c>
       <c r="K6">
-        <v>1.040706590058058</v>
+        <v>1.059181421668383</v>
       </c>
       <c r="L6">
-        <v>0.9866045419461582</v>
+        <v>1.042531321264681</v>
       </c>
       <c r="M6">
-        <v>1.009108108004933</v>
+        <v>1.056907095595034</v>
       </c>
       <c r="N6">
-        <v>0.9895546341602676</v>
+        <v>1.038516629330724</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9593532722471573</v>
+        <v>1.016313861810394</v>
       </c>
       <c r="D7">
-        <v>1.030008897280767</v>
+        <v>1.048547094330297</v>
       </c>
       <c r="E7">
-        <v>0.9736562618706126</v>
+        <v>1.031166126232861</v>
       </c>
       <c r="F7">
-        <v>0.9965814455894482</v>
+        <v>1.045781183204594</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049929727233856</v>
+        <v>1.053435805614696</v>
       </c>
       <c r="J7">
-        <v>0.9798506507845206</v>
+        <v>1.035303325638594</v>
       </c>
       <c r="K7">
-        <v>1.03975526058745</v>
+        <v>1.058090068107294</v>
       </c>
       <c r="L7">
-        <v>0.9840802742268099</v>
+        <v>1.040899529787876</v>
       </c>
       <c r="M7">
-        <v>1.006718290011582</v>
+        <v>1.055353941547776</v>
       </c>
       <c r="N7">
-        <v>0.9876620341181441</v>
+        <v>1.036773575111953</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9446524927673586</v>
+        <v>1.006382650823719</v>
       </c>
       <c r="D8">
-        <v>1.024730071270079</v>
+        <v>1.042751997275638</v>
       </c>
       <c r="E8">
-        <v>0.9613129253619658</v>
+        <v>1.02299822486468</v>
       </c>
       <c r="F8">
-        <v>0.9848749724124727</v>
+        <v>1.037979351657504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047414500284052</v>
+        <v>1.051216966866658</v>
       </c>
       <c r="J8">
-        <v>0.9679978061225764</v>
+        <v>1.027807312219893</v>
       </c>
       <c r="K8">
-        <v>1.035585161871113</v>
+        <v>1.053382406711898</v>
       </c>
       <c r="L8">
-        <v>0.973043754446141</v>
+        <v>1.033875427483522</v>
       </c>
       <c r="M8">
-        <v>0.9962637959553459</v>
+        <v>1.048668316763881</v>
       </c>
       <c r="N8">
-        <v>0.9793763225798346</v>
+        <v>1.029266916494391</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9158029577896272</v>
+        <v>0.9876684492879552</v>
       </c>
       <c r="D9">
-        <v>1.014538598333574</v>
+        <v>1.031882998913883</v>
       </c>
       <c r="E9">
-        <v>0.9371859924313276</v>
+        <v>1.007668361350309</v>
       </c>
       <c r="F9">
-        <v>0.962018011978331</v>
+        <v>1.023347197263458</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042374401639169</v>
+        <v>1.046949302606081</v>
       </c>
       <c r="J9">
-        <v>0.9447243794561955</v>
+        <v>1.01366430971363</v>
       </c>
       <c r="K9">
-        <v>1.027400119947742</v>
+        <v>1.044479140606129</v>
       </c>
       <c r="L9">
-        <v>0.9513876171457114</v>
+        <v>1.020638237956151</v>
       </c>
       <c r="M9">
-        <v>0.9757589229720267</v>
+        <v>1.036072508016797</v>
       </c>
       <c r="N9">
-        <v>0.9630731555085864</v>
+        <v>1.015103829302345</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8939261842956359</v>
+        <v>0.9742207584834046</v>
       </c>
       <c r="D10">
-        <v>1.007006193585521</v>
+        <v>1.024125623075012</v>
       </c>
       <c r="E10">
-        <v>0.9189886192120839</v>
+        <v>0.9967050915715605</v>
       </c>
       <c r="F10">
-        <v>0.9448395274256933</v>
+        <v>1.0128948512419</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038517472365498</v>
+        <v>1.043831032633765</v>
       </c>
       <c r="J10">
-        <v>0.9270869566440245</v>
+        <v>1.003495878105399</v>
       </c>
       <c r="K10">
-        <v>1.021250090872813</v>
+        <v>1.038072528959161</v>
       </c>
       <c r="L10">
-        <v>0.9349926948069975</v>
+        <v>1.011134092538864</v>
       </c>
       <c r="M10">
-        <v>0.9602816496806242</v>
+        <v>1.02703512389594</v>
       </c>
       <c r="N10">
-        <v>0.950698111831767</v>
+        <v>1.004920957354895</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8836198526451391</v>
+        <v>0.9681264077055114</v>
       </c>
       <c r="D11">
-        <v>1.003527367503433</v>
+        <v>1.020627222395126</v>
       </c>
       <c r="E11">
-        <v>0.9104487860017182</v>
+        <v>0.9917518492615407</v>
       </c>
       <c r="F11">
-        <v>0.9368055016010189</v>
+        <v>1.008176493891086</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036702849893101</v>
+        <v>1.042407478103705</v>
       </c>
       <c r="J11">
-        <v>0.9187865527744703</v>
+        <v>0.9988880258318529</v>
       </c>
       <c r="K11">
-        <v>1.01838306801644</v>
+        <v>1.035170348689585</v>
       </c>
       <c r="L11">
-        <v>0.9272831609515892</v>
+        <v>1.006831008158634</v>
       </c>
       <c r="M11">
-        <v>0.9530263964937105</v>
+        <v>1.022945843445993</v>
       </c>
       <c r="N11">
-        <v>0.9448706289060088</v>
+        <v>1.000306561402592</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8796424656739397</v>
+        <v>0.9658178596380562</v>
       </c>
       <c r="D12">
-        <v>1.002197781468664</v>
+        <v>1.019305041475001</v>
       </c>
       <c r="E12">
-        <v>0.9071591820049221</v>
+        <v>0.9898781014822979</v>
       </c>
       <c r="F12">
-        <v>0.9337163449593354</v>
+        <v>1.006392324892938</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036004077082601</v>
+        <v>1.041866851822833</v>
       </c>
       <c r="J12">
-        <v>0.9155852929170964</v>
+        <v>0.997142784917468</v>
       </c>
       <c r="K12">
-        <v>1.017282996236681</v>
+        <v>1.034071503327783</v>
       </c>
       <c r="L12">
-        <v>0.9243109443739567</v>
+        <v>1.005201824712135</v>
       </c>
       <c r="M12">
-        <v>0.9502340307266756</v>
+        <v>1.021398074261155</v>
       </c>
       <c r="N12">
-        <v>0.9426227002836358</v>
+        <v>0.998558842045927</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8805028396749885</v>
+        <v>0.9663151511773107</v>
       </c>
       <c r="D13">
-        <v>1.002484764785162</v>
+        <v>1.019589712854247</v>
       </c>
       <c r="E13">
-        <v>0.9078704841223111</v>
+        <v>0.9902816118396284</v>
       </c>
       <c r="F13">
-        <v>0.9343840254912712</v>
+        <v>1.006776509790083</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036155143426268</v>
+        <v>1.041983369113641</v>
       </c>
       <c r="J13">
-        <v>0.9162776745816673</v>
+        <v>0.9975187199683874</v>
       </c>
       <c r="K13">
-        <v>1.017520640468941</v>
+        <v>1.034308180780715</v>
       </c>
       <c r="L13">
-        <v>0.9249537309724954</v>
+        <v>1.005552730994032</v>
       </c>
       <c r="M13">
-        <v>0.9508376857266996</v>
+        <v>1.021731422228966</v>
       </c>
       <c r="N13">
-        <v>0.9431089076130585</v>
+        <v>0.9989353109677389</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8832942868187854</v>
+        <v>0.967936522473404</v>
       </c>
       <c r="D14">
-        <v>1.003418258423038</v>
+        <v>1.020518405045752</v>
       </c>
       <c r="E14">
-        <v>0.9101793887906892</v>
+        <v>0.9915976744424302</v>
       </c>
       <c r="F14">
-        <v>0.9365523971584219</v>
+        <v>1.008029674332322</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036645614262464</v>
+        <v>1.042363036839542</v>
       </c>
       <c r="J14">
-        <v>0.9185244711969929</v>
+        <v>0.9987444688992733</v>
       </c>
       <c r="K14">
-        <v>1.018292882678894</v>
+        <v>1.035079953070481</v>
       </c>
       <c r="L14">
-        <v>0.9270398058113295</v>
+        <v>1.006696984606737</v>
       </c>
       <c r="M14">
-        <v>0.9527976634580404</v>
+        <v>1.022818507341567</v>
       </c>
       <c r="N14">
-        <v>0.9446866023350211</v>
+        <v>1.000162800602702</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8849935909190391</v>
+        <v>0.9689294309510701</v>
       </c>
       <c r="D15">
-        <v>1.003988295674807</v>
+        <v>1.021087535500333</v>
       </c>
       <c r="E15">
-        <v>0.911585769964054</v>
+        <v>0.992403958554273</v>
       </c>
       <c r="F15">
-        <v>0.9378739579975341</v>
+        <v>1.008797523018275</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036944426736107</v>
+        <v>1.042595364845558</v>
       </c>
       <c r="J15">
-        <v>0.9198925020771399</v>
+        <v>0.9994951369816433</v>
       </c>
       <c r="K15">
-        <v>1.018763876762999</v>
+        <v>1.035552653572013</v>
       </c>
       <c r="L15">
-        <v>0.9283101354916111</v>
+        <v>1.007397827858448</v>
       </c>
       <c r="M15">
-        <v>0.9539918633203888</v>
+        <v>1.023484399767004</v>
       </c>
       <c r="N15">
-        <v>0.9456471807115912</v>
+        <v>1.000914534719852</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8945907278260682</v>
+        <v>0.9746191680883628</v>
       </c>
       <c r="D16">
-        <v>1.007232116091438</v>
+        <v>1.024354716826344</v>
       </c>
       <c r="E16">
-        <v>0.9195400172344417</v>
+        <v>0.9970292385280685</v>
       </c>
       <c r="F16">
-        <v>0.9453589422447705</v>
+        <v>1.013203720331725</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038634616932152</v>
+        <v>1.043923895255816</v>
       </c>
       <c r="J16">
-        <v>0.9276223905913248</v>
+        <v>1.003797130967386</v>
       </c>
       <c r="K16">
-        <v>1.021435710982881</v>
+        <v>1.038262306376381</v>
       </c>
       <c r="L16">
-        <v>0.9354901566074173</v>
+        <v>1.011415502807417</v>
       </c>
       <c r="M16">
-        <v>0.9607503624106674</v>
+        <v>1.027302610855777</v>
       </c>
       <c r="N16">
-        <v>0.9510739614760454</v>
+        <v>1.0052226380305</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9003726964239992</v>
+        <v>0.9781128274380292</v>
       </c>
       <c r="D17">
-        <v>1.009205721959293</v>
+        <v>1.026365625779555</v>
       </c>
       <c r="E17">
-        <v>0.9243412952451654</v>
+        <v>0.9998734293256825</v>
       </c>
       <c r="F17">
-        <v>0.9498849190716612</v>
+        <v>1.015914327003969</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039654228512145</v>
+        <v>1.044737057318323</v>
       </c>
       <c r="J17">
-        <v>0.9322820464233894</v>
+        <v>1.00643888118052</v>
       </c>
       <c r="K17">
-        <v>1.023054244101522</v>
+        <v>1.03992664055897</v>
       </c>
       <c r="L17">
-        <v>0.9398200554087931</v>
+        <v>1.013883678148361</v>
       </c>
       <c r="M17">
-        <v>0.9648326646558782</v>
+        <v>1.02964895790069</v>
       </c>
       <c r="N17">
-        <v>0.9543444339642607</v>
+        <v>1.00786813983195</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9036667098524362</v>
+        <v>0.9801247339269571</v>
       </c>
       <c r="D18">
-        <v>1.010336307934783</v>
+        <v>1.02752523539632</v>
       </c>
       <c r="E18">
-        <v>0.9270795579915392</v>
+        <v>1.001512731767491</v>
       </c>
       <c r="F18">
-        <v>0.9524686060948298</v>
+        <v>1.017477008216773</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040235243656745</v>
+        <v>1.045204348411295</v>
       </c>
       <c r="J18">
-        <v>0.9349374225881651</v>
+        <v>1.007960219123061</v>
       </c>
       <c r="K18">
-        <v>1.023978976975169</v>
+        <v>1.04088517976448</v>
       </c>
       <c r="L18">
-        <v>0.9422880593390344</v>
+        <v>1.015305404479749</v>
       </c>
       <c r="M18">
-        <v>0.9671615353760198</v>
+        <v>1.031000734029486</v>
       </c>
       <c r="N18">
-        <v>0.9562078207265773</v>
+        <v>1.009391638248869</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9047771887054432</v>
+        <v>0.9808064658469366</v>
       </c>
       <c r="D19">
-        <v>1.010718442375342</v>
+        <v>1.027918423407519</v>
       </c>
       <c r="E19">
-        <v>0.9280031558071764</v>
+        <v>1.00206843878793</v>
       </c>
       <c r="F19">
-        <v>0.9533404427876578</v>
+        <v>1.018006801353011</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04043110942789</v>
+        <v>1.045362516896801</v>
       </c>
       <c r="J19">
-        <v>0.9358327136813064</v>
+        <v>1.008475721987496</v>
       </c>
       <c r="K19">
-        <v>1.024291126157345</v>
+        <v>1.041209986404928</v>
       </c>
       <c r="L19">
-        <v>0.9431202621806383</v>
+        <v>1.01578721125664</v>
       </c>
       <c r="M19">
-        <v>0.9679471285653009</v>
+        <v>1.031458871138981</v>
       </c>
       <c r="N19">
-        <v>0.9568360220741958</v>
+        <v>1.0099078731865</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.899760618456343</v>
+        <v>0.9777406959402324</v>
       </c>
       <c r="D20">
-        <v>1.008996132449063</v>
+        <v>1.026151264100214</v>
       </c>
       <c r="E20">
-        <v>0.9238327180798948</v>
+        <v>0.9995703286842988</v>
       </c>
       <c r="F20">
-        <v>0.949405240367786</v>
+        <v>1.015625422711434</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039546270998656</v>
+        <v>1.044650543788942</v>
       </c>
       <c r="J20">
-        <v>0.9317886937857521</v>
+        <v>1.006157488312663</v>
       </c>
       <c r="K20">
-        <v>1.022882618924905</v>
+        <v>1.039749350109016</v>
       </c>
       <c r="L20">
-        <v>0.9393615582947533</v>
+        <v>1.013620737554115</v>
       </c>
       <c r="M20">
-        <v>0.9644001696001971</v>
+        <v>1.029398971867633</v>
       </c>
       <c r="N20">
-        <v>0.9539981994565385</v>
+        <v>1.007586347353944</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8824766199705445</v>
+        <v>0.9674603420892647</v>
       </c>
       <c r="D21">
-        <v>1.003144444690282</v>
+        <v>1.020245570899018</v>
       </c>
       <c r="E21">
-        <v>0.9095028919976808</v>
+        <v>0.9912110879331454</v>
       </c>
       <c r="F21">
-        <v>0.9359169092368882</v>
+        <v>1.007661542888213</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036501894218566</v>
+        <v>1.042251568691167</v>
       </c>
       <c r="J21">
-        <v>0.9178662814153944</v>
+        <v>0.9983844713775897</v>
       </c>
       <c r="K21">
-        <v>1.018066488482684</v>
+        <v>1.034853274762437</v>
       </c>
       <c r="L21">
-        <v>0.9264286649348238</v>
+        <v>1.006360904213732</v>
       </c>
       <c r="M21">
-        <v>0.9522233236249784</v>
+        <v>1.022499204375981</v>
       </c>
       <c r="N21">
-        <v>0.9442244332378187</v>
+        <v>0.9998022918432453</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8707289100862763</v>
+        <v>0.9607348362898797</v>
       </c>
       <c r="D22">
-        <v>0.9992455044669399</v>
+        <v>1.016399927622067</v>
       </c>
       <c r="E22">
-        <v>0.8997997712398719</v>
+        <v>0.9857574545544077</v>
       </c>
       <c r="F22">
-        <v>0.9268177729599515</v>
+        <v>1.002470153073776</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034442459492657</v>
+        <v>1.040674150638414</v>
       </c>
       <c r="J22">
-        <v>0.9084157748482732</v>
+        <v>0.9933006705630526</v>
       </c>
       <c r="K22">
-        <v>1.014831922893373</v>
+        <v>1.031653352359902</v>
       </c>
       <c r="L22">
-        <v>0.9176568754426971</v>
+        <v>1.001616439417756</v>
       </c>
       <c r="M22">
-        <v>0.9439931259321745</v>
+        <v>1.017992834060609</v>
       </c>
       <c r="N22">
-        <v>0.9375876709256864</v>
+        <v>0.9947112714484317</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8770500491258325</v>
+        <v>0.9643264804197739</v>
       </c>
       <c r="D23">
-        <v>1.001335186361643</v>
+        <v>1.018451789839787</v>
       </c>
       <c r="E23">
-        <v>0.9050169281130536</v>
+        <v>0.9886683678335159</v>
       </c>
       <c r="F23">
-        <v>0.9317064234940464</v>
+        <v>1.005240645418495</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035549222394686</v>
+        <v>1.041517228255565</v>
       </c>
       <c r="J23">
-        <v>0.9134994174656084</v>
+        <v>0.9960154001525585</v>
       </c>
       <c r="K23">
-        <v>1.01656803986427</v>
+        <v>1.033361807249208</v>
       </c>
       <c r="L23">
-        <v>0.9223746716335233</v>
+        <v>1.004149595223305</v>
       </c>
       <c r="M23">
-        <v>0.9484164442386863</v>
+        <v>1.020398571459936</v>
       </c>
       <c r="N23">
-        <v>0.9411578993836047</v>
+        <v>0.9974298562653384</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9000374310337578</v>
+        <v>0.9779089258406798</v>
       </c>
       <c r="D24">
-        <v>1.009090900195375</v>
+        <v>1.026248165946369</v>
       </c>
       <c r="E24">
-        <v>0.9240627132256652</v>
+        <v>0.999707347374044</v>
       </c>
       <c r="F24">
-        <v>0.949622159198183</v>
+        <v>1.015756022697647</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039595094491137</v>
+        <v>1.044689657137799</v>
       </c>
       <c r="J24">
-        <v>0.9320118104809576</v>
+        <v>1.006284697838597</v>
       </c>
       <c r="K24">
-        <v>1.022960228365198</v>
+        <v>1.039829497734778</v>
       </c>
       <c r="L24">
-        <v>0.939568910039608</v>
+        <v>1.013739604270269</v>
       </c>
       <c r="M24">
-        <v>0.964595755984049</v>
+        <v>1.029511981562323</v>
       </c>
       <c r="N24">
-        <v>0.9541547836607146</v>
+        <v>1.007713737531996</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9236698934711917</v>
+        <v>0.9926652769608958</v>
       </c>
       <c r="D25">
-        <v>1.017291510352116</v>
+        <v>1.034777476302096</v>
       </c>
       <c r="E25">
-        <v>0.9437514142017073</v>
+        <v>1.01175342642204</v>
       </c>
       <c r="F25">
-        <v>0.9682311909561446</v>
+        <v>1.027244661108596</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043757440794696</v>
+        <v>1.048098130772055</v>
       </c>
       <c r="J25">
-        <v>0.9510705495123972</v>
+        <v>1.017442030465076</v>
       </c>
       <c r="K25">
-        <v>1.029627199675909</v>
+        <v>1.046858881191698</v>
       </c>
       <c r="L25">
-        <v>0.957290548354201</v>
+        <v>1.024171984909263</v>
       </c>
       <c r="M25">
-        <v>0.9813435453137077</v>
+        <v>1.039434264153686</v>
       </c>
       <c r="N25">
-        <v>0.9675222655041387</v>
+        <v>1.018886914850569</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.003748660294975</v>
+        <v>1.00334235382137</v>
       </c>
       <c r="D2">
-        <v>1.04121779591071</v>
+        <v>1.052628131397824</v>
       </c>
       <c r="E2">
-        <v>1.020835628316033</v>
+        <v>1.009360002035795</v>
       </c>
       <c r="F2">
-        <v>1.035914231512649</v>
+        <v>1.049821422845357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050622542996876</v>
+        <v>1.058686803064472</v>
       </c>
       <c r="J2">
-        <v>1.025817824772709</v>
+        <v>1.025423553175222</v>
       </c>
       <c r="K2">
-        <v>1.052131282368787</v>
+        <v>1.063399912695846</v>
       </c>
       <c r="L2">
-        <v>1.03201212510459</v>
+        <v>1.020690459315373</v>
       </c>
       <c r="M2">
-        <v>1.046894910275567</v>
+        <v>1.060627705163974</v>
       </c>
       <c r="N2">
-        <v>1.027274603746835</v>
+        <v>1.012402202610224</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011449642961066</v>
+        <v>1.007082587032351</v>
       </c>
       <c r="D3">
-        <v>1.045706765643149</v>
+        <v>1.055726118474426</v>
       </c>
       <c r="E3">
-        <v>1.027162816041477</v>
+        <v>1.01229158043922</v>
       </c>
       <c r="F3">
-        <v>1.041956922074019</v>
+        <v>1.053356626159074</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052353691367746</v>
+        <v>1.060024027228416</v>
       </c>
       <c r="J3">
-        <v>1.031632972093885</v>
+        <v>1.027382018230487</v>
       </c>
       <c r="K3">
-        <v>1.055786404992262</v>
+        <v>1.065692368858173</v>
       </c>
       <c r="L3">
-        <v>1.037459551004347</v>
+        <v>1.022769567256233</v>
       </c>
       <c r="M3">
-        <v>1.05207969101982</v>
+        <v>1.06334945219526</v>
       </c>
       <c r="N3">
-        <v>1.033098009244215</v>
+        <v>1.013057915036234</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016287001302373</v>
+        <v>1.009459403040772</v>
       </c>
       <c r="D4">
-        <v>1.048531400612282</v>
+        <v>1.057694839327006</v>
       </c>
       <c r="E4">
-        <v>1.031144005429616</v>
+        <v>1.014160306877715</v>
       </c>
       <c r="F4">
-        <v>1.045760050084585</v>
+        <v>1.055605673668885</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053429856312689</v>
+        <v>1.060863621072316</v>
       </c>
       <c r="J4">
-        <v>1.035283064436424</v>
+        <v>1.028624192930436</v>
       </c>
       <c r="K4">
-        <v>1.058077359780928</v>
+        <v>1.067143447517821</v>
       </c>
       <c r="L4">
-        <v>1.040880536695163</v>
+        <v>1.024090781498682</v>
       </c>
       <c r="M4">
-        <v>1.055335863589548</v>
+        <v>1.065076294899582</v>
       </c>
       <c r="N4">
-        <v>1.036753285136551</v>
+        <v>1.013473726333952</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018287718970272</v>
+        <v>1.010448545662437</v>
       </c>
       <c r="D5">
-        <v>1.049700614402595</v>
+        <v>1.058514110084815</v>
       </c>
       <c r="E5">
-        <v>1.032792114254787</v>
+        <v>1.014939357784857</v>
       </c>
       <c r="F5">
-        <v>1.047334616349799</v>
+        <v>1.056542211518585</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053872159801587</v>
+        <v>1.061210550329093</v>
       </c>
       <c r="J5">
-        <v>1.036792008865626</v>
+        <v>1.029140546171912</v>
       </c>
       <c r="K5">
-        <v>1.059023527676843</v>
+        <v>1.067745918192306</v>
       </c>
       <c r="L5">
-        <v>1.042295148280011</v>
+        <v>1.024640595447442</v>
       </c>
       <c r="M5">
-        <v>1.05668230599004</v>
+        <v>1.065794242190915</v>
       </c>
       <c r="N5">
-        <v>1.038264372439921</v>
+        <v>1.013646551549077</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01862177280812</v>
+        <v>1.010614045300536</v>
       </c>
       <c r="D6">
-        <v>1.049895884365571</v>
+        <v>1.058651183857876</v>
       </c>
       <c r="E6">
-        <v>1.033067378781429</v>
+        <v>1.01506978445653</v>
       </c>
       <c r="F6">
-        <v>1.047597606319538</v>
+        <v>1.056698941824559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05394584282123</v>
+        <v>1.061268450484388</v>
       </c>
       <c r="J6">
-        <v>1.037043908030721</v>
+        <v>1.029226904883665</v>
       </c>
       <c r="K6">
-        <v>1.059181421668383</v>
+        <v>1.067846636951663</v>
       </c>
       <c r="L6">
-        <v>1.042531321264681</v>
+        <v>1.024732585964476</v>
       </c>
       <c r="M6">
-        <v>1.056907095595034</v>
+        <v>1.065914324120426</v>
       </c>
       <c r="N6">
-        <v>1.038516629330724</v>
+        <v>1.013675454802003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016313861810394</v>
+        <v>1.009472659181306</v>
       </c>
       <c r="D7">
-        <v>1.048547094330297</v>
+        <v>1.057705819113948</v>
       </c>
       <c r="E7">
-        <v>1.031166126232861</v>
+        <v>1.014170742130393</v>
       </c>
       <c r="F7">
-        <v>1.045781183204594</v>
+        <v>1.055618222625872</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053435805614696</v>
+        <v>1.060868280330078</v>
       </c>
       <c r="J7">
-        <v>1.035303325638594</v>
+        <v>1.028631115289588</v>
       </c>
       <c r="K7">
-        <v>1.058090068107294</v>
+        <v>1.067151527258111</v>
       </c>
       <c r="L7">
-        <v>1.040899529787876</v>
+        <v>1.02409815004921</v>
       </c>
       <c r="M7">
-        <v>1.055353941547776</v>
+        <v>1.065085919393931</v>
       </c>
       <c r="N7">
-        <v>1.036773575111953</v>
+        <v>1.013476043358035</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006382650823719</v>
+        <v>1.004615553491333</v>
       </c>
       <c r="D8">
-        <v>1.042751997275638</v>
+        <v>1.05368267052106</v>
       </c>
       <c r="E8">
-        <v>1.02299822486468</v>
+        <v>1.010356698429658</v>
       </c>
       <c r="F8">
-        <v>1.037979351657504</v>
+        <v>1.051024277744056</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051216966866658</v>
+        <v>1.059144110203957</v>
       </c>
       <c r="J8">
-        <v>1.027807312219893</v>
+        <v>1.026090710312354</v>
       </c>
       <c r="K8">
-        <v>1.053382406711898</v>
+        <v>1.064181449257582</v>
       </c>
       <c r="L8">
-        <v>1.033875427483522</v>
+        <v>1.021398185599165</v>
       </c>
       <c r="M8">
-        <v>1.048668316763881</v>
+        <v>1.061554757181575</v>
       </c>
       <c r="N8">
-        <v>1.029266916494391</v>
+        <v>1.012625588721155</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9876684492879552</v>
+        <v>0.9957099561065349</v>
       </c>
       <c r="D9">
-        <v>1.031882998913883</v>
+        <v>1.046308623601888</v>
       </c>
       <c r="E9">
-        <v>1.007668361350309</v>
+        <v>1.003410983656552</v>
       </c>
       <c r="F9">
-        <v>1.023347197263458</v>
+        <v>1.042622965895409</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046949302606081</v>
+        <v>1.055903958526868</v>
       </c>
       <c r="J9">
-        <v>1.01366430971363</v>
+        <v>1.021415121763886</v>
       </c>
       <c r="K9">
-        <v>1.044479140606129</v>
+        <v>1.058692540363019</v>
       </c>
       <c r="L9">
-        <v>1.020638237956151</v>
+        <v>1.016448961385698</v>
       </c>
       <c r="M9">
-        <v>1.036072508016797</v>
+        <v>1.055060396222649</v>
       </c>
       <c r="N9">
-        <v>1.015103829302345</v>
+        <v>1.011059787464996</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9742207584834046</v>
+        <v>0.9895182354695753</v>
       </c>
       <c r="D10">
-        <v>1.024125623075012</v>
+        <v>1.041186609886607</v>
       </c>
       <c r="E10">
-        <v>0.9967050915715605</v>
+        <v>0.9986162744609441</v>
       </c>
       <c r="F10">
-        <v>1.0128948512419</v>
+        <v>1.036799230111944</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043831032633765</v>
+        <v>1.053600327383986</v>
       </c>
       <c r="J10">
-        <v>1.003495878105399</v>
+        <v>1.018153984627301</v>
       </c>
       <c r="K10">
-        <v>1.038072528959161</v>
+        <v>1.054850021529322</v>
       </c>
       <c r="L10">
-        <v>1.011134092538864</v>
+        <v>1.013010557524818</v>
       </c>
       <c r="M10">
-        <v>1.02703512389594</v>
+        <v>1.050534398521474</v>
       </c>
       <c r="N10">
-        <v>1.004920957354895</v>
+        <v>1.009967425560932</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9681264077055114</v>
+        <v>0.9867716273587815</v>
       </c>
       <c r="D11">
-        <v>1.020627222395126</v>
+        <v>1.038916420061466</v>
       </c>
       <c r="E11">
-        <v>0.9917518492615407</v>
+        <v>0.9964980707706392</v>
       </c>
       <c r="F11">
-        <v>1.008176493891086</v>
+        <v>1.034220600728659</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042407478103705</v>
+        <v>1.052566939204758</v>
       </c>
       <c r="J11">
-        <v>0.9988880258318529</v>
+        <v>1.016705268165556</v>
       </c>
       <c r="K11">
-        <v>1.035170348689585</v>
+        <v>1.053139942995167</v>
       </c>
       <c r="L11">
-        <v>1.006831008158634</v>
+        <v>1.011486331906716</v>
       </c>
       <c r="M11">
-        <v>1.022945843445993</v>
+        <v>1.048524787855116</v>
       </c>
       <c r="N11">
-        <v>1.000306561402592</v>
+        <v>1.009482128463734</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9658178596380562</v>
+        <v>0.9857411012901999</v>
       </c>
       <c r="D12">
-        <v>1.019305041475001</v>
+        <v>1.038064997930317</v>
       </c>
       <c r="E12">
-        <v>0.9898781014822979</v>
+        <v>0.995704677023052</v>
       </c>
       <c r="F12">
-        <v>1.006392324892938</v>
+        <v>1.033253868224986</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041866851822833</v>
+        <v>1.052177531478478</v>
       </c>
       <c r="J12">
-        <v>0.997142784917468</v>
+        <v>1.016161427451858</v>
       </c>
       <c r="K12">
-        <v>1.034071503327783</v>
+        <v>1.052497546157787</v>
       </c>
       <c r="L12">
-        <v>1.005201824712135</v>
+        <v>1.010914633917636</v>
       </c>
       <c r="M12">
-        <v>1.021398074261155</v>
+        <v>1.047770552572036</v>
       </c>
       <c r="N12">
-        <v>0.998558842045927</v>
+        <v>1.009299948302159</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9663151511773107</v>
+        <v>0.9859626271046701</v>
       </c>
       <c r="D13">
-        <v>1.019589712854247</v>
+        <v>1.038248005880048</v>
       </c>
       <c r="E13">
-        <v>0.9902816118396284</v>
+        <v>0.9958751659243462</v>
       </c>
       <c r="F13">
-        <v>1.006776509790083</v>
+        <v>1.033461645105799</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041983369113641</v>
+        <v>1.052261315217091</v>
       </c>
       <c r="J13">
-        <v>0.9975187199683874</v>
+        <v>1.016278345788752</v>
       </c>
       <c r="K13">
-        <v>1.034308180780715</v>
+        <v>1.052635672331846</v>
       </c>
       <c r="L13">
-        <v>1.005552730994032</v>
+        <v>1.011037519082675</v>
       </c>
       <c r="M13">
-        <v>1.021731422228966</v>
+        <v>1.047932695347729</v>
       </c>
       <c r="N13">
-        <v>0.9989353109677389</v>
+        <v>1.00933911461013</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.967936522473404</v>
+        <v>0.9866866569293934</v>
       </c>
       <c r="D14">
-        <v>1.020518405045752</v>
+        <v>1.038846209820034</v>
       </c>
       <c r="E14">
-        <v>0.9915976744424302</v>
+        <v>0.9964326248721783</v>
       </c>
       <c r="F14">
-        <v>1.008029674332322</v>
+        <v>1.034140874351501</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042363036839542</v>
+        <v>1.052534865093115</v>
       </c>
       <c r="J14">
-        <v>0.9987444688992733</v>
+        <v>1.016660432188956</v>
       </c>
       <c r="K14">
-        <v>1.035079953070481</v>
+        <v>1.053086990594179</v>
       </c>
       <c r="L14">
-        <v>1.006696984606737</v>
+        <v>1.011439189342975</v>
       </c>
       <c r="M14">
-        <v>1.022818507341567</v>
+        <v>1.04846260290606</v>
       </c>
       <c r="N14">
-        <v>1.000162800602702</v>
+        <v>1.009467108975055</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9689294309510701</v>
+        <v>0.9871313745936833</v>
       </c>
       <c r="D15">
-        <v>1.021087535500333</v>
+        <v>1.039213690469977</v>
       </c>
       <c r="E15">
-        <v>0.992403958554273</v>
+        <v>0.9967752107490276</v>
       </c>
       <c r="F15">
-        <v>1.008797523018275</v>
+        <v>1.034558177392883</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042595364845558</v>
+        <v>1.052702666093721</v>
       </c>
       <c r="J15">
-        <v>0.9994951369816433</v>
+        <v>1.01689508307407</v>
       </c>
       <c r="K15">
-        <v>1.035552653572013</v>
+        <v>1.053364101216092</v>
       </c>
       <c r="L15">
-        <v>1.007397827858448</v>
+        <v>1.011685931776164</v>
       </c>
       <c r="M15">
-        <v>1.023484399767004</v>
+        <v>1.048788057022013</v>
       </c>
       <c r="N15">
-        <v>1.000914534719852</v>
+        <v>1.009545714000055</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9746191680883628</v>
+        <v>0.9896990986085937</v>
       </c>
       <c r="D16">
-        <v>1.024354716826344</v>
+        <v>1.041336146295702</v>
       </c>
       <c r="E16">
-        <v>0.9970292385280685</v>
+        <v>0.9987559429642134</v>
       </c>
       <c r="F16">
-        <v>1.013203720331725</v>
+        <v>1.036969135516803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043923895255816</v>
+        <v>1.053668139469044</v>
       </c>
       <c r="J16">
-        <v>1.003797130967386</v>
+        <v>1.018249341008713</v>
       </c>
       <c r="K16">
-        <v>1.038262306376381</v>
+        <v>1.054962518494591</v>
       </c>
       <c r="L16">
-        <v>1.011415502807417</v>
+        <v>1.01311095172037</v>
       </c>
       <c r="M16">
-        <v>1.027302610855777</v>
+        <v>1.050666695559315</v>
       </c>
       <c r="N16">
-        <v>1.0052226380305</v>
+        <v>1.009999368015684</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9781128274380292</v>
+        <v>0.9912918938935726</v>
       </c>
       <c r="D17">
-        <v>1.026365625779555</v>
+        <v>1.042653283450597</v>
       </c>
       <c r="E17">
-        <v>0.9998734293256825</v>
+        <v>0.9999869501528887</v>
       </c>
       <c r="F17">
-        <v>1.015914327003969</v>
+        <v>1.038465977578083</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044737057318323</v>
+        <v>1.054264028328603</v>
       </c>
       <c r="J17">
-        <v>1.00643888118052</v>
+        <v>1.019088874331258</v>
       </c>
       <c r="K17">
-        <v>1.03992664055897</v>
+        <v>1.055952610674882</v>
       </c>
       <c r="L17">
-        <v>1.013883678148361</v>
+        <v>1.013995208184139</v>
       </c>
       <c r="M17">
-        <v>1.02964895790069</v>
+        <v>1.051831576181822</v>
       </c>
       <c r="N17">
-        <v>1.00786813983195</v>
+        <v>1.010280591536008</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9801247339269571</v>
+        <v>0.9922146523893498</v>
       </c>
       <c r="D18">
-        <v>1.02752523539632</v>
+        <v>1.04341652065156</v>
       </c>
       <c r="E18">
-        <v>1.001512731767491</v>
+        <v>1.000700936978287</v>
       </c>
       <c r="F18">
-        <v>1.017477008216773</v>
+        <v>1.039333594523368</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045204348411295</v>
+        <v>1.054608148134713</v>
       </c>
       <c r="J18">
-        <v>1.007960219123061</v>
+        <v>1.019575041923081</v>
       </c>
       <c r="K18">
-        <v>1.04088517976448</v>
+        <v>1.056525670560149</v>
       </c>
       <c r="L18">
-        <v>1.015305404479749</v>
+        <v>1.014507582295929</v>
       </c>
       <c r="M18">
-        <v>1.031000734029486</v>
+        <v>1.052506244537229</v>
       </c>
       <c r="N18">
-        <v>1.009391638248869</v>
+        <v>1.010443443010244</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9808064658469366</v>
+        <v>0.992528235633749</v>
       </c>
       <c r="D19">
-        <v>1.027918423407519</v>
+        <v>1.043675921395393</v>
       </c>
       <c r="E19">
-        <v>1.00206843878793</v>
+        <v>1.000943711205944</v>
       </c>
       <c r="F19">
-        <v>1.018006801353011</v>
+        <v>1.039628513137896</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045362516896801</v>
+        <v>1.054724903500053</v>
       </c>
       <c r="J19">
-        <v>1.008475721987496</v>
+        <v>1.019740222297012</v>
       </c>
       <c r="K19">
-        <v>1.041209986404928</v>
+        <v>1.056720322740764</v>
       </c>
       <c r="L19">
-        <v>1.01578721125664</v>
+        <v>1.014681718741526</v>
       </c>
       <c r="M19">
-        <v>1.031458871138981</v>
+        <v>1.052735485661443</v>
       </c>
       <c r="N19">
-        <v>1.0099078731865</v>
+        <v>1.010498772871313</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9777406959402324</v>
+        <v>0.991121656125139</v>
       </c>
       <c r="D20">
-        <v>1.026151264100214</v>
+        <v>1.042512489223838</v>
       </c>
       <c r="E20">
-        <v>0.9995703286842988</v>
+        <v>0.9998552944574193</v>
       </c>
       <c r="F20">
-        <v>1.015625422711434</v>
+        <v>1.038305948503853</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044650543788942</v>
+        <v>1.054200453340855</v>
       </c>
       <c r="J20">
-        <v>1.006157488312663</v>
+        <v>1.01899916578972</v>
       </c>
       <c r="K20">
-        <v>1.039749350109016</v>
+        <v>1.055846844595992</v>
       </c>
       <c r="L20">
-        <v>1.013620737554115</v>
+        <v>1.013900688815067</v>
       </c>
       <c r="M20">
-        <v>1.029398971867633</v>
+        <v>1.05170709268943</v>
       </c>
       <c r="N20">
-        <v>1.007586347353944</v>
+        <v>1.010250541621721</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9674603420892647</v>
+        <v>0.9864737367666482</v>
       </c>
       <c r="D21">
-        <v>1.020245570899018</v>
+        <v>1.038670281858018</v>
       </c>
       <c r="E21">
-        <v>0.9912110879331454</v>
+        <v>0.9962686515774425</v>
       </c>
       <c r="F21">
-        <v>1.007661542888213</v>
+        <v>1.033941107382736</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042251568691167</v>
+        <v>1.052454466387228</v>
       </c>
       <c r="J21">
-        <v>0.9983844713775897</v>
+        <v>1.016548077084098</v>
       </c>
       <c r="K21">
-        <v>1.034853274762437</v>
+        <v>1.052954289379806</v>
       </c>
       <c r="L21">
-        <v>1.006360904213732</v>
+        <v>1.011321062006666</v>
       </c>
       <c r="M21">
-        <v>1.022499204375981</v>
+        <v>1.048306775421636</v>
       </c>
       <c r="N21">
-        <v>0.9998022918432453</v>
+        <v>1.00942947140083</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9607348362898797</v>
+        <v>0.9834914842248492</v>
       </c>
       <c r="D22">
-        <v>1.016399927622067</v>
+        <v>1.036207083087346</v>
       </c>
       <c r="E22">
-        <v>0.9857574545544077</v>
+        <v>0.9939752600609296</v>
       </c>
       <c r="F22">
-        <v>1.002470153073776</v>
+        <v>1.031144985650544</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040674150638414</v>
+        <v>1.051324428859739</v>
       </c>
       <c r="J22">
-        <v>0.9933006705630526</v>
+        <v>1.014973750715661</v>
       </c>
       <c r="K22">
-        <v>1.031653352359902</v>
+        <v>1.051093848413918</v>
       </c>
       <c r="L22">
-        <v>1.001616439417756</v>
+        <v>1.009667020540201</v>
       </c>
       <c r="M22">
-        <v>1.017992834060609</v>
+        <v>1.046123713252638</v>
       </c>
       <c r="N22">
-        <v>0.9947112714484317</v>
+        <v>1.008902089468188</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9643264804197739</v>
+        <v>0.9850782749985872</v>
       </c>
       <c r="D23">
-        <v>1.018451789839787</v>
+        <v>1.037517477562242</v>
       </c>
       <c r="E23">
-        <v>0.9886683678335159</v>
+        <v>0.9951947604354742</v>
       </c>
       <c r="F23">
-        <v>1.005240645418495</v>
+        <v>1.032632296986187</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041517228255565</v>
+        <v>1.051926600084123</v>
       </c>
       <c r="J23">
-        <v>0.9960154001525585</v>
+        <v>1.01581155773046</v>
       </c>
       <c r="K23">
-        <v>1.033361807249208</v>
+        <v>1.052084150471013</v>
       </c>
       <c r="L23">
-        <v>1.004149595223305</v>
+        <v>1.010546980626629</v>
       </c>
       <c r="M23">
-        <v>1.020398571459936</v>
+        <v>1.047285376668921</v>
       </c>
       <c r="N23">
-        <v>0.9974298562653384</v>
+        <v>1.009182745812003</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9779089258406798</v>
+        <v>0.9911985986557933</v>
       </c>
       <c r="D24">
-        <v>1.026248165946369</v>
+        <v>1.042576123586202</v>
       </c>
       <c r="E24">
-        <v>0.999707347374044</v>
+        <v>0.9999147964607069</v>
       </c>
       <c r="F24">
-        <v>1.015756022697647</v>
+        <v>1.038378275618963</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044689657137799</v>
+        <v>1.054229190797193</v>
       </c>
       <c r="J24">
-        <v>1.006284697838597</v>
+        <v>1.019039712074073</v>
       </c>
       <c r="K24">
-        <v>1.039829497734778</v>
+        <v>1.055894649450287</v>
       </c>
       <c r="L24">
-        <v>1.013739604270269</v>
+        <v>1.013943408533904</v>
       </c>
       <c r="M24">
-        <v>1.029511981562323</v>
+        <v>1.051763356193281</v>
       </c>
       <c r="N24">
-        <v>1.007713737531996</v>
+        <v>1.010264123530425</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9926652769608958</v>
+        <v>0.9980555024755523</v>
       </c>
       <c r="D25">
-        <v>1.034777476302096</v>
+        <v>1.048250186123588</v>
       </c>
       <c r="E25">
-        <v>1.01175342642204</v>
+        <v>1.005234568404423</v>
       </c>
       <c r="F25">
-        <v>1.027244661108596</v>
+        <v>1.044832888081818</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048098130772055</v>
+        <v>1.056766319286635</v>
       </c>
       <c r="J25">
-        <v>1.017442030465076</v>
+        <v>1.022648484392346</v>
       </c>
       <c r="K25">
-        <v>1.046858881191698</v>
+        <v>1.060142963377523</v>
       </c>
       <c r="L25">
-        <v>1.024171984909263</v>
+        <v>1.017752164301888</v>
       </c>
       <c r="M25">
-        <v>1.039434264153686</v>
+        <v>1.056772929075908</v>
       </c>
       <c r="N25">
-        <v>1.018886914850569</v>
+        <v>1.011472877825917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00334235382137</v>
+        <v>1.027016220519477</v>
       </c>
       <c r="D2">
-        <v>1.052628131397824</v>
+        <v>1.057198492128738</v>
       </c>
       <c r="E2">
-        <v>1.009360002035795</v>
+        <v>1.02716981780513</v>
       </c>
       <c r="F2">
-        <v>1.049821422845357</v>
+        <v>1.06069212986105</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058686803064472</v>
+        <v>1.045288073939175</v>
       </c>
       <c r="J2">
-        <v>1.025423553175222</v>
+        <v>1.032176441771654</v>
       </c>
       <c r="K2">
-        <v>1.063399912695846</v>
+        <v>1.059934118266941</v>
       </c>
       <c r="L2">
-        <v>1.020690459315373</v>
+        <v>1.029990328853348</v>
       </c>
       <c r="M2">
-        <v>1.060627705163974</v>
+        <v>1.063418218300183</v>
       </c>
       <c r="N2">
-        <v>1.012402202610224</v>
+        <v>1.014752633434396</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007082587032351</v>
+        <v>1.02781036629354</v>
       </c>
       <c r="D3">
-        <v>1.055726118474426</v>
+        <v>1.057863918442534</v>
       </c>
       <c r="E3">
-        <v>1.01229158043922</v>
+        <v>1.02784004761181</v>
       </c>
       <c r="F3">
-        <v>1.053356626159074</v>
+        <v>1.061480388565241</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060024027228416</v>
+        <v>1.045510797108564</v>
       </c>
       <c r="J3">
-        <v>1.027382018230487</v>
+        <v>1.032611392166664</v>
       </c>
       <c r="K3">
-        <v>1.065692368858173</v>
+        <v>1.060413710810984</v>
       </c>
       <c r="L3">
-        <v>1.022769567256233</v>
+        <v>1.03046859913562</v>
       </c>
       <c r="M3">
-        <v>1.06334945219526</v>
+        <v>1.064021018302289</v>
       </c>
       <c r="N3">
-        <v>1.013057915036234</v>
+        <v>1.014897499079952</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009459403040772</v>
+        <v>1.028324893595774</v>
       </c>
       <c r="D4">
-        <v>1.057694839327006</v>
+        <v>1.05829475110635</v>
       </c>
       <c r="E4">
-        <v>1.014160306877715</v>
+        <v>1.028274694079999</v>
       </c>
       <c r="F4">
-        <v>1.055605673668885</v>
+        <v>1.06199112221181</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060863621072316</v>
+        <v>1.045653839276417</v>
       </c>
       <c r="J4">
-        <v>1.028624192930436</v>
+        <v>1.032892827445421</v>
       </c>
       <c r="K4">
-        <v>1.067143447517821</v>
+        <v>1.060723612029304</v>
       </c>
       <c r="L4">
-        <v>1.024090781498682</v>
+        <v>1.030778353563444</v>
       </c>
       <c r="M4">
-        <v>1.065076294899582</v>
+        <v>1.064411087465663</v>
       </c>
       <c r="N4">
-        <v>1.013473726333952</v>
+        <v>1.014991206390631</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010448545662437</v>
+        <v>1.028541357584426</v>
       </c>
       <c r="D5">
-        <v>1.058514110084815</v>
+        <v>1.05847593274827</v>
       </c>
       <c r="E5">
-        <v>1.014939357784857</v>
+        <v>1.028457648120471</v>
       </c>
       <c r="F5">
-        <v>1.056542211518585</v>
+        <v>1.06220599471395</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061210550329093</v>
+        <v>1.045713716003206</v>
       </c>
       <c r="J5">
-        <v>1.029140546171912</v>
+        <v>1.033011139973656</v>
       </c>
       <c r="K5">
-        <v>1.067745918192306</v>
+        <v>1.060853790637942</v>
       </c>
       <c r="L5">
-        <v>1.024640595447442</v>
+        <v>1.030908640350359</v>
       </c>
       <c r="M5">
-        <v>1.065794242190915</v>
+        <v>1.064575074884002</v>
       </c>
       <c r="N5">
-        <v>1.013646551549077</v>
+        <v>1.015030593200117</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010614045300536</v>
+        <v>1.028577711979497</v>
       </c>
       <c r="D6">
-        <v>1.058651183857876</v>
+        <v>1.058506357378826</v>
       </c>
       <c r="E6">
-        <v>1.01506978445653</v>
+        <v>1.028488380263488</v>
       </c>
       <c r="F6">
-        <v>1.056698941824559</v>
+        <v>1.062242082077538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061268450484388</v>
+        <v>1.045723754400913</v>
       </c>
       <c r="J6">
-        <v>1.029226904883665</v>
+        <v>1.033031004963322</v>
       </c>
       <c r="K6">
-        <v>1.067846636951663</v>
+        <v>1.060875642062436</v>
       </c>
       <c r="L6">
-        <v>1.024732585964476</v>
+        <v>1.030930519906667</v>
       </c>
       <c r="M6">
-        <v>1.065914324120426</v>
+        <v>1.064602609178423</v>
       </c>
       <c r="N6">
-        <v>1.013675454802003</v>
+        <v>1.015037205951411</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009472659181306</v>
+        <v>1.028327785384602</v>
       </c>
       <c r="D7">
-        <v>1.057705819113948</v>
+        <v>1.05829717183271</v>
       </c>
       <c r="E7">
-        <v>1.014170742130393</v>
+        <v>1.0282771378247</v>
       </c>
       <c r="F7">
-        <v>1.055618222625872</v>
+        <v>1.061993992722387</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060868280330078</v>
+        <v>1.045654640367893</v>
       </c>
       <c r="J7">
-        <v>1.028631115289588</v>
+        <v>1.03289440835604</v>
       </c>
       <c r="K7">
-        <v>1.067151527258111</v>
+        <v>1.060725351892349</v>
       </c>
       <c r="L7">
-        <v>1.02409815004921</v>
+        <v>1.030780094204172</v>
       </c>
       <c r="M7">
-        <v>1.065085919393931</v>
+        <v>1.064413278666619</v>
       </c>
       <c r="N7">
-        <v>1.013476043358035</v>
+        <v>1.014991732710107</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.004615553491333</v>
+        <v>1.027284467704724</v>
       </c>
       <c r="D8">
-        <v>1.05368267052106</v>
+        <v>1.057423321569822</v>
       </c>
       <c r="E8">
-        <v>1.010356698429658</v>
+        <v>1.027396124593797</v>
       </c>
       <c r="F8">
-        <v>1.051024277744056</v>
+        <v>1.060958384007747</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059144110203957</v>
+        <v>1.04536356622085</v>
       </c>
       <c r="J8">
-        <v>1.026090710312354</v>
+        <v>1.032323435928546</v>
       </c>
       <c r="K8">
-        <v>1.064181449257582</v>
+        <v>1.060096286320646</v>
       </c>
       <c r="L8">
-        <v>1.021398185599165</v>
+        <v>1.030151903401049</v>
       </c>
       <c r="M8">
-        <v>1.061554757181575</v>
+        <v>1.063621932735808</v>
       </c>
       <c r="N8">
-        <v>1.012625588721155</v>
+        <v>1.014801597489162</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9957099561065349</v>
+        <v>1.025451155141479</v>
       </c>
       <c r="D9">
-        <v>1.046308623601888</v>
+        <v>1.055885545858284</v>
       </c>
       <c r="E9">
-        <v>1.003410983656552</v>
+        <v>1.025851124558645</v>
       </c>
       <c r="F9">
-        <v>1.042622965895409</v>
+        <v>1.059138792584699</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055903958526868</v>
+        <v>1.044842467482162</v>
       </c>
       <c r="J9">
-        <v>1.021415121763886</v>
+        <v>1.031317313695253</v>
       </c>
       <c r="K9">
-        <v>1.058692540363019</v>
+        <v>1.058984590373812</v>
       </c>
       <c r="L9">
-        <v>1.016448961385698</v>
+        <v>1.029047168630829</v>
       </c>
       <c r="M9">
-        <v>1.055060396222649</v>
+        <v>1.062227691282418</v>
       </c>
       <c r="N9">
-        <v>1.011059787464996</v>
+        <v>1.014466341813221</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9895182354695753</v>
+        <v>1.024232511116412</v>
       </c>
       <c r="D10">
-        <v>1.041186609886607</v>
+        <v>1.054861867514172</v>
       </c>
       <c r="E10">
-        <v>0.9986162744609441</v>
+        <v>1.024826250496679</v>
       </c>
       <c r="F10">
-        <v>1.036799230111944</v>
+        <v>1.057929411059998</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053600327383986</v>
+        <v>1.044489618352516</v>
       </c>
       <c r="J10">
-        <v>1.018153984627301</v>
+        <v>1.030646643253255</v>
       </c>
       <c r="K10">
-        <v>1.054850021529322</v>
+        <v>1.058241401340725</v>
       </c>
       <c r="L10">
-        <v>1.013010557524818</v>
+        <v>1.028312252426434</v>
       </c>
       <c r="M10">
-        <v>1.050534398521474</v>
+        <v>1.061298445629981</v>
       </c>
       <c r="N10">
-        <v>1.009967425560932</v>
+        <v>1.014242721836883</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9867716273587815</v>
+        <v>1.023705692176351</v>
       </c>
       <c r="D11">
-        <v>1.038916420061466</v>
+        <v>1.054418986012215</v>
       </c>
       <c r="E11">
-        <v>0.9964980707706392</v>
+        <v>1.024383708190927</v>
       </c>
       <c r="F11">
-        <v>1.034220600728659</v>
+        <v>1.057406635091764</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052566939204758</v>
+        <v>1.044335549876282</v>
       </c>
       <c r="J11">
-        <v>1.016705268165556</v>
+        <v>1.030356269803785</v>
       </c>
       <c r="K11">
-        <v>1.053139942995167</v>
+        <v>1.057919124003223</v>
       </c>
       <c r="L11">
-        <v>1.011486331906716</v>
+        <v>1.027994416310727</v>
       </c>
       <c r="M11">
-        <v>1.048524787855116</v>
+        <v>1.060896153509654</v>
       </c>
       <c r="N11">
-        <v>1.009482128463734</v>
+        <v>1.014145870084482</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9857411012901999</v>
+        <v>1.023510139436089</v>
       </c>
       <c r="D12">
-        <v>1.038064997930317</v>
+        <v>1.054254538949533</v>
       </c>
       <c r="E12">
-        <v>0.995704677023052</v>
+        <v>1.024219515737356</v>
       </c>
       <c r="F12">
-        <v>1.033253868224986</v>
+        <v>1.057212589343784</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052177531478478</v>
+        <v>1.04427813023854</v>
       </c>
       <c r="J12">
-        <v>1.016161427451858</v>
+        <v>1.030248418150407</v>
       </c>
       <c r="K12">
-        <v>1.052497546157787</v>
+        <v>1.057799346604308</v>
       </c>
       <c r="L12">
-        <v>1.010914633917636</v>
+        <v>1.027876417450795</v>
       </c>
       <c r="M12">
-        <v>1.047770552572036</v>
+        <v>1.060746737747348</v>
       </c>
       <c r="N12">
-        <v>1.009299948302159</v>
+        <v>1.014109892063665</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9859626271046701</v>
+        <v>1.023552080193977</v>
       </c>
       <c r="D13">
-        <v>1.038248005880048</v>
+        <v>1.054289810706745</v>
       </c>
       <c r="E13">
-        <v>0.9958751659243462</v>
+        <v>1.024254727061977</v>
       </c>
       <c r="F13">
-        <v>1.033461645105799</v>
+        <v>1.057254206602525</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052261315217091</v>
+        <v>1.044290455607687</v>
       </c>
       <c r="J13">
-        <v>1.016278345788752</v>
+        <v>1.030271552405332</v>
       </c>
       <c r="K13">
-        <v>1.052635672331846</v>
+        <v>1.057825042370785</v>
       </c>
       <c r="L13">
-        <v>1.011037519082675</v>
+        <v>1.027901725885944</v>
       </c>
       <c r="M13">
-        <v>1.047932695347729</v>
+        <v>1.060778787298063</v>
       </c>
       <c r="N13">
-        <v>1.00933911461013</v>
+        <v>1.014117609598143</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9866866569293934</v>
+        <v>1.023689525037711</v>
       </c>
       <c r="D14">
-        <v>1.038846209820034</v>
+        <v>1.054405391554365</v>
       </c>
       <c r="E14">
-        <v>0.9964326248721783</v>
+        <v>1.024370132156163</v>
       </c>
       <c r="F14">
-        <v>1.034140874351501</v>
+        <v>1.057390592412085</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052534865093115</v>
+        <v>1.044330807457279</v>
       </c>
       <c r="J14">
-        <v>1.016660432188956</v>
+        <v>1.030347354623218</v>
       </c>
       <c r="K14">
-        <v>1.053086990594179</v>
+        <v>1.057909224569402</v>
       </c>
       <c r="L14">
-        <v>1.011439189342975</v>
+        <v>1.027984661263645</v>
       </c>
       <c r="M14">
-        <v>1.04846260290606</v>
+        <v>1.060883802471387</v>
       </c>
       <c r="N14">
-        <v>1.009467108975055</v>
+        <v>1.014142896187928</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9871313745936833</v>
+        <v>1.023774226789814</v>
       </c>
       <c r="D15">
-        <v>1.039213690469977</v>
+        <v>1.054476612588509</v>
       </c>
       <c r="E15">
-        <v>0.9967752107490276</v>
+        <v>1.024441261941848</v>
       </c>
       <c r="F15">
-        <v>1.034558177392883</v>
+        <v>1.057474642366407</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052702666093721</v>
+        <v>1.044355644183295</v>
       </c>
       <c r="J15">
-        <v>1.01689508307407</v>
+        <v>1.030394059701282</v>
       </c>
       <c r="K15">
-        <v>1.053364101216092</v>
+        <v>1.057961082872451</v>
       </c>
       <c r="L15">
-        <v>1.011685931776164</v>
+        <v>1.028035768430257</v>
       </c>
       <c r="M15">
-        <v>1.048788057022013</v>
+        <v>1.060948507621314</v>
       </c>
       <c r="N15">
-        <v>1.009545714000055</v>
+        <v>1.014158475711019</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9896990986085937</v>
+        <v>1.024267492666093</v>
       </c>
       <c r="D16">
-        <v>1.041336146295702</v>
+        <v>1.054891268240288</v>
       </c>
       <c r="E16">
-        <v>0.9987559429642134</v>
+        <v>1.024855646755275</v>
       </c>
       <c r="F16">
-        <v>1.036969135516803</v>
+        <v>1.057964125005281</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053668139469044</v>
+        <v>1.044499816429102</v>
       </c>
       <c r="J16">
-        <v>1.018249341008713</v>
+        <v>1.030665915150655</v>
       </c>
       <c r="K16">
-        <v>1.054962518494591</v>
+        <v>1.05826278002744</v>
       </c>
       <c r="L16">
-        <v>1.01311095172037</v>
+        <v>1.02833335444663</v>
       </c>
       <c r="M16">
-        <v>1.050666695559315</v>
+        <v>1.061325146218597</v>
       </c>
       <c r="N16">
-        <v>1.009999368015684</v>
+        <v>1.014249149127214</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9912918938935726</v>
+        <v>1.024577137339833</v>
       </c>
       <c r="D17">
-        <v>1.042653283450597</v>
+        <v>1.055151473425713</v>
       </c>
       <c r="E17">
-        <v>0.9999869501528887</v>
+        <v>1.025115911388693</v>
       </c>
       <c r="F17">
-        <v>1.038465977578083</v>
+        <v>1.058271405477013</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054264028328603</v>
+        <v>1.044589909172407</v>
       </c>
       <c r="J17">
-        <v>1.019088874331258</v>
+        <v>1.030836452166316</v>
       </c>
       <c r="K17">
-        <v>1.055952610674882</v>
+        <v>1.058451901558609</v>
       </c>
       <c r="L17">
-        <v>1.013995208184139</v>
+        <v>1.028520127023557</v>
       </c>
       <c r="M17">
-        <v>1.051831576181822</v>
+        <v>1.061561423660502</v>
       </c>
       <c r="N17">
-        <v>1.010280591536008</v>
+        <v>1.014306020380414</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9922146523893498</v>
+        <v>1.024757830887521</v>
       </c>
       <c r="D18">
-        <v>1.04341652065156</v>
+        <v>1.055303283039332</v>
       </c>
       <c r="E18">
-        <v>1.000700936978287</v>
+        <v>1.02526783836932</v>
       </c>
       <c r="F18">
-        <v>1.039333594523368</v>
+        <v>1.058450723110034</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054608148134713</v>
+        <v>1.044642334942608</v>
       </c>
       <c r="J18">
-        <v>1.019575041923081</v>
+        <v>1.030935926454642</v>
       </c>
       <c r="K18">
-        <v>1.056525670560149</v>
+        <v>1.058562167339796</v>
       </c>
       <c r="L18">
-        <v>1.014507582295929</v>
+        <v>1.028629105596293</v>
       </c>
       <c r="M18">
-        <v>1.052506244537229</v>
+        <v>1.06169924763903</v>
       </c>
       <c r="N18">
-        <v>1.010443443010244</v>
+        <v>1.014339190186808</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.992528235633749</v>
+        <v>1.024819456750341</v>
       </c>
       <c r="D19">
-        <v>1.043675921395393</v>
+        <v>1.055355052294165</v>
       </c>
       <c r="E19">
-        <v>1.000943711205944</v>
+        <v>1.025319661673236</v>
       </c>
       <c r="F19">
-        <v>1.039628513137896</v>
+        <v>1.058511880332207</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054724903500053</v>
+        <v>1.044660189748024</v>
       </c>
       <c r="J19">
-        <v>1.019740222297012</v>
+        <v>1.030969845074873</v>
       </c>
       <c r="K19">
-        <v>1.056720322740764</v>
+        <v>1.0585997573369</v>
       </c>
       <c r="L19">
-        <v>1.014681718741526</v>
+        <v>1.028666270755048</v>
       </c>
       <c r="M19">
-        <v>1.052735485661443</v>
+        <v>1.061746243244383</v>
       </c>
       <c r="N19">
-        <v>1.010498772871313</v>
+        <v>1.014350499840718</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.991121656125139</v>
+        <v>1.024543906793947</v>
       </c>
       <c r="D20">
-        <v>1.042512489223838</v>
+        <v>1.055123552099097</v>
       </c>
       <c r="E20">
-        <v>0.9998552944574193</v>
+        <v>1.025087975131594</v>
       </c>
       <c r="F20">
-        <v>1.038305948503853</v>
+        <v>1.058238428265653</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054200453340855</v>
+        <v>1.044580255872455</v>
       </c>
       <c r="J20">
-        <v>1.01899916578972</v>
+        <v>1.030818154845974</v>
       </c>
       <c r="K20">
-        <v>1.055846844595992</v>
+        <v>1.058431615314049</v>
       </c>
       <c r="L20">
-        <v>1.013900688815067</v>
+        <v>1.028500084226512</v>
       </c>
       <c r="M20">
-        <v>1.05170709268943</v>
+        <v>1.061536072554335</v>
       </c>
       <c r="N20">
-        <v>1.010250541621721</v>
+        <v>1.01429991886085</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9864737367666482</v>
+        <v>1.023649047319015</v>
       </c>
       <c r="D21">
-        <v>1.038670281858018</v>
+        <v>1.054371354234543</v>
       </c>
       <c r="E21">
-        <v>0.9962686515774425</v>
+        <v>1.02433614304195</v>
       </c>
       <c r="F21">
-        <v>1.033941107382736</v>
+        <v>1.057350426404309</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052454466387228</v>
+        <v>1.044318930128955</v>
       </c>
       <c r="J21">
-        <v>1.016548077084098</v>
+        <v>1.030325032584203</v>
       </c>
       <c r="K21">
-        <v>1.052954289379806</v>
+        <v>1.057884436908764</v>
       </c>
       <c r="L21">
-        <v>1.011321062006666</v>
+        <v>1.027960237204723</v>
       </c>
       <c r="M21">
-        <v>1.048306775421636</v>
+        <v>1.060852877734588</v>
       </c>
       <c r="N21">
-        <v>1.00942947140083</v>
+        <v>1.014135449995704</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9834914842248492</v>
+        <v>1.023087174019719</v>
       </c>
       <c r="D22">
-        <v>1.036207083087346</v>
+        <v>1.053898759066943</v>
       </c>
       <c r="E22">
-        <v>0.9939752600609296</v>
+        <v>1.023864521922457</v>
       </c>
       <c r="F22">
-        <v>1.031144985650544</v>
+        <v>1.056792895346937</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051324428859739</v>
+        <v>1.044153515341831</v>
       </c>
       <c r="J22">
-        <v>1.014973750715661</v>
+        <v>1.030015022244459</v>
       </c>
       <c r="K22">
-        <v>1.051093848413918</v>
+        <v>1.05754000428239</v>
       </c>
       <c r="L22">
-        <v>1.009667020540201</v>
+        <v>1.027621159627212</v>
       </c>
       <c r="M22">
-        <v>1.046123713252638</v>
+        <v>1.060423404712491</v>
       </c>
       <c r="N22">
-        <v>1.008902089468188</v>
+        <v>1.014032024950715</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9850782749985872</v>
+        <v>1.023384961020789</v>
       </c>
       <c r="D23">
-        <v>1.037517477562242</v>
+        <v>1.054149257651408</v>
       </c>
       <c r="E23">
-        <v>0.9951947604354742</v>
+        <v>1.024114433659879</v>
       </c>
       <c r="F23">
-        <v>1.032632296986187</v>
+        <v>1.057088377409067</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051926600084123</v>
+        <v>1.044241309651796</v>
       </c>
       <c r="J23">
-        <v>1.01581155773046</v>
+        <v>1.030179360829056</v>
       </c>
       <c r="K23">
-        <v>1.052084150471013</v>
+        <v>1.057722631900231</v>
       </c>
       <c r="L23">
-        <v>1.010546980626629</v>
+        <v>1.027800877828907</v>
       </c>
       <c r="M23">
-        <v>1.047285376668921</v>
+        <v>1.060651068423185</v>
       </c>
       <c r="N23">
-        <v>1.009182745812003</v>
+        <v>1.014086853975745</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9911985986557933</v>
+        <v>1.024558921990859</v>
       </c>
       <c r="D24">
-        <v>1.042576123586202</v>
+        <v>1.055136168432744</v>
       </c>
       <c r="E24">
-        <v>0.9999147964607069</v>
+        <v>1.025100597956171</v>
       </c>
       <c r="F24">
-        <v>1.038378275618963</v>
+        <v>1.058253328982124</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054229190797193</v>
+        <v>1.044584618165825</v>
       </c>
       <c r="J24">
-        <v>1.019039712074073</v>
+        <v>1.030826422608541</v>
       </c>
       <c r="K24">
-        <v>1.055894649450287</v>
+        <v>1.058440781935879</v>
       </c>
       <c r="L24">
-        <v>1.013943408533904</v>
+        <v>1.028509140588734</v>
       </c>
       <c r="M24">
-        <v>1.051763356193281</v>
+        <v>1.061547527605526</v>
       </c>
       <c r="N24">
-        <v>1.010264123530425</v>
+        <v>1.014302675881865</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9980555024755523</v>
+        <v>1.025924489774136</v>
       </c>
       <c r="D25">
-        <v>1.048250186123588</v>
+        <v>1.056282841192611</v>
       </c>
       <c r="E25">
-        <v>1.005234568404423</v>
+        <v>1.026249648784016</v>
       </c>
       <c r="F25">
-        <v>1.044832888081818</v>
+        <v>1.059608561358852</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056766319286635</v>
+        <v>1.044978148678301</v>
       </c>
       <c r="J25">
-        <v>1.022648484392346</v>
+        <v>1.031577412195258</v>
       </c>
       <c r="K25">
-        <v>1.060142963377523</v>
+        <v>1.059272360141494</v>
       </c>
       <c r="L25">
-        <v>1.017752164301888</v>
+        <v>1.029332497725377</v>
       </c>
       <c r="M25">
-        <v>1.056772929075908</v>
+        <v>1.062588100094642</v>
       </c>
       <c r="N25">
-        <v>1.011472877825917</v>
+        <v>1.014553035903381</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027016220519477</v>
+        <v>1.00334235382137</v>
       </c>
       <c r="D2">
-        <v>1.057198492128738</v>
+        <v>1.052628131397824</v>
       </c>
       <c r="E2">
-        <v>1.02716981780513</v>
+        <v>1.009360002035795</v>
       </c>
       <c r="F2">
-        <v>1.06069212986105</v>
+        <v>1.049821422845356</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045288073939175</v>
+        <v>1.058686803064472</v>
       </c>
       <c r="J2">
-        <v>1.032176441771654</v>
+        <v>1.025423553175222</v>
       </c>
       <c r="K2">
-        <v>1.059934118266941</v>
+        <v>1.063399912695845</v>
       </c>
       <c r="L2">
-        <v>1.029990328853348</v>
+        <v>1.020690459315372</v>
       </c>
       <c r="M2">
-        <v>1.063418218300183</v>
+        <v>1.060627705163974</v>
       </c>
       <c r="N2">
-        <v>1.014752633434396</v>
+        <v>1.012402202610224</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02781036629354</v>
+        <v>1.007082587032351</v>
       </c>
       <c r="D3">
-        <v>1.057863918442534</v>
+        <v>1.055726118474426</v>
       </c>
       <c r="E3">
-        <v>1.02784004761181</v>
+        <v>1.01229158043922</v>
       </c>
       <c r="F3">
-        <v>1.061480388565241</v>
+        <v>1.053356626159074</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045510797108564</v>
+        <v>1.060024027228416</v>
       </c>
       <c r="J3">
-        <v>1.032611392166664</v>
+        <v>1.027382018230487</v>
       </c>
       <c r="K3">
-        <v>1.060413710810984</v>
+        <v>1.065692368858173</v>
       </c>
       <c r="L3">
-        <v>1.03046859913562</v>
+        <v>1.022769567256234</v>
       </c>
       <c r="M3">
-        <v>1.064021018302289</v>
+        <v>1.06334945219526</v>
       </c>
       <c r="N3">
-        <v>1.014897499079952</v>
+        <v>1.013057915036234</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028324893595774</v>
+        <v>1.009459403040772</v>
       </c>
       <c r="D4">
-        <v>1.05829475110635</v>
+        <v>1.057694839327006</v>
       </c>
       <c r="E4">
-        <v>1.028274694079999</v>
+        <v>1.014160306877714</v>
       </c>
       <c r="F4">
-        <v>1.06199112221181</v>
+        <v>1.055605673668885</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045653839276417</v>
+        <v>1.060863621072315</v>
       </c>
       <c r="J4">
-        <v>1.032892827445421</v>
+        <v>1.028624192930436</v>
       </c>
       <c r="K4">
-        <v>1.060723612029304</v>
+        <v>1.067143447517821</v>
       </c>
       <c r="L4">
-        <v>1.030778353563444</v>
+        <v>1.024090781498681</v>
       </c>
       <c r="M4">
-        <v>1.064411087465663</v>
+        <v>1.065076294899581</v>
       </c>
       <c r="N4">
-        <v>1.014991206390631</v>
+        <v>1.013473726333952</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028541357584426</v>
+        <v>1.010448545662437</v>
       </c>
       <c r="D5">
-        <v>1.05847593274827</v>
+        <v>1.058514110084815</v>
       </c>
       <c r="E5">
-        <v>1.028457648120471</v>
+        <v>1.014939357784857</v>
       </c>
       <c r="F5">
-        <v>1.06220599471395</v>
+        <v>1.056542211518586</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045713716003206</v>
+        <v>1.061210550329093</v>
       </c>
       <c r="J5">
-        <v>1.033011139973656</v>
+        <v>1.029140546171912</v>
       </c>
       <c r="K5">
-        <v>1.060853790637942</v>
+        <v>1.067745918192306</v>
       </c>
       <c r="L5">
-        <v>1.030908640350359</v>
+        <v>1.024640595447443</v>
       </c>
       <c r="M5">
-        <v>1.064575074884002</v>
+        <v>1.065794242190916</v>
       </c>
       <c r="N5">
-        <v>1.015030593200117</v>
+        <v>1.013646551549077</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028577711979497</v>
+        <v>1.010614045300535</v>
       </c>
       <c r="D6">
-        <v>1.058506357378826</v>
+        <v>1.058651183857876</v>
       </c>
       <c r="E6">
-        <v>1.028488380263488</v>
+        <v>1.015069784456529</v>
       </c>
       <c r="F6">
-        <v>1.062242082077538</v>
+        <v>1.056698941824559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045723754400913</v>
+        <v>1.061268450484387</v>
       </c>
       <c r="J6">
-        <v>1.033031004963322</v>
+        <v>1.029226904883664</v>
       </c>
       <c r="K6">
-        <v>1.060875642062436</v>
+        <v>1.067846636951662</v>
       </c>
       <c r="L6">
-        <v>1.030930519906667</v>
+        <v>1.024732585964475</v>
       </c>
       <c r="M6">
-        <v>1.064602609178423</v>
+        <v>1.065914324120425</v>
       </c>
       <c r="N6">
-        <v>1.015037205951411</v>
+        <v>1.013675454802003</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028327785384602</v>
+        <v>1.009472659181306</v>
       </c>
       <c r="D7">
-        <v>1.05829717183271</v>
+        <v>1.057705819113949</v>
       </c>
       <c r="E7">
-        <v>1.0282771378247</v>
+        <v>1.014170742130393</v>
       </c>
       <c r="F7">
-        <v>1.061993992722387</v>
+        <v>1.055618222625873</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045654640367893</v>
+        <v>1.060868280330078</v>
       </c>
       <c r="J7">
-        <v>1.03289440835604</v>
+        <v>1.028631115289588</v>
       </c>
       <c r="K7">
-        <v>1.060725351892349</v>
+        <v>1.067151527258112</v>
       </c>
       <c r="L7">
-        <v>1.030780094204172</v>
+        <v>1.02409815004921</v>
       </c>
       <c r="M7">
-        <v>1.064413278666619</v>
+        <v>1.065085919393932</v>
       </c>
       <c r="N7">
-        <v>1.014991732710107</v>
+        <v>1.013476043358035</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027284467704724</v>
+        <v>1.004615553491333</v>
       </c>
       <c r="D8">
-        <v>1.057423321569822</v>
+        <v>1.05368267052106</v>
       </c>
       <c r="E8">
-        <v>1.027396124593797</v>
+        <v>1.010356698429657</v>
       </c>
       <c r="F8">
-        <v>1.060958384007747</v>
+        <v>1.051024277744056</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04536356622085</v>
+        <v>1.059144110203956</v>
       </c>
       <c r="J8">
-        <v>1.032323435928546</v>
+        <v>1.026090710312354</v>
       </c>
       <c r="K8">
-        <v>1.060096286320646</v>
+        <v>1.064181449257581</v>
       </c>
       <c r="L8">
-        <v>1.030151903401049</v>
+        <v>1.021398185599164</v>
       </c>
       <c r="M8">
-        <v>1.063621932735808</v>
+        <v>1.061554757181575</v>
       </c>
       <c r="N8">
-        <v>1.014801597489162</v>
+        <v>1.012625588721155</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025451155141479</v>
+        <v>0.9957099561065351</v>
       </c>
       <c r="D9">
-        <v>1.055885545858284</v>
+        <v>1.046308623601889</v>
       </c>
       <c r="E9">
-        <v>1.025851124558645</v>
+        <v>1.003410983656552</v>
       </c>
       <c r="F9">
-        <v>1.059138792584699</v>
+        <v>1.04262296589541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044842467482162</v>
+        <v>1.055903958526868</v>
       </c>
       <c r="J9">
-        <v>1.031317313695253</v>
+        <v>1.021415121763887</v>
       </c>
       <c r="K9">
-        <v>1.058984590373812</v>
+        <v>1.05869254036302</v>
       </c>
       <c r="L9">
-        <v>1.029047168630829</v>
+        <v>1.016448961385698</v>
       </c>
       <c r="M9">
-        <v>1.062227691282418</v>
+        <v>1.05506039622265</v>
       </c>
       <c r="N9">
-        <v>1.014466341813221</v>
+        <v>1.011059787464996</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024232511116412</v>
+        <v>0.9895182354695745</v>
       </c>
       <c r="D10">
-        <v>1.054861867514172</v>
+        <v>1.041186609886607</v>
       </c>
       <c r="E10">
-        <v>1.024826250496679</v>
+        <v>0.9986162744609435</v>
       </c>
       <c r="F10">
-        <v>1.057929411059998</v>
+        <v>1.036799230111943</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044489618352516</v>
+        <v>1.053600327383985</v>
       </c>
       <c r="J10">
-        <v>1.030646643253255</v>
+        <v>1.018153984627301</v>
       </c>
       <c r="K10">
-        <v>1.058241401340725</v>
+        <v>1.054850021529322</v>
       </c>
       <c r="L10">
-        <v>1.028312252426434</v>
+        <v>1.013010557524817</v>
       </c>
       <c r="M10">
-        <v>1.061298445629981</v>
+        <v>1.050534398521473</v>
       </c>
       <c r="N10">
-        <v>1.014242721836883</v>
+        <v>1.009967425560931</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023705692176351</v>
+        <v>0.9867716273587807</v>
       </c>
       <c r="D11">
-        <v>1.054418986012215</v>
+        <v>1.038916420061465</v>
       </c>
       <c r="E11">
-        <v>1.024383708190927</v>
+        <v>0.9964980707706383</v>
       </c>
       <c r="F11">
-        <v>1.057406635091764</v>
+        <v>1.034220600728658</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044335549876282</v>
+        <v>1.052566939204757</v>
       </c>
       <c r="J11">
-        <v>1.030356269803785</v>
+        <v>1.016705268165555</v>
       </c>
       <c r="K11">
-        <v>1.057919124003223</v>
+        <v>1.053139942995166</v>
       </c>
       <c r="L11">
-        <v>1.027994416310727</v>
+        <v>1.011486331906715</v>
       </c>
       <c r="M11">
-        <v>1.060896153509654</v>
+        <v>1.048524787855116</v>
       </c>
       <c r="N11">
-        <v>1.014145870084482</v>
+        <v>1.009482128463734</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023510139436089</v>
+        <v>0.9857411012901984</v>
       </c>
       <c r="D12">
-        <v>1.054254538949533</v>
+        <v>1.038064997930316</v>
       </c>
       <c r="E12">
-        <v>1.024219515737356</v>
+        <v>0.9957046770230507</v>
       </c>
       <c r="F12">
-        <v>1.057212589343784</v>
+        <v>1.033253868224985</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04427813023854</v>
+        <v>1.052177531478477</v>
       </c>
       <c r="J12">
-        <v>1.030248418150407</v>
+        <v>1.016161427451857</v>
       </c>
       <c r="K12">
-        <v>1.057799346604308</v>
+        <v>1.052497546157785</v>
       </c>
       <c r="L12">
-        <v>1.027876417450795</v>
+        <v>1.010914633917634</v>
       </c>
       <c r="M12">
-        <v>1.060746737747348</v>
+        <v>1.047770552572035</v>
       </c>
       <c r="N12">
-        <v>1.014109892063665</v>
+        <v>1.009299948302158</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023552080193977</v>
+        <v>0.9859626271046702</v>
       </c>
       <c r="D13">
-        <v>1.054289810706745</v>
+        <v>1.038248005880049</v>
       </c>
       <c r="E13">
-        <v>1.024254727061977</v>
+        <v>0.9958751659243461</v>
       </c>
       <c r="F13">
-        <v>1.057254206602525</v>
+        <v>1.033461645105799</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044290455607687</v>
+        <v>1.052261315217091</v>
       </c>
       <c r="J13">
-        <v>1.030271552405332</v>
+        <v>1.016278345788752</v>
       </c>
       <c r="K13">
-        <v>1.057825042370785</v>
+        <v>1.052635672331846</v>
       </c>
       <c r="L13">
-        <v>1.027901725885944</v>
+        <v>1.011037519082674</v>
       </c>
       <c r="M13">
-        <v>1.060778787298063</v>
+        <v>1.047932695347729</v>
       </c>
       <c r="N13">
-        <v>1.014117609598143</v>
+        <v>1.00933911461013</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023689525037711</v>
+        <v>0.9866866569293932</v>
       </c>
       <c r="D14">
-        <v>1.054405391554365</v>
+        <v>1.038846209820034</v>
       </c>
       <c r="E14">
-        <v>1.024370132156163</v>
+        <v>0.9964326248721783</v>
       </c>
       <c r="F14">
-        <v>1.057390592412085</v>
+        <v>1.034140874351501</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044330807457279</v>
+        <v>1.052534865093115</v>
       </c>
       <c r="J14">
-        <v>1.030347354623218</v>
+        <v>1.016660432188956</v>
       </c>
       <c r="K14">
-        <v>1.057909224569402</v>
+        <v>1.05308699059418</v>
       </c>
       <c r="L14">
-        <v>1.027984661263645</v>
+        <v>1.011439189342975</v>
       </c>
       <c r="M14">
-        <v>1.060883802471387</v>
+        <v>1.04846260290606</v>
       </c>
       <c r="N14">
-        <v>1.014142896187928</v>
+        <v>1.009467108975055</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023774226789814</v>
+        <v>0.9871313745936821</v>
       </c>
       <c r="D15">
-        <v>1.054476612588509</v>
+        <v>1.039213690469976</v>
       </c>
       <c r="E15">
-        <v>1.024441261941848</v>
+        <v>0.9967752107490266</v>
       </c>
       <c r="F15">
-        <v>1.057474642366407</v>
+        <v>1.034558177392882</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044355644183295</v>
+        <v>1.05270266609372</v>
       </c>
       <c r="J15">
-        <v>1.030394059701282</v>
+        <v>1.016895083074069</v>
       </c>
       <c r="K15">
-        <v>1.057961082872451</v>
+        <v>1.05336410121609</v>
       </c>
       <c r="L15">
-        <v>1.028035768430257</v>
+        <v>1.011685931776163</v>
       </c>
       <c r="M15">
-        <v>1.060948507621314</v>
+        <v>1.048788057022011</v>
       </c>
       <c r="N15">
-        <v>1.014158475711019</v>
+        <v>1.009545714000055</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024267492666093</v>
+        <v>0.9896990986085932</v>
       </c>
       <c r="D16">
-        <v>1.054891268240288</v>
+        <v>1.041336146295702</v>
       </c>
       <c r="E16">
-        <v>1.024855646755275</v>
+        <v>0.9987559429642124</v>
       </c>
       <c r="F16">
-        <v>1.057964125005281</v>
+        <v>1.036969135516803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044499816429102</v>
+        <v>1.053668139469044</v>
       </c>
       <c r="J16">
-        <v>1.030665915150655</v>
+        <v>1.018249341008712</v>
       </c>
       <c r="K16">
-        <v>1.05826278002744</v>
+        <v>1.054962518494591</v>
       </c>
       <c r="L16">
-        <v>1.02833335444663</v>
+        <v>1.013110951720369</v>
       </c>
       <c r="M16">
-        <v>1.061325146218597</v>
+        <v>1.050666695559315</v>
       </c>
       <c r="N16">
-        <v>1.014249149127214</v>
+        <v>1.009999368015684</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024577137339833</v>
+        <v>0.9912918938935724</v>
       </c>
       <c r="D17">
-        <v>1.055151473425713</v>
+        <v>1.042653283450596</v>
       </c>
       <c r="E17">
-        <v>1.025115911388693</v>
+        <v>0.9999869501528883</v>
       </c>
       <c r="F17">
-        <v>1.058271405477013</v>
+        <v>1.038465977578083</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044589909172407</v>
+        <v>1.054264028328602</v>
       </c>
       <c r="J17">
-        <v>1.030836452166316</v>
+        <v>1.019088874331258</v>
       </c>
       <c r="K17">
-        <v>1.058451901558609</v>
+        <v>1.055952610674882</v>
       </c>
       <c r="L17">
-        <v>1.028520127023557</v>
+        <v>1.013995208184139</v>
       </c>
       <c r="M17">
-        <v>1.061561423660502</v>
+        <v>1.051831576181822</v>
       </c>
       <c r="N17">
-        <v>1.014306020380414</v>
+        <v>1.010280591536008</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024757830887521</v>
+        <v>0.9922146523893492</v>
       </c>
       <c r="D18">
-        <v>1.055303283039332</v>
+        <v>1.04341652065156</v>
       </c>
       <c r="E18">
-        <v>1.02526783836932</v>
+        <v>1.000700936978287</v>
       </c>
       <c r="F18">
-        <v>1.058450723110034</v>
+        <v>1.039333594523369</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044642334942608</v>
+        <v>1.054608148134714</v>
       </c>
       <c r="J18">
-        <v>1.030935926454642</v>
+        <v>1.01957504192308</v>
       </c>
       <c r="K18">
-        <v>1.058562167339796</v>
+        <v>1.05652567056015</v>
       </c>
       <c r="L18">
-        <v>1.028629105596293</v>
+        <v>1.014507582295928</v>
       </c>
       <c r="M18">
-        <v>1.06169924763903</v>
+        <v>1.052506244537229</v>
       </c>
       <c r="N18">
-        <v>1.014339190186808</v>
+        <v>1.010443443010243</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024819456750341</v>
+        <v>0.9925282356337485</v>
       </c>
       <c r="D19">
-        <v>1.055355052294165</v>
+        <v>1.043675921395393</v>
       </c>
       <c r="E19">
-        <v>1.025319661673236</v>
+        <v>1.000943711205944</v>
       </c>
       <c r="F19">
-        <v>1.058511880332207</v>
+        <v>1.039628513137896</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044660189748024</v>
+        <v>1.054724903500053</v>
       </c>
       <c r="J19">
-        <v>1.030969845074873</v>
+        <v>1.019740222297012</v>
       </c>
       <c r="K19">
-        <v>1.0585997573369</v>
+        <v>1.056720322740764</v>
       </c>
       <c r="L19">
-        <v>1.028666270755048</v>
+        <v>1.014681718741526</v>
       </c>
       <c r="M19">
-        <v>1.061746243244383</v>
+        <v>1.052735485661443</v>
       </c>
       <c r="N19">
-        <v>1.014350499840718</v>
+        <v>1.010498772871313</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024543906793947</v>
+        <v>0.9911216561251387</v>
       </c>
       <c r="D20">
-        <v>1.055123552099097</v>
+        <v>1.042512489223838</v>
       </c>
       <c r="E20">
-        <v>1.025087975131594</v>
+        <v>0.9998552944574189</v>
       </c>
       <c r="F20">
-        <v>1.058238428265653</v>
+        <v>1.038305948503852</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044580255872455</v>
+        <v>1.054200453340855</v>
       </c>
       <c r="J20">
-        <v>1.030818154845974</v>
+        <v>1.018999165789719</v>
       </c>
       <c r="K20">
-        <v>1.058431615314049</v>
+        <v>1.055846844595992</v>
       </c>
       <c r="L20">
-        <v>1.028500084226512</v>
+        <v>1.013900688815067</v>
       </c>
       <c r="M20">
-        <v>1.061536072554335</v>
+        <v>1.051707092689429</v>
       </c>
       <c r="N20">
-        <v>1.01429991886085</v>
+        <v>1.010250541621721</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.023649047319015</v>
+        <v>0.986473736766647</v>
       </c>
       <c r="D21">
-        <v>1.054371354234543</v>
+        <v>1.038670281858017</v>
       </c>
       <c r="E21">
-        <v>1.02433614304195</v>
+        <v>0.9962686515774416</v>
       </c>
       <c r="F21">
-        <v>1.057350426404309</v>
+        <v>1.033941107382734</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044318930128955</v>
+        <v>1.052454466387227</v>
       </c>
       <c r="J21">
-        <v>1.030325032584203</v>
+        <v>1.016548077084097</v>
       </c>
       <c r="K21">
-        <v>1.057884436908764</v>
+        <v>1.052954289379805</v>
       </c>
       <c r="L21">
-        <v>1.027960237204723</v>
+        <v>1.011321062006665</v>
       </c>
       <c r="M21">
-        <v>1.060852877734588</v>
+        <v>1.048306775421635</v>
       </c>
       <c r="N21">
-        <v>1.014135449995704</v>
+        <v>1.00942947140083</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.023087174019719</v>
+        <v>0.983491484224849</v>
       </c>
       <c r="D22">
-        <v>1.053898759066943</v>
+        <v>1.036207083087346</v>
       </c>
       <c r="E22">
-        <v>1.023864521922457</v>
+        <v>0.9939752600609294</v>
       </c>
       <c r="F22">
-        <v>1.056792895346937</v>
+        <v>1.031144985650544</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044153515341831</v>
+        <v>1.051324428859739</v>
       </c>
       <c r="J22">
-        <v>1.030015022244459</v>
+        <v>1.014973750715661</v>
       </c>
       <c r="K22">
-        <v>1.05754000428239</v>
+        <v>1.051093848413918</v>
       </c>
       <c r="L22">
-        <v>1.027621159627212</v>
+        <v>1.0096670205402</v>
       </c>
       <c r="M22">
-        <v>1.060423404712491</v>
+        <v>1.046123713252637</v>
       </c>
       <c r="N22">
-        <v>1.014032024950715</v>
+        <v>1.008902089468188</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.023384961020789</v>
+        <v>0.9850782749985868</v>
       </c>
       <c r="D23">
-        <v>1.054149257651408</v>
+        <v>1.037517477562242</v>
       </c>
       <c r="E23">
-        <v>1.024114433659879</v>
+        <v>0.9951947604354737</v>
       </c>
       <c r="F23">
-        <v>1.057088377409067</v>
+        <v>1.032632296986187</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044241309651796</v>
+        <v>1.051926600084123</v>
       </c>
       <c r="J23">
-        <v>1.030179360829056</v>
+        <v>1.01581155773046</v>
       </c>
       <c r="K23">
-        <v>1.057722631900231</v>
+        <v>1.052084150471013</v>
       </c>
       <c r="L23">
-        <v>1.027800877828907</v>
+        <v>1.010546980626628</v>
       </c>
       <c r="M23">
-        <v>1.060651068423185</v>
+        <v>1.047285376668921</v>
       </c>
       <c r="N23">
-        <v>1.014086853975745</v>
+        <v>1.009182745812003</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024558921990859</v>
+        <v>0.9911985986557926</v>
       </c>
       <c r="D24">
-        <v>1.055136168432744</v>
+        <v>1.042576123586201</v>
       </c>
       <c r="E24">
-        <v>1.025100597956171</v>
+        <v>0.9999147964607069</v>
       </c>
       <c r="F24">
-        <v>1.058253328982124</v>
+        <v>1.038378275618963</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044584618165825</v>
+        <v>1.054229190797193</v>
       </c>
       <c r="J24">
-        <v>1.030826422608541</v>
+        <v>1.019039712074073</v>
       </c>
       <c r="K24">
-        <v>1.058440781935879</v>
+        <v>1.055894649450287</v>
       </c>
       <c r="L24">
-        <v>1.028509140588734</v>
+        <v>1.013943408533903</v>
       </c>
       <c r="M24">
-        <v>1.061547527605526</v>
+        <v>1.051763356193281</v>
       </c>
       <c r="N24">
-        <v>1.014302675881865</v>
+        <v>1.010264123530425</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025924489774136</v>
+        <v>0.9980555024755515</v>
       </c>
       <c r="D25">
-        <v>1.056282841192611</v>
+        <v>1.048250186123588</v>
       </c>
       <c r="E25">
-        <v>1.026249648784016</v>
+        <v>1.005234568404422</v>
       </c>
       <c r="F25">
-        <v>1.059608561358852</v>
+        <v>1.044832888081818</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044978148678301</v>
+        <v>1.056766319286635</v>
       </c>
       <c r="J25">
-        <v>1.031577412195258</v>
+        <v>1.022648484392345</v>
       </c>
       <c r="K25">
-        <v>1.059272360141494</v>
+        <v>1.060142963377523</v>
       </c>
       <c r="L25">
-        <v>1.029332497725377</v>
+        <v>1.017752164301887</v>
       </c>
       <c r="M25">
-        <v>1.062588100094642</v>
+        <v>1.056772929075907</v>
       </c>
       <c r="N25">
-        <v>1.014553035903381</v>
+        <v>1.011472877825917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00334235382137</v>
+        <v>1.007466840469149</v>
       </c>
       <c r="D2">
-        <v>1.052628131397824</v>
+        <v>1.041231909558672</v>
       </c>
       <c r="E2">
-        <v>1.009360002035795</v>
+        <v>1.024532263925669</v>
       </c>
       <c r="F2">
-        <v>1.049821422845356</v>
+        <v>1.039318622075266</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058686803064472</v>
+        <v>1.049909811095962</v>
       </c>
       <c r="J2">
-        <v>1.025423553175222</v>
+        <v>1.029426490399101</v>
       </c>
       <c r="K2">
-        <v>1.063399912695845</v>
+        <v>1.052145218346273</v>
       </c>
       <c r="L2">
-        <v>1.020690459315372</v>
+        <v>1.035660086117398</v>
       </c>
       <c r="M2">
-        <v>1.060627705163974</v>
+        <v>1.050256071315322</v>
       </c>
       <c r="N2">
-        <v>1.012402202610224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013692186600973</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.048346657890101</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.047941406067713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007082587032351</v>
+        <v>1.010760981072926</v>
       </c>
       <c r="D3">
-        <v>1.055726118474426</v>
+        <v>1.043123694845061</v>
       </c>
       <c r="E3">
-        <v>1.01229158043922</v>
+        <v>1.027009517849619</v>
       </c>
       <c r="F3">
-        <v>1.053356626159074</v>
+        <v>1.041620367292415</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060024027228416</v>
+        <v>1.050506981979833</v>
       </c>
       <c r="J3">
-        <v>1.027382018230487</v>
+        <v>1.030962528456524</v>
       </c>
       <c r="K3">
-        <v>1.065692368858173</v>
+        <v>1.053233002873538</v>
       </c>
       <c r="L3">
-        <v>1.022769567256234</v>
+        <v>1.037308088004823</v>
       </c>
       <c r="M3">
-        <v>1.06334945219526</v>
+        <v>1.051747025953762</v>
       </c>
       <c r="N3">
-        <v>1.013057915036234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014212051919175</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049526634919401</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.04870791079197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009459403040772</v>
+        <v>1.012859312566194</v>
       </c>
       <c r="D4">
-        <v>1.057694839327006</v>
+        <v>1.044334251906161</v>
       </c>
       <c r="E4">
-        <v>1.014160306877714</v>
+        <v>1.028593723422644</v>
       </c>
       <c r="F4">
-        <v>1.055605673668885</v>
+        <v>1.043093707879231</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060863621072315</v>
+        <v>1.050880624296389</v>
       </c>
       <c r="J4">
-        <v>1.028624192930436</v>
+        <v>1.031939699291315</v>
       </c>
       <c r="K4">
-        <v>1.067143447517821</v>
+        <v>1.053925500517182</v>
       </c>
       <c r="L4">
-        <v>1.024090781498681</v>
+        <v>1.038358873870908</v>
       </c>
       <c r="M4">
-        <v>1.065076294899581</v>
+        <v>1.052698428231818</v>
       </c>
       <c r="N4">
-        <v>1.013473726333952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014542703831401</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050279596375966</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049198437131409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010448545662437</v>
+        <v>1.013735152929693</v>
       </c>
       <c r="D5">
-        <v>1.058514110084815</v>
+        <v>1.044844581859777</v>
       </c>
       <c r="E5">
-        <v>1.014939357784857</v>
+        <v>1.029257042427653</v>
       </c>
       <c r="F5">
-        <v>1.056542211518586</v>
+        <v>1.043711751941645</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061210550329093</v>
+        <v>1.051036576165</v>
       </c>
       <c r="J5">
-        <v>1.029140546171912</v>
+        <v>1.032347980426697</v>
       </c>
       <c r="K5">
-        <v>1.067745918192306</v>
+        <v>1.054218494961642</v>
       </c>
       <c r="L5">
-        <v>1.024640595447443</v>
+        <v>1.038798652689263</v>
       </c>
       <c r="M5">
-        <v>1.065794242190916</v>
+        <v>1.053097645949383</v>
       </c>
       <c r="N5">
-        <v>1.013646551549077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014681000910484</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.050595546154309</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049412683831985</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010614045300535</v>
+        <v>1.013883518558266</v>
       </c>
       <c r="D6">
-        <v>1.058651183857876</v>
+        <v>1.044935675493915</v>
       </c>
       <c r="E6">
-        <v>1.015069784456529</v>
+        <v>1.029370233322483</v>
       </c>
       <c r="F6">
-        <v>1.056698941824559</v>
+        <v>1.043818233292219</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061268450484387</v>
+        <v>1.051064893054452</v>
       </c>
       <c r="J6">
-        <v>1.029226904883664</v>
+        <v>1.032418018995171</v>
       </c>
       <c r="K6">
-        <v>1.067846636951662</v>
+        <v>1.054273067589084</v>
       </c>
       <c r="L6">
-        <v>1.024732585964475</v>
+        <v>1.038874329584325</v>
       </c>
       <c r="M6">
-        <v>1.065914324120425</v>
+        <v>1.053167390466411</v>
       </c>
       <c r="N6">
-        <v>1.013675454802003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014704921569693</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.050650743502159</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.049459905401912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009472659181306</v>
+        <v>1.012875769817487</v>
       </c>
       <c r="D7">
-        <v>1.057705819113949</v>
+        <v>1.044356060595945</v>
       </c>
       <c r="E7">
-        <v>1.014170742130393</v>
+        <v>1.0286081693133</v>
       </c>
       <c r="F7">
-        <v>1.055618222625873</v>
+        <v>1.043109820777854</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060868280330078</v>
+        <v>1.050888907529158</v>
       </c>
       <c r="J7">
-        <v>1.028631115289588</v>
+        <v>1.031949777469818</v>
       </c>
       <c r="K7">
-        <v>1.067151527258112</v>
+        <v>1.053944240830867</v>
       </c>
       <c r="L7">
-        <v>1.02409815004921</v>
+        <v>1.038370267352887</v>
       </c>
       <c r="M7">
-        <v>1.065085919393932</v>
+        <v>1.052711529508881</v>
       </c>
       <c r="N7">
-        <v>1.013476043358035</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014546654801695</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050289965020063</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04923154695682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004615553491333</v>
+        <v>1.008593015080469</v>
       </c>
       <c r="D8">
-        <v>1.05368267052106</v>
+        <v>1.041892535361156</v>
       </c>
       <c r="E8">
-        <v>1.010356698429657</v>
+        <v>1.02538034366828</v>
       </c>
       <c r="F8">
-        <v>1.051024277744056</v>
+        <v>1.040109537576951</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059144110203956</v>
+        <v>1.050121929527317</v>
       </c>
       <c r="J8">
-        <v>1.026090710312354</v>
+        <v>1.029954855106744</v>
       </c>
       <c r="K8">
-        <v>1.064181449257581</v>
+        <v>1.052533440308341</v>
       </c>
       <c r="L8">
-        <v>1.021398185599164</v>
+        <v>1.036227155755745</v>
       </c>
       <c r="M8">
-        <v>1.061554757181575</v>
+        <v>1.050772284804067</v>
       </c>
       <c r="N8">
-        <v>1.012625588721155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01387172106733</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.048755201758157</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.048238521546864</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9957099561065351</v>
+        <v>1.000774778225067</v>
       </c>
       <c r="D9">
-        <v>1.046308623601889</v>
+        <v>1.037421219773666</v>
       </c>
       <c r="E9">
-        <v>1.003410983656552</v>
+        <v>1.019535181851416</v>
       </c>
       <c r="F9">
-        <v>1.04262296589541</v>
+        <v>1.034683426668373</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055903958526868</v>
+        <v>1.048661351711896</v>
       </c>
       <c r="J9">
-        <v>1.021415121763887</v>
+        <v>1.026300206710432</v>
       </c>
       <c r="K9">
-        <v>1.05869254036302</v>
+        <v>1.049934998289568</v>
       </c>
       <c r="L9">
-        <v>1.016448961385698</v>
+        <v>1.032319070423176</v>
       </c>
       <c r="M9">
-        <v>1.05506039622265</v>
+        <v>1.047237780918539</v>
       </c>
       <c r="N9">
-        <v>1.011059787464996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01263389569275</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045957905190246</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046398169008423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9895182354695745</v>
+        <v>0.9954122765780993</v>
       </c>
       <c r="D10">
-        <v>1.041186609886607</v>
+        <v>1.034416590026261</v>
       </c>
       <c r="E10">
-        <v>0.9986162744609435</v>
+        <v>1.015585402875766</v>
       </c>
       <c r="F10">
-        <v>1.036799230111943</v>
+        <v>1.031062399512159</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053600327383985</v>
+        <v>1.04764555515284</v>
       </c>
       <c r="J10">
-        <v>1.018153984627301</v>
+        <v>1.023809104663888</v>
       </c>
       <c r="K10">
-        <v>1.054850021529322</v>
+        <v>1.048191055397668</v>
       </c>
       <c r="L10">
-        <v>1.013010557524817</v>
+        <v>1.02967884661033</v>
       </c>
       <c r="M10">
-        <v>1.050534398521473</v>
+        <v>1.044892582197091</v>
       </c>
       <c r="N10">
-        <v>1.009967425560931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011793000120588</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044152935832257</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.045181723259672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9867716273587807</v>
+        <v>0.9933672519327016</v>
       </c>
       <c r="D11">
-        <v>1.038916420061465</v>
+        <v>1.033497523535385</v>
       </c>
       <c r="E11">
-        <v>0.9964980707706383</v>
+        <v>1.014271902290514</v>
       </c>
       <c r="F11">
-        <v>1.034220600728658</v>
+        <v>1.030158715355559</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052566939204757</v>
+        <v>1.047397260614453</v>
       </c>
       <c r="J11">
-        <v>1.016705268165555</v>
+        <v>1.023018588120193</v>
       </c>
       <c r="K11">
-        <v>1.053139942995166</v>
+        <v>1.047814215850442</v>
       </c>
       <c r="L11">
-        <v>1.011486331906715</v>
+        <v>1.028929598578395</v>
       </c>
       <c r="M11">
-        <v>1.048524787855116</v>
+        <v>1.044533445217139</v>
       </c>
       <c r="N11">
-        <v>1.009482128463734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011551391170771</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044302016984086</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.04494770304176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9857411012901984</v>
+        <v>0.9927203251654197</v>
       </c>
       <c r="D12">
-        <v>1.038064997930316</v>
+        <v>1.033291475059012</v>
       </c>
       <c r="E12">
-        <v>0.9957046770230507</v>
+        <v>1.013933316646199</v>
       </c>
       <c r="F12">
-        <v>1.033253868224985</v>
+        <v>1.030067634588526</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052177531478477</v>
+        <v>1.047375859674471</v>
       </c>
       <c r="J12">
-        <v>1.016161427451857</v>
+        <v>1.022836001541345</v>
       </c>
       <c r="K12">
-        <v>1.052497546157785</v>
+        <v>1.047807497806788</v>
       </c>
       <c r="L12">
-        <v>1.010914633917634</v>
+        <v>1.028798357689268</v>
       </c>
       <c r="M12">
-        <v>1.047770552572035</v>
+        <v>1.044640600448383</v>
       </c>
       <c r="N12">
-        <v>1.009299948302158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011510224261813</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044711168348928</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.044942953284959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9859626271046702</v>
+        <v>0.9931124618636912</v>
       </c>
       <c r="D13">
-        <v>1.038248005880049</v>
+        <v>1.033639376796988</v>
       </c>
       <c r="E13">
-        <v>0.9958751659243461</v>
+        <v>1.01433038964875</v>
       </c>
       <c r="F13">
-        <v>1.033461645105799</v>
+        <v>1.030613802590277</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052261315217091</v>
+        <v>1.047539569321864</v>
       </c>
       <c r="J13">
-        <v>1.016278345788752</v>
+        <v>1.023117503455411</v>
       </c>
       <c r="K13">
-        <v>1.052635672331846</v>
+        <v>1.048107312867225</v>
       </c>
       <c r="L13">
-        <v>1.011037519082674</v>
+        <v>1.029144967224152</v>
       </c>
       <c r="M13">
-        <v>1.047932695347729</v>
+        <v>1.045134941992797</v>
       </c>
       <c r="N13">
-        <v>1.00933911461013</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011624104187032</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045377198882677</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.045152467725622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9866866569293932</v>
+        <v>0.9938583956693295</v>
       </c>
       <c r="D14">
-        <v>1.038846209820034</v>
+        <v>1.03413641744962</v>
       </c>
       <c r="E14">
-        <v>0.9964326248721783</v>
+        <v>1.014941971637504</v>
       </c>
       <c r="F14">
-        <v>1.034140874351501</v>
+        <v>1.031285826860238</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052534865093115</v>
+        <v>1.047738579525925</v>
       </c>
       <c r="J14">
-        <v>1.016660432188956</v>
+        <v>1.023524946263421</v>
       </c>
       <c r="K14">
-        <v>1.05308699059418</v>
+        <v>1.048458223129831</v>
       </c>
       <c r="L14">
-        <v>1.011439189342975</v>
+        <v>1.029604107106366</v>
       </c>
       <c r="M14">
-        <v>1.04846260290606</v>
+        <v>1.045657138172556</v>
       </c>
       <c r="N14">
-        <v>1.009467108975055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01177420084523</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04596247898709</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.045401972066549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9871313745936821</v>
+        <v>0.9942684733080495</v>
       </c>
       <c r="D15">
-        <v>1.039213690469976</v>
+        <v>1.034386133365776</v>
       </c>
       <c r="E15">
-        <v>0.9967752107490266</v>
+        <v>1.01525666367759</v>
       </c>
       <c r="F15">
-        <v>1.034558177392882</v>
+        <v>1.031599611814493</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05270266609372</v>
+        <v>1.047831046824633</v>
       </c>
       <c r="J15">
-        <v>1.016895083074069</v>
+        <v>1.023729104599462</v>
       </c>
       <c r="K15">
-        <v>1.05336410121609</v>
+        <v>1.048618967476749</v>
       </c>
       <c r="L15">
-        <v>1.011685931776163</v>
+        <v>1.029826122836139</v>
       </c>
       <c r="M15">
-        <v>1.048788057022011</v>
+        <v>1.045880475911562</v>
       </c>
       <c r="N15">
-        <v>1.009545714000055</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011846000934627</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.046176377635218</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.045521412951755</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9896990986085932</v>
+        <v>0.9964582332376551</v>
       </c>
       <c r="D16">
-        <v>1.041336146295702</v>
+        <v>1.03559747619167</v>
       </c>
       <c r="E16">
-        <v>0.9987559429642124</v>
+        <v>1.016851963546788</v>
       </c>
       <c r="F16">
-        <v>1.036969135516803</v>
+        <v>1.033049672045227</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053668139469044</v>
+        <v>1.048244165736287</v>
       </c>
       <c r="J16">
-        <v>1.018249341008712</v>
+        <v>1.02473584302323</v>
       </c>
       <c r="K16">
-        <v>1.054962518494591</v>
+        <v>1.049317555393644</v>
       </c>
       <c r="L16">
-        <v>1.013110951720369</v>
+        <v>1.030887669430755</v>
       </c>
       <c r="M16">
-        <v>1.050666695559315</v>
+        <v>1.046811783981092</v>
       </c>
       <c r="N16">
-        <v>1.009999368015684</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012182381389913</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046873938460755</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.046018455085957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9912918938935724</v>
+        <v>0.9977493906638943</v>
       </c>
       <c r="D17">
-        <v>1.042653283450596</v>
+        <v>1.036267601648193</v>
       </c>
       <c r="E17">
-        <v>0.9999869501528883</v>
+        <v>1.017757019661891</v>
       </c>
       <c r="F17">
-        <v>1.038465977578083</v>
+        <v>1.033807355211721</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054264028328602</v>
+        <v>1.048454756362805</v>
       </c>
       <c r="J17">
-        <v>1.019088874331258</v>
+        <v>1.025294332051445</v>
       </c>
       <c r="K17">
-        <v>1.055952610674882</v>
+        <v>1.049668268241496</v>
       </c>
       <c r="L17">
-        <v>1.013995208184139</v>
+        <v>1.031460706171972</v>
       </c>
       <c r="M17">
-        <v>1.051831576181822</v>
+        <v>1.047247493986741</v>
       </c>
       <c r="N17">
-        <v>1.010280591536008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.0123615696388</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047089904615886</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046268973065744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9922146523893492</v>
+        <v>0.9983837581499048</v>
       </c>
       <c r="D18">
-        <v>1.04341652065156</v>
+        <v>1.036511487803966</v>
       </c>
       <c r="E18">
-        <v>1.000700936978287</v>
+        <v>1.018135035865695</v>
       </c>
       <c r="F18">
-        <v>1.039333594523369</v>
+        <v>1.03400437075041</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054608148134714</v>
+        <v>1.04850149032584</v>
       </c>
       <c r="J18">
-        <v>1.01957504192308</v>
+        <v>1.02550796451727</v>
       </c>
       <c r="K18">
-        <v>1.05652567056015</v>
+        <v>1.049728403077393</v>
       </c>
       <c r="L18">
-        <v>1.014507582295928</v>
+        <v>1.031647908873391</v>
       </c>
       <c r="M18">
-        <v>1.052506244537229</v>
+        <v>1.047260870163345</v>
       </c>
       <c r="N18">
-        <v>1.010443443010243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01241771038631</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04686405148779</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.046300007473728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9925282356337485</v>
+        <v>0.9984272092264376</v>
       </c>
       <c r="D19">
-        <v>1.043675921395393</v>
+        <v>1.036390865666995</v>
       </c>
       <c r="E19">
-        <v>1.000943711205944</v>
+        <v>1.018038473777622</v>
       </c>
       <c r="F19">
-        <v>1.039628513137896</v>
+        <v>1.033699617798132</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054724903500053</v>
+        <v>1.048409739815037</v>
       </c>
       <c r="J19">
-        <v>1.019740222297012</v>
+        <v>1.025414791088349</v>
       </c>
       <c r="K19">
-        <v>1.056720322740764</v>
+        <v>1.049548340788671</v>
       </c>
       <c r="L19">
-        <v>1.014681718741526</v>
+        <v>1.031490024267201</v>
       </c>
       <c r="M19">
-        <v>1.052735485661443</v>
+        <v>1.046899380656413</v>
       </c>
       <c r="N19">
-        <v>1.010498772871313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012366769626723</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.0462546858612</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.046179012117539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9911216561251387</v>
+        <v>0.9968124151064396</v>
       </c>
       <c r="D20">
-        <v>1.042512489223838</v>
+        <v>1.035229690933742</v>
       </c>
       <c r="E20">
-        <v>0.9998552944574189</v>
+        <v>1.016620259692412</v>
       </c>
       <c r="F20">
-        <v>1.038305948503852</v>
+        <v>1.032018606908025</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054200453340855</v>
+        <v>1.047926914181495</v>
       </c>
       <c r="J20">
-        <v>1.018999165789719</v>
+        <v>1.024466768221044</v>
       </c>
       <c r="K20">
-        <v>1.055846844595992</v>
+        <v>1.048680118803926</v>
       </c>
       <c r="L20">
-        <v>1.013900688815067</v>
+        <v>1.030377024636158</v>
       </c>
       <c r="M20">
-        <v>1.051707092689429</v>
+        <v>1.045520880900567</v>
       </c>
       <c r="N20">
-        <v>1.010250541621721</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012016709246166</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044639687165256</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.045569028067823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.986473736766647</v>
+        <v>0.9927352656753329</v>
       </c>
       <c r="D21">
-        <v>1.038670281858017</v>
+        <v>1.032910387236435</v>
       </c>
       <c r="E21">
-        <v>0.9962686515774416</v>
+        <v>1.013593779467401</v>
       </c>
       <c r="F21">
-        <v>1.033941107382734</v>
+        <v>1.029187651817475</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052454466387227</v>
+        <v>1.047113341251781</v>
       </c>
       <c r="J21">
-        <v>1.016548077084097</v>
+        <v>1.022539894165495</v>
       </c>
       <c r="K21">
-        <v>1.052954289379805</v>
+        <v>1.047293981620205</v>
       </c>
       <c r="L21">
-        <v>1.011321062006665</v>
+        <v>1.028322110376229</v>
       </c>
       <c r="M21">
-        <v>1.048306775421635</v>
+        <v>1.04363637981125</v>
       </c>
       <c r="N21">
-        <v>1.00942947140083</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011361537912103</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04310765350636</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.044592177606047</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.983491484224849</v>
+        <v>0.9901421986936608</v>
       </c>
       <c r="D22">
-        <v>1.036207083087346</v>
+        <v>1.031444210323478</v>
       </c>
       <c r="E22">
-        <v>0.9939752600609294</v>
+        <v>1.011686576935963</v>
       </c>
       <c r="F22">
-        <v>1.031144985650544</v>
+        <v>1.027421681983586</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051324428859739</v>
+        <v>1.046593161085813</v>
       </c>
       <c r="J22">
-        <v>1.014973750715661</v>
+        <v>1.021321242003073</v>
       </c>
       <c r="K22">
-        <v>1.051093848413918</v>
+        <v>1.046417469283026</v>
       </c>
       <c r="L22">
-        <v>1.0096670205402</v>
+        <v>1.027030021872851</v>
       </c>
       <c r="M22">
-        <v>1.046123713252637</v>
+        <v>1.04246880407585</v>
       </c>
       <c r="N22">
-        <v>1.008902089468188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010947901716196</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042183598335256</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.043959125802588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9850782749985868</v>
+        <v>0.9915167159082483</v>
       </c>
       <c r="D23">
-        <v>1.037517477562242</v>
+        <v>1.032210043420221</v>
       </c>
       <c r="E23">
-        <v>0.9951947604354737</v>
+        <v>1.012694866362806</v>
       </c>
       <c r="F23">
-        <v>1.032632296986187</v>
+        <v>1.028353029288054</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051926600084123</v>
+        <v>1.046864905368611</v>
       </c>
       <c r="J23">
-        <v>1.01581155773046</v>
+        <v>1.021965104122176</v>
       </c>
       <c r="K23">
-        <v>1.052084150471013</v>
+        <v>1.046870641574399</v>
       </c>
       <c r="L23">
-        <v>1.010546980626628</v>
+        <v>1.02771187500118</v>
       </c>
       <c r="M23">
-        <v>1.047285376668921</v>
+        <v>1.04308267521479</v>
       </c>
       <c r="N23">
-        <v>1.009182745812003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011165858345504</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042669434888909</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044270021593202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9911985986557926</v>
+        <v>0.9968413873937497</v>
       </c>
       <c r="D24">
-        <v>1.042576123586201</v>
+        <v>1.035208980182533</v>
       </c>
       <c r="E24">
-        <v>0.9999147964607069</v>
+        <v>1.016620726202205</v>
       </c>
       <c r="F24">
-        <v>1.038378275618963</v>
+        <v>1.031986291409997</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.054229190797193</v>
+        <v>1.047911492908552</v>
       </c>
       <c r="J24">
-        <v>1.019039712074073</v>
+        <v>1.024461570022698</v>
       </c>
       <c r="K24">
-        <v>1.055894649450287</v>
+        <v>1.048644766968476</v>
       </c>
       <c r="L24">
-        <v>1.013943408533903</v>
+        <v>1.030362117525567</v>
       </c>
       <c r="M24">
-        <v>1.051763356193281</v>
+        <v>1.045474048669612</v>
       </c>
       <c r="N24">
-        <v>1.010264123530425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012011856993424</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.044562038508086</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.045516980033101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9980555024755515</v>
+        <v>1.002836216951714</v>
       </c>
       <c r="D25">
-        <v>1.048250186123588</v>
+        <v>1.038613363152931</v>
       </c>
       <c r="E25">
-        <v>1.005234568404422</v>
+        <v>1.021073433504915</v>
       </c>
       <c r="F25">
-        <v>1.044832888081818</v>
+        <v>1.036113935225323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056766319286635</v>
+        <v>1.049060544447908</v>
       </c>
       <c r="J25">
-        <v>1.022648484392345</v>
+        <v>1.027268506635166</v>
       </c>
       <c r="K25">
-        <v>1.060142963377523</v>
+        <v>1.050640433200878</v>
       </c>
       <c r="L25">
-        <v>1.017752164301887</v>
+        <v>1.033353188025571</v>
       </c>
       <c r="M25">
-        <v>1.056772929075907</v>
+        <v>1.048176351599291</v>
       </c>
       <c r="N25">
-        <v>1.011472877825917</v>
+        <v>1.012962833168793</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046700715010696</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04692516125474</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007466840469149</v>
+        <v>1.007148604701366</v>
       </c>
       <c r="D2">
-        <v>1.041231909558672</v>
+        <v>1.038624697645187</v>
       </c>
       <c r="E2">
-        <v>1.024532263925669</v>
+        <v>1.023978855402091</v>
       </c>
       <c r="F2">
-        <v>1.039318622075266</v>
+        <v>1.038081588014672</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049909811095962</v>
+        <v>1.049005242873312</v>
       </c>
       <c r="J2">
-        <v>1.029426490399101</v>
+        <v>1.029117584457868</v>
       </c>
       <c r="K2">
-        <v>1.052145218346273</v>
+        <v>1.049570929747846</v>
       </c>
       <c r="L2">
-        <v>1.035660086117398</v>
+        <v>1.035113936436488</v>
       </c>
       <c r="M2">
-        <v>1.050256071315322</v>
+        <v>1.049034704374135</v>
       </c>
       <c r="N2">
-        <v>1.013692186600973</v>
+        <v>1.014901527680146</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.048346657890101</v>
+        <v>1.04738003758988</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.047941406067713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046129873611646</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02518660253178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010760981072926</v>
+        <v>1.010382138801569</v>
       </c>
       <c r="D3">
-        <v>1.043123694845061</v>
+        <v>1.040380833031431</v>
       </c>
       <c r="E3">
-        <v>1.027009517849619</v>
+        <v>1.026394666202171</v>
       </c>
       <c r="F3">
-        <v>1.041620367292415</v>
+        <v>1.040304382180421</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050506981979833</v>
+        <v>1.049543904772485</v>
       </c>
       <c r="J3">
-        <v>1.030962528456524</v>
+        <v>1.030593722667888</v>
       </c>
       <c r="K3">
-        <v>1.053233002873538</v>
+        <v>1.050521844371219</v>
       </c>
       <c r="L3">
-        <v>1.037308088004823</v>
+        <v>1.036700603819715</v>
       </c>
       <c r="M3">
-        <v>1.051747025953762</v>
+        <v>1.050446280135477</v>
       </c>
       <c r="N3">
-        <v>1.014212051919175</v>
+        <v>1.015298813842638</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049526634919401</v>
+        <v>1.048497193787187</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04870791079197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.046799329481482</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025343337170477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012859312566194</v>
+        <v>1.01244220104628</v>
       </c>
       <c r="D4">
-        <v>1.044334251906161</v>
+        <v>1.041505092951772</v>
       </c>
       <c r="E4">
-        <v>1.028593723422644</v>
+        <v>1.027939973399042</v>
       </c>
       <c r="F4">
-        <v>1.043093707879231</v>
+        <v>1.04172756535368</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.050880624296389</v>
+        <v>1.049880286878604</v>
       </c>
       <c r="J4">
-        <v>1.031939699291315</v>
+        <v>1.031532901516028</v>
       </c>
       <c r="K4">
-        <v>1.053925500517182</v>
+        <v>1.051127122460521</v>
       </c>
       <c r="L4">
-        <v>1.038358873870908</v>
+        <v>1.037712488379929</v>
       </c>
       <c r="M4">
-        <v>1.052698428231818</v>
+        <v>1.051347166956016</v>
       </c>
       <c r="N4">
-        <v>1.014542703831401</v>
+        <v>1.015551553880719</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050279596375966</v>
+        <v>1.049210177163988</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049198437131409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047228271680229</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02544093915968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013735152929693</v>
+        <v>1.01330207693814</v>
       </c>
       <c r="D5">
-        <v>1.044844581859777</v>
+        <v>1.041979339984051</v>
       </c>
       <c r="E5">
-        <v>1.029257042427653</v>
+        <v>1.02858704390603</v>
       </c>
       <c r="F5">
-        <v>1.043711751941645</v>
+        <v>1.042324633216901</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051036576165</v>
+        <v>1.05002063248774</v>
       </c>
       <c r="J5">
-        <v>1.032347980426697</v>
+        <v>1.031925297608304</v>
       </c>
       <c r="K5">
-        <v>1.054218494961642</v>
+        <v>1.051383617791686</v>
       </c>
       <c r="L5">
-        <v>1.038798652689263</v>
+        <v>1.038136002194095</v>
       </c>
       <c r="M5">
-        <v>1.053097645949383</v>
+        <v>1.051725240915713</v>
       </c>
       <c r="N5">
-        <v>1.014681000910484</v>
+        <v>1.015657267038154</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.050595546154309</v>
+        <v>1.049509393734643</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049412683831985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047417427452781</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025482396373185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013883518558266</v>
+        <v>1.013447660129058</v>
       </c>
       <c r="D6">
-        <v>1.044935675493915</v>
+        <v>1.042064213742174</v>
       </c>
       <c r="E6">
-        <v>1.029370233322483</v>
+        <v>1.02869740232601</v>
       </c>
       <c r="F6">
-        <v>1.043818233292219</v>
+        <v>1.042427476036654</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051064893054452</v>
+        <v>1.050046236909077</v>
       </c>
       <c r="J6">
-        <v>1.032418018995171</v>
+        <v>1.031992567545877</v>
       </c>
       <c r="K6">
-        <v>1.054273067589084</v>
+        <v>1.051431900501325</v>
       </c>
       <c r="L6">
-        <v>1.038874329584325</v>
+        <v>1.038208844146278</v>
       </c>
       <c r="M6">
-        <v>1.053167390466411</v>
+        <v>1.051791319004722</v>
       </c>
       <c r="N6">
-        <v>1.014704921569693</v>
+        <v>1.015675541296696</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.050650743502159</v>
+        <v>1.049561689466772</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.049459905401912</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047461075558673</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025490922552198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012875769817487</v>
+        <v>1.01246563511866</v>
       </c>
       <c r="D7">
-        <v>1.044356060595945</v>
+        <v>1.041528474876573</v>
       </c>
       <c r="E7">
-        <v>1.0286081693133</v>
+        <v>1.0279597846128</v>
       </c>
       <c r="F7">
-        <v>1.043109820777854</v>
+        <v>1.041747068374711</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.050888907529158</v>
+        <v>1.049890691325963</v>
       </c>
       <c r="J7">
-        <v>1.031949777469818</v>
+        <v>1.031549779765142</v>
       </c>
       <c r="K7">
-        <v>1.053944240830867</v>
+        <v>1.05114740703481</v>
       </c>
       <c r="L7">
-        <v>1.038370267352887</v>
+        <v>1.037729184008103</v>
       </c>
       <c r="M7">
-        <v>1.052711529508881</v>
+        <v>1.051363615871646</v>
       </c>
       <c r="N7">
-        <v>1.014546654801695</v>
+        <v>1.015582291292712</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050289965020063</v>
+        <v>1.049223195222879</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04923154695682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047264483445183</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025446601299547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008593015080469</v>
+        <v>1.008276748193082</v>
       </c>
       <c r="D8">
-        <v>1.041892535361156</v>
+        <v>1.039246442447648</v>
       </c>
       <c r="E8">
-        <v>1.02538034366828</v>
+        <v>1.024823728690564</v>
       </c>
       <c r="F8">
-        <v>1.040109537576951</v>
+        <v>1.038857586994001</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050121929527317</v>
+        <v>1.049205142274589</v>
       </c>
       <c r="J8">
-        <v>1.029954855106744</v>
+        <v>1.029647553835585</v>
       </c>
       <c r="K8">
-        <v>1.052533440308341</v>
+        <v>1.049919796353209</v>
       </c>
       <c r="L8">
-        <v>1.036227155755745</v>
+        <v>1.035677626145086</v>
       </c>
       <c r="M8">
-        <v>1.050772284804067</v>
+        <v>1.049535726756145</v>
       </c>
       <c r="N8">
-        <v>1.01387172106733</v>
+        <v>1.015123062563983</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.048755201758157</v>
+        <v>1.047776559368396</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048238521546864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046401443505169</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025248105017795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000774778225067</v>
+        <v>1.000608099722284</v>
       </c>
       <c r="D9">
-        <v>1.037421219773666</v>
+        <v>1.035099382451676</v>
       </c>
       <c r="E9">
-        <v>1.019535181851416</v>
+        <v>1.019128813503703</v>
       </c>
       <c r="F9">
-        <v>1.034683426668373</v>
+        <v>1.033621904695039</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048661351711896</v>
+        <v>1.047884947399109</v>
       </c>
       <c r="J9">
-        <v>1.026300206710432</v>
+        <v>1.026139402680351</v>
       </c>
       <c r="K9">
-        <v>1.049934998289568</v>
+        <v>1.047647554408909</v>
       </c>
       <c r="L9">
-        <v>1.032319070423176</v>
+        <v>1.031918979594096</v>
       </c>
       <c r="M9">
-        <v>1.047237780918539</v>
+        <v>1.046192064880061</v>
       </c>
       <c r="N9">
-        <v>1.01263389569275</v>
+        <v>1.0141877569052</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045957905190246</v>
+        <v>1.045130296797649</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046398169008423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044791435362505</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024859390021758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9954122765780993</v>
+        <v>0.995381808311407</v>
       </c>
       <c r="D10">
-        <v>1.034416590026261</v>
+        <v>1.032325507637913</v>
       </c>
       <c r="E10">
-        <v>1.015585402875766</v>
+        <v>1.015307715317196</v>
       </c>
       <c r="F10">
-        <v>1.031062399512159</v>
+        <v>1.030148209737159</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04764555515284</v>
+        <v>1.046975284354285</v>
       </c>
       <c r="J10">
-        <v>1.023809104663888</v>
+        <v>1.023779861148532</v>
       </c>
       <c r="K10">
-        <v>1.048191055397668</v>
+        <v>1.046134653777558</v>
       </c>
       <c r="L10">
-        <v>1.02967884661033</v>
+        <v>1.029405977324966</v>
       </c>
       <c r="M10">
-        <v>1.044892582197091</v>
+        <v>1.043993659344648</v>
       </c>
       <c r="N10">
-        <v>1.011793000120588</v>
+        <v>1.013671185855323</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044152935832257</v>
+        <v>1.043441545684374</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045181723259672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.043740024235146</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024596870149779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9933672519327016</v>
+        <v>0.9934269906828246</v>
       </c>
       <c r="D11">
-        <v>1.033497523535385</v>
+        <v>1.031480469933663</v>
       </c>
       <c r="E11">
-        <v>1.014271902290514</v>
+        <v>1.014068259942199</v>
       </c>
       <c r="F11">
-        <v>1.030158715355559</v>
+        <v>1.029311077468104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047397260614453</v>
+        <v>1.046770303299238</v>
       </c>
       <c r="J11">
-        <v>1.023018588120193</v>
+        <v>1.023075794344866</v>
       </c>
       <c r="K11">
-        <v>1.047814215850442</v>
+        <v>1.045832165951228</v>
       </c>
       <c r="L11">
-        <v>1.028929598578395</v>
+        <v>1.028729658270599</v>
       </c>
       <c r="M11">
-        <v>1.044533445217139</v>
+        <v>1.043700619204071</v>
       </c>
       <c r="N11">
-        <v>1.011551391170771</v>
+        <v>1.013728515341602</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044302016984086</v>
+        <v>1.043643261873262</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04494770304176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.04356180031895</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024587037083638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9927203251654197</v>
+        <v>0.9928098493272712</v>
       </c>
       <c r="D12">
-        <v>1.033291475059012</v>
+        <v>1.031285912198956</v>
       </c>
       <c r="E12">
-        <v>1.013933316646199</v>
+        <v>1.013751829615259</v>
       </c>
       <c r="F12">
-        <v>1.030067634588526</v>
+        <v>1.029237261128701</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047375859674471</v>
+        <v>1.046758329755907</v>
       </c>
       <c r="J12">
-        <v>1.022836001541345</v>
+        <v>1.022921657591407</v>
       </c>
       <c r="K12">
-        <v>1.047807497806788</v>
+        <v>1.045837305189144</v>
       </c>
       <c r="L12">
-        <v>1.028798357689268</v>
+        <v>1.028620225000572</v>
       </c>
       <c r="M12">
-        <v>1.044640600448383</v>
+        <v>1.043824968956938</v>
       </c>
       <c r="N12">
-        <v>1.011510224261813</v>
+        <v>1.013803389830197</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044711168348928</v>
+        <v>1.044066229731102</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044942953284959</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.043565433774554</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024617814771983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9931124618636912</v>
+        <v>0.9931760366964116</v>
       </c>
       <c r="D13">
-        <v>1.033639376796988</v>
+        <v>1.031593257792147</v>
       </c>
       <c r="E13">
-        <v>1.01433038964875</v>
+        <v>1.014123690040327</v>
       </c>
       <c r="F13">
-        <v>1.030613802590277</v>
+        <v>1.029757393346833</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047539569321864</v>
+        <v>1.046901869241268</v>
       </c>
       <c r="J13">
-        <v>1.023117503455411</v>
+        <v>1.023178344430147</v>
       </c>
       <c r="K13">
-        <v>1.048107312867225</v>
+        <v>1.046097129639985</v>
       </c>
       <c r="L13">
-        <v>1.029144967224152</v>
+        <v>1.028942071402033</v>
       </c>
       <c r="M13">
-        <v>1.045134941992797</v>
+        <v>1.044293665946583</v>
       </c>
       <c r="N13">
-        <v>1.011624104187032</v>
+        <v>1.013863199047118</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045377198882677</v>
+        <v>1.044712148081117</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.045152467725622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.043746427365589</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024688301876753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9938583956693295</v>
+        <v>0.9938790085258361</v>
       </c>
       <c r="D14">
-        <v>1.03413641744962</v>
+        <v>1.032038679999392</v>
       </c>
       <c r="E14">
-        <v>1.014941971637504</v>
+        <v>1.014696627843426</v>
       </c>
       <c r="F14">
-        <v>1.031285826860238</v>
+        <v>1.030391941106979</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047738579525925</v>
+        <v>1.047073662664247</v>
       </c>
       <c r="J14">
-        <v>1.023524946263421</v>
+        <v>1.023544685203712</v>
       </c>
       <c r="K14">
-        <v>1.048458223129831</v>
+        <v>1.04639688225977</v>
       </c>
       <c r="L14">
-        <v>1.029604107106366</v>
+        <v>1.02936322184835</v>
       </c>
       <c r="M14">
-        <v>1.045657138172556</v>
+        <v>1.044778849418029</v>
       </c>
       <c r="N14">
-        <v>1.01177420084523</v>
+        <v>1.013899509115251</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04596247898709</v>
+        <v>1.045268261740868</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.045401972066549</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043959898232528</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024756329175495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9942684733080495</v>
+        <v>0.9942670321434927</v>
       </c>
       <c r="D15">
-        <v>1.034386133365776</v>
+        <v>1.032264298630868</v>
       </c>
       <c r="E15">
-        <v>1.01525666367759</v>
+        <v>1.014991969699542</v>
       </c>
       <c r="F15">
-        <v>1.031599611814493</v>
+        <v>1.030687303165211</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047831046824633</v>
+        <v>1.04715312659699</v>
       </c>
       <c r="J15">
-        <v>1.023729104599462</v>
+        <v>1.023727724008919</v>
       </c>
       <c r="K15">
-        <v>1.048618967476749</v>
+        <v>1.046533675367866</v>
       </c>
       <c r="L15">
-        <v>1.029826122836139</v>
+        <v>1.029566202427726</v>
       </c>
       <c r="M15">
-        <v>1.045880475911562</v>
+        <v>1.044983965330343</v>
       </c>
       <c r="N15">
-        <v>1.011846000934627</v>
+        <v>1.0139090877841</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046176377635218</v>
+        <v>1.045467776057337</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045521412951755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.044062977819193</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024784064837604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9964582332376551</v>
+        <v>0.996354093262555</v>
       </c>
       <c r="D16">
-        <v>1.03559747619167</v>
+        <v>1.033367891518914</v>
       </c>
       <c r="E16">
-        <v>1.016851963546788</v>
+        <v>1.016498456395318</v>
       </c>
       <c r="F16">
-        <v>1.033049672045227</v>
+        <v>1.032052702297982</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048244165736287</v>
+        <v>1.047507918442325</v>
       </c>
       <c r="J16">
-        <v>1.02473584302323</v>
+        <v>1.024635863838793</v>
       </c>
       <c r="K16">
-        <v>1.049317555393644</v>
+        <v>1.047124739009017</v>
       </c>
       <c r="L16">
-        <v>1.030887669430755</v>
+        <v>1.030540259073599</v>
       </c>
       <c r="M16">
-        <v>1.046811783981092</v>
+        <v>1.045831334607085</v>
       </c>
       <c r="N16">
-        <v>1.012182381389913</v>
+        <v>1.013944117827163</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046873938460755</v>
+        <v>1.046098969876107</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046018455085957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.044484302787308</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024884839150201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9977493906638943</v>
+        <v>0.9975974415499275</v>
       </c>
       <c r="D17">
-        <v>1.036267601648193</v>
+        <v>1.033985245321331</v>
       </c>
       <c r="E17">
-        <v>1.017757019661891</v>
+        <v>1.017362185897655</v>
       </c>
       <c r="F17">
-        <v>1.033807355211721</v>
+        <v>1.032769601716832</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048454756362805</v>
+        <v>1.047690799562576</v>
       </c>
       <c r="J17">
-        <v>1.025294332051445</v>
+        <v>1.025148260651125</v>
       </c>
       <c r="K17">
-        <v>1.049668268241496</v>
+        <v>1.047422521945965</v>
       </c>
       <c r="L17">
-        <v>1.031460706171972</v>
+        <v>1.031072490697418</v>
       </c>
       <c r="M17">
-        <v>1.047247493986741</v>
+        <v>1.046226462576323</v>
       </c>
       <c r="N17">
-        <v>1.0123615696388</v>
+        <v>1.013980912438157</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047089904615886</v>
+        <v>1.04628277937125</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046268973065744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044697649307849</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024926207815103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9983837581499048</v>
+        <v>0.99821676566207</v>
       </c>
       <c r="D18">
-        <v>1.036511487803966</v>
+        <v>1.03421679098113</v>
       </c>
       <c r="E18">
-        <v>1.018135035865695</v>
+        <v>1.017728299774938</v>
       </c>
       <c r="F18">
-        <v>1.03400437075041</v>
+        <v>1.032954978393802</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04850149032584</v>
+        <v>1.047730734028731</v>
       </c>
       <c r="J18">
-        <v>1.02550796451727</v>
+        <v>1.025347311129186</v>
       </c>
       <c r="K18">
-        <v>1.049728403077393</v>
+        <v>1.047469927023814</v>
       </c>
       <c r="L18">
-        <v>1.031647908873391</v>
+        <v>1.031247878921981</v>
       </c>
       <c r="M18">
-        <v>1.047260870163345</v>
+        <v>1.046228119433206</v>
       </c>
       <c r="N18">
-        <v>1.01241771038631</v>
+        <v>1.013981763587698</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04686405148779</v>
+        <v>1.04604749353949</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046300007473728</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044718543652021</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024912903710022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9984272092264376</v>
+        <v>0.9982685356280795</v>
       </c>
       <c r="D19">
-        <v>1.036390865666995</v>
+        <v>1.034117387926597</v>
       </c>
       <c r="E19">
-        <v>1.018038473777622</v>
+        <v>1.017641498967563</v>
       </c>
       <c r="F19">
-        <v>1.033699617798132</v>
+        <v>1.032661341089962</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048409739815037</v>
+        <v>1.047648684675941</v>
       </c>
       <c r="J19">
-        <v>1.025414791088349</v>
+        <v>1.0252621047543</v>
       </c>
       <c r="K19">
-        <v>1.049548340788671</v>
+        <v>1.047310567868204</v>
       </c>
       <c r="L19">
-        <v>1.031490024267201</v>
+        <v>1.031099561203952</v>
       </c>
       <c r="M19">
-        <v>1.046899380656413</v>
+        <v>1.045877493889646</v>
       </c>
       <c r="N19">
-        <v>1.012366769626723</v>
+        <v>1.013933102536189</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.0462546858612</v>
+        <v>1.045446456532819</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046179012117539</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044612814147938</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02485637019631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9968124151064396</v>
+        <v>0.9967246452467172</v>
       </c>
       <c r="D20">
-        <v>1.035229690933742</v>
+        <v>1.033069763483199</v>
       </c>
       <c r="E20">
-        <v>1.016620259692412</v>
+        <v>1.01629159638759</v>
       </c>
       <c r="F20">
-        <v>1.032018606908025</v>
+        <v>1.031053583796463</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047926914181495</v>
+        <v>1.047220808764174</v>
       </c>
       <c r="J20">
-        <v>1.024466768221044</v>
+        <v>1.024382412820667</v>
       </c>
       <c r="K20">
-        <v>1.048680118803926</v>
+        <v>1.046555019963464</v>
       </c>
       <c r="L20">
-        <v>1.030377024636158</v>
+        <v>1.030053901626412</v>
       </c>
       <c r="M20">
-        <v>1.045520880900567</v>
+        <v>1.044571520098303</v>
       </c>
       <c r="N20">
-        <v>1.012016709246166</v>
+        <v>1.013736133616641</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044639687165256</v>
+        <v>1.043888372389414</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045569028067823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044082882884536</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024674497469658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9927352656753329</v>
+        <v>0.9928559776357297</v>
       </c>
       <c r="D21">
-        <v>1.032910387236435</v>
+        <v>1.030968667653435</v>
       </c>
       <c r="E21">
-        <v>1.013593779467401</v>
+        <v>1.013446899552037</v>
       </c>
       <c r="F21">
-        <v>1.029187651817475</v>
+        <v>1.028394332830569</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047113341251781</v>
+        <v>1.04652709223676</v>
       </c>
       <c r="J21">
-        <v>1.022539894165495</v>
+        <v>1.022655454167571</v>
       </c>
       <c r="K21">
-        <v>1.047293981620205</v>
+        <v>1.045386158666161</v>
       </c>
       <c r="L21">
-        <v>1.028322110376229</v>
+        <v>1.028177917323733</v>
       </c>
       <c r="M21">
-        <v>1.04363637981125</v>
+        <v>1.042857019885255</v>
       </c>
       <c r="N21">
-        <v>1.011361537912103</v>
+        <v>1.013685394797668</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04310765350636</v>
+        <v>1.042490844338776</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.044592177606047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.043259974613859</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02446378773966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9901421986936608</v>
+        <v>0.9903938589062786</v>
       </c>
       <c r="D22">
-        <v>1.031444210323478</v>
+        <v>1.029640130019913</v>
       </c>
       <c r="E22">
-        <v>1.011686576935963</v>
+        <v>1.011654003018849</v>
       </c>
       <c r="F22">
-        <v>1.027421681983586</v>
+        <v>1.026736759360533</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046593161085813</v>
+        <v>1.046082461081372</v>
       </c>
       <c r="J22">
-        <v>1.021321242003073</v>
+        <v>1.021561542950014</v>
       </c>
       <c r="K22">
-        <v>1.046417469283026</v>
+        <v>1.04464642319291</v>
       </c>
       <c r="L22">
-        <v>1.027030021872851</v>
+        <v>1.026998073905986</v>
       </c>
       <c r="M22">
-        <v>1.04246880407585</v>
+        <v>1.041796533422463</v>
       </c>
       <c r="N22">
-        <v>1.010947901716196</v>
+        <v>1.013647310321546</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042183598335256</v>
+        <v>1.041651542231188</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.043959125802588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.042722316217786</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024329043224075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9915167159082483</v>
+        <v>0.9916871239066181</v>
       </c>
       <c r="D23">
-        <v>1.032210043420221</v>
+        <v>1.030328924049993</v>
       </c>
       <c r="E23">
-        <v>1.012694866362806</v>
+        <v>1.012592352054247</v>
       </c>
       <c r="F23">
-        <v>1.028353029288054</v>
+        <v>1.027604193054198</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046864905368611</v>
+        <v>1.046310023212079</v>
       </c>
       <c r="J23">
-        <v>1.021965104122176</v>
+        <v>1.022128043541958</v>
       </c>
       <c r="K23">
-        <v>1.046870641574399</v>
+        <v>1.045023113885585</v>
       </c>
       <c r="L23">
-        <v>1.02771187500118</v>
+        <v>1.027611280292962</v>
       </c>
       <c r="M23">
-        <v>1.04308267521479</v>
+        <v>1.042347322651041</v>
       </c>
       <c r="N23">
-        <v>1.011165858345504</v>
+        <v>1.013624022180497</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042669434888909</v>
+        <v>1.04208745415012</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044270021593202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.042978192075763</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02439574218022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9968413873937497</v>
+        <v>0.9967540609412595</v>
       </c>
       <c r="D24">
-        <v>1.035208980182533</v>
+        <v>1.033051235645578</v>
       </c>
       <c r="E24">
-        <v>1.016620726202205</v>
+        <v>1.016292893919146</v>
       </c>
       <c r="F24">
-        <v>1.031986291409997</v>
+        <v>1.031022364276007</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047911492908552</v>
+        <v>1.047206453013287</v>
       </c>
       <c r="J24">
-        <v>1.024461570022698</v>
+        <v>1.02437763572339</v>
       </c>
       <c r="K24">
-        <v>1.048644766968476</v>
+        <v>1.046521773112898</v>
       </c>
       <c r="L24">
-        <v>1.030362117525567</v>
+        <v>1.030039804425108</v>
       </c>
       <c r="M24">
-        <v>1.045474048669612</v>
+        <v>1.044525747304574</v>
       </c>
       <c r="N24">
-        <v>1.012011856993424</v>
+        <v>1.013728600332408</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044562038508086</v>
+        <v>1.043811525372463</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045516980033101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044029636750316</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024662143098839</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002836216951714</v>
+        <v>1.002620181138706</v>
       </c>
       <c r="D25">
-        <v>1.038613363152931</v>
+        <v>1.036202162814683</v>
       </c>
       <c r="E25">
-        <v>1.021073433504915</v>
+        <v>1.020619557369755</v>
       </c>
       <c r="F25">
-        <v>1.036113935225323</v>
+        <v>1.034996626052736</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049060544447908</v>
+        <v>1.048243522277518</v>
       </c>
       <c r="J25">
-        <v>1.027268506635166</v>
+        <v>1.027059686349732</v>
       </c>
       <c r="K25">
-        <v>1.050640433200878</v>
+        <v>1.048263327823427</v>
       </c>
       <c r="L25">
-        <v>1.033353188025571</v>
+        <v>1.032905996935381</v>
       </c>
       <c r="M25">
-        <v>1.048176351599291</v>
+        <v>1.047074912993228</v>
       </c>
       <c r="N25">
-        <v>1.012962833168793</v>
+        <v>1.014403514267318</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046700715010696</v>
+        <v>1.045829007102437</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04692516125474</v>
+        <v>1.045257855076586</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024969198923918</v>
       </c>
     </row>
   </sheetData>
